--- a/Ressources/Calcul position.xlsx
+++ b/Ressources/Calcul position.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\PRD Balises\Rapport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\PRD Balises\Ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>d1</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>cm</t>
-  </si>
-  <si>
-    <t>Position</t>
   </si>
   <si>
     <t>x</t>
@@ -101,12 +98,26 @@
   <si>
     <t>Index</t>
   </si>
+  <si>
+    <t>Entrées des calculs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,15 +308,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,13 +332,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -332,7 +356,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -366,11 +390,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$5</c:f>
+              <c:f>Feuil1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Position</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -403,29 +427,34 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$B$6</c:f>
+              <c:f>Feuil1!$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-* #\ ##0.0\ _€_-;\-* #\ ##0.0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>101.75</c:v>
+                  <c:v>99.975375000000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$7</c:f>
+              <c:f>Feuil1!$B$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-* #\ ##0.0\ _€_-;\-* #\ ##0.0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>92.75</c:v>
+                  <c:v>150.02212500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECFB-471D-8B3B-F6EF91706280}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -474,307 +503,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>180.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139.72374197995802</c:v>
+                  <c:v>179.94421913561737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138.89605818402691</c:v>
+                  <c:v>178.87828064700037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.52021510201641</c:v>
+                  <c:v>177.10639130638259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.60164255800834</c:v>
+                  <c:v>174.6355439514922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133.14791228132148</c:v>
+                  <c:v>171.4754898880162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130.1687080243552</c:v>
+                  <c:v>167.63870040565172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126.67578734524272</c:v>
+                  <c:v>163.14031755962333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122.6829352061409</c:v>
+                  <c:v>157.99809441190862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118.20590957028212</c:v>
+                  <c:v>152.23232496801333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113.26237921249265</c:v>
+                  <c:v>145.86576408580302</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107.87185398861048</c:v>
+                  <c:v>138.92353767247479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>102.05560783899762</c:v>
+                  <c:v>131.43304352408052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.836594830016409</c:v>
+                  <c:v>123.42384319894256</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.239358564816555</c:v>
+                  <c:v>114.92754535168875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.289935320946228</c:v>
+                  <c:v>105.97768098833289</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.015751297059523</c:v>
+                  <c:v>96.609571134713079</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.445514374240119</c:v>
+                  <c:v>86.860187440539249</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.609100819110175</c:v>
+                  <c:v>76.768006269182607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.5374373758549</c:v>
+                  <c:v>66.372856849047423</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.262379212492647</c:v>
+                  <c:v>55.715764085803031</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.816584203079664</c:v>
+                  <c:v>44.838786655823313</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.233384042001433</c:v>
+                  <c:v>33.784851019806133</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.546652699002596</c:v>
+                  <c:v>22.597582011644061</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.7906727341038629</c:v>
+                  <c:v>11.32113067113519</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.2510205505144043E-14</c:v>
+                  <c:v>-2.8989928946981938E-14</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8.7906727341038771</c:v>
+                  <c:v>-11.321130671135206</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-17.54665269900261</c:v>
+                  <c:v>-22.597582011644079</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-26.233384042001475</c:v>
+                  <c:v>-33.78485101980619</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-34.816584203079678</c:v>
+                  <c:v>-44.838786655823334</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-43.262379212492661</c:v>
+                  <c:v>-55.715764085803052</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-51.537437375854914</c:v>
+                  <c:v>-66.372856849047437</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-59.609100819110182</c:v>
+                  <c:v>-76.768006269182621</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-67.445514374240162</c:v>
+                  <c:v>-86.860187440539292</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-75.015751297059566</c:v>
+                  <c:v>-96.60957113471315</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-82.289935320946228</c:v>
+                  <c:v>-105.97768098833289</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-89.23935856481657</c:v>
+                  <c:v>-114.92754535168876</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-95.836594830016423</c:v>
+                  <c:v>-123.42384319894259</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-102.05560783899763</c:v>
+                  <c:v>-131.43304352408052</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-107.87185398861051</c:v>
+                  <c:v>-138.92353767247482</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-113.26237921249263</c:v>
+                  <c:v>-145.86576408580302</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-118.20590957028212</c:v>
+                  <c:v>-152.23232496801333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-122.6829352061409</c:v>
+                  <c:v>-157.99809441190862</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-126.67578734524274</c:v>
+                  <c:v>-163.14031755962333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-130.1687080243552</c:v>
+                  <c:v>-167.63870040565175</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-133.14791228132151</c:v>
+                  <c:v>-171.4754898880162</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-135.60164255800834</c:v>
+                  <c:v>-174.6355439514922</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-137.52021510201641</c:v>
+                  <c:v>-177.10639130638259</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-138.89605818402691</c:v>
+                  <c:v>-178.87828064700037</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-139.72374197995802</c:v>
+                  <c:v>-179.94421913561737</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-140</c:v>
+                  <c:v>-180.3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-139.72374197995802</c:v>
+                  <c:v>-179.94421913561737</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-138.89605818402691</c:v>
+                  <c:v>-178.87828064700037</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-137.52021510201641</c:v>
+                  <c:v>-177.10639130638256</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-135.60164255800834</c:v>
+                  <c:v>-174.6355439514922</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-133.14791228132148</c:v>
+                  <c:v>-171.4754898880162</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-130.16870802435517</c:v>
+                  <c:v>-167.63870040565172</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-126.67578734524272</c:v>
+                  <c:v>-163.14031755962333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-122.68293520614088</c:v>
+                  <c:v>-157.9980944119086</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-118.20590957028209</c:v>
+                  <c:v>-152.2323249680133</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-113.26237921249262</c:v>
+                  <c:v>-145.86576408580299</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-107.87185398861047</c:v>
+                  <c:v>-138.92353767247477</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-102.05560783899762</c:v>
+                  <c:v>-131.43304352408052</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-95.836594830016409</c:v>
+                  <c:v>-123.42384319894256</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-89.239358564816527</c:v>
+                  <c:v>-114.92754535168874</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-82.289935320946256</c:v>
+                  <c:v>-105.97768098833293</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-75.015751297059481</c:v>
+                  <c:v>-96.609571134713036</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-67.445514374240133</c:v>
+                  <c:v>-86.860187440539264</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-59.609100819110104</c:v>
+                  <c:v>-76.768006269182521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-51.537437375854893</c:v>
+                  <c:v>-66.372856849047409</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-43.262379212492661</c:v>
+                  <c:v>-55.715764085803052</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-34.816584203079621</c:v>
+                  <c:v>-44.838786655823256</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-26.233384042001447</c:v>
+                  <c:v>-33.784851019806155</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-17.546652699002522</c:v>
+                  <c:v>-22.597582011643965</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-8.7906727341038486</c:v>
+                  <c:v>-11.321130671135172</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.572811755308102E-14</c:v>
+                  <c:v>-3.3134139963003628E-14</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.7906727341039215</c:v>
+                  <c:v>11.321130671135265</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17.546652699002593</c:v>
+                  <c:v>22.597582011644054</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>26.233384042001518</c:v>
+                  <c:v>33.78485101980624</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>34.816584203079692</c:v>
+                  <c:v>44.838786655823348</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43.262379212492611</c:v>
+                  <c:v>55.715764085802988</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51.537437375854957</c:v>
+                  <c:v>66.372856849047494</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>59.609100819110168</c:v>
+                  <c:v>76.768006269182592</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>67.445514374240204</c:v>
+                  <c:v>86.860187440539349</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>75.015751297059552</c:v>
+                  <c:v>96.609571134713121</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>82.289935320946313</c:v>
+                  <c:v>105.97768098833302</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>89.239358564816598</c:v>
+                  <c:v>114.92754535168881</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>95.836594830016409</c:v>
+                  <c:v>123.42384319894256</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>102.05560783899766</c:v>
+                  <c:v>131.43304352408057</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>107.87185398861051</c:v>
+                  <c:v>138.92353767247482</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>113.26237921249269</c:v>
+                  <c:v>145.86576408580311</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>118.20590957028215</c:v>
+                  <c:v>152.23232496801336</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>122.6829352061409</c:v>
+                  <c:v>157.99809441190862</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>126.67578734524275</c:v>
+                  <c:v>163.14031755962336</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>130.1687080243552</c:v>
+                  <c:v>167.63870040565175</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>133.14791228132154</c:v>
+                  <c:v>171.47548988801623</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>135.60164255800836</c:v>
+                  <c:v>174.63554395149222</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>137.52021510201641</c:v>
+                  <c:v>177.10639130638259</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>138.89605818402691</c:v>
+                  <c:v>178.87828064700037</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>139.72374197995802</c:v>
+                  <c:v>179.94421913561737</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>140</c:v>
+                  <c:v>180.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,309 +818,314 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7906727341038717</c:v>
+                  <c:v>11.321130671135203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.546652699002596</c:v>
+                  <c:v>22.597582011644061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.233384042001447</c:v>
+                  <c:v>33.784851019806155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.816584203079671</c:v>
+                  <c:v>44.83878665582332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.262379212492633</c:v>
+                  <c:v>55.715764085803016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.537437375854914</c:v>
+                  <c:v>66.372856849047437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.609100819110182</c:v>
+                  <c:v>76.768006269182621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.445514374240148</c:v>
+                  <c:v>86.860187440539278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.015751297059538</c:v>
+                  <c:v>96.609571134713107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82.289935320946242</c:v>
+                  <c:v>105.97768098833291</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>89.23935856481657</c:v>
+                  <c:v>114.92754535168876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95.836594830016423</c:v>
+                  <c:v>123.42384319894259</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102.05560783899762</c:v>
+                  <c:v>131.43304352408052</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>107.8718539886105</c:v>
+                  <c:v>138.92353767247482</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>113.26237921249265</c:v>
+                  <c:v>145.86576408580302</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>118.20590957028212</c:v>
+                  <c:v>152.23232496801333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122.68293520614091</c:v>
+                  <c:v>157.99809441190862</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>126.67578734524274</c:v>
+                  <c:v>163.14031755962333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130.1687080243552</c:v>
+                  <c:v>167.63870040565175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>133.14791228132148</c:v>
+                  <c:v>171.4754898880162</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>135.60164255800834</c:v>
+                  <c:v>174.6355439514922</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>137.52021510201641</c:v>
+                  <c:v>177.10639130638259</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>138.89605818402691</c:v>
+                  <c:v>178.87828064700037</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>139.72374197995802</c:v>
+                  <c:v>179.94421913561737</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>140</c:v>
+                  <c:v>180.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>139.72374197995802</c:v>
+                  <c:v>179.94421913561737</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>138.89605818402688</c:v>
+                  <c:v>178.87828064700037</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>137.52021510201641</c:v>
+                  <c:v>177.10639130638256</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>135.60164255800834</c:v>
+                  <c:v>174.6355439514922</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>133.14791228132148</c:v>
+                  <c:v>171.4754898880162</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>130.1687080243552</c:v>
+                  <c:v>167.63870040565172</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>126.67578734524272</c:v>
+                  <c:v>163.14031755962333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>122.68293520614088</c:v>
+                  <c:v>157.9980944119086</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>118.20590957028209</c:v>
+                  <c:v>152.2323249680133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>113.26237921249265</c:v>
+                  <c:v>145.86576408580302</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>107.8718539886105</c:v>
+                  <c:v>138.92353767247482</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>102.0556078389976</c:v>
+                  <c:v>131.43304352408049</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>95.836594830016395</c:v>
+                  <c:v>123.42384319894255</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>89.239358564816527</c:v>
+                  <c:v>114.92754535168874</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82.289935320946256</c:v>
+                  <c:v>105.97768098833293</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>75.015751297059538</c:v>
+                  <c:v>96.609571134713107</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>67.445514374240133</c:v>
+                  <c:v>86.860187440539264</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>59.609100819110147</c:v>
+                  <c:v>76.768006269182578</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51.537437375854886</c:v>
+                  <c:v>66.372856849047409</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43.262379212492597</c:v>
+                  <c:v>55.715764085802967</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>34.816584203079678</c:v>
+                  <c:v>44.838786655823327</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>26.23338404200144</c:v>
+                  <c:v>33.78485101980614</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17.546652699002571</c:v>
+                  <c:v>22.597582011644029</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.7906727341038398</c:v>
+                  <c:v>11.32113067113516</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-4.5020411010288086E-14</c:v>
+                  <c:v>-5.7979857893963876E-14</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-8.7906727341038682</c:v>
+                  <c:v>-11.321130671135197</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-17.5466526990026</c:v>
+                  <c:v>-22.597582011644064</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-26.233384042001468</c:v>
+                  <c:v>-33.784851019806176</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-34.816584203079699</c:v>
+                  <c:v>-44.838786655823363</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-43.262379212492682</c:v>
+                  <c:v>-55.71576408580308</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-51.537437375854964</c:v>
+                  <c:v>-66.372856849047508</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-59.609100819110175</c:v>
+                  <c:v>-76.768006269182607</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-67.445514374240148</c:v>
+                  <c:v>-86.860187440539292</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-75.015751297059552</c:v>
+                  <c:v>-96.609571134713121</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-82.28993532094627</c:v>
+                  <c:v>-105.97768098833295</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-89.239358564816598</c:v>
+                  <c:v>-114.92754535168881</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-95.836594830016423</c:v>
+                  <c:v>-123.42384319894259</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-102.05560783899762</c:v>
+                  <c:v>-131.43304352408052</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-107.87185398861051</c:v>
+                  <c:v>-138.92353767247482</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-113.26237921249263</c:v>
+                  <c:v>-145.86576408580302</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-118.20590957028215</c:v>
+                  <c:v>-152.23232496801336</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-122.6829352061409</c:v>
+                  <c:v>-157.99809441190862</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-126.67578734524277</c:v>
+                  <c:v>-163.14031755962338</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-130.1687080243552</c:v>
+                  <c:v>-167.63870040565175</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-133.14791228132148</c:v>
+                  <c:v>-171.4754898880162</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-135.60164255800836</c:v>
+                  <c:v>-174.63554395149222</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-137.52021510201641</c:v>
+                  <c:v>-177.10639130638259</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-138.89605818402691</c:v>
+                  <c:v>-178.87828064700037</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-139.72374197995802</c:v>
+                  <c:v>-179.94421913561737</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-140</c:v>
+                  <c:v>-180.3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-139.72374197995802</c:v>
+                  <c:v>-179.94421913561737</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-138.89605818402691</c:v>
+                  <c:v>-178.87828064700037</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-137.52021510201641</c:v>
+                  <c:v>-177.10639130638256</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-135.60164255800834</c:v>
+                  <c:v>-174.6355439514922</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-133.14791228132151</c:v>
+                  <c:v>-171.4754898880162</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-130.16870802435517</c:v>
+                  <c:v>-167.63870040565172</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-126.67578734524274</c:v>
+                  <c:v>-163.14031755962333</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-122.68293520614087</c:v>
+                  <c:v>-157.99809441190857</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-118.20590957028209</c:v>
+                  <c:v>-152.2323249680133</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-113.26237921249258</c:v>
+                  <c:v>-145.86576408580297</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-107.87185398861047</c:v>
+                  <c:v>-138.92353767247477</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-102.05560783899762</c:v>
+                  <c:v>-131.43304352408052</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-95.836594830016367</c:v>
+                  <c:v>-123.42384319894251</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-89.239358564816555</c:v>
+                  <c:v>-114.92754535168875</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-82.289935320946157</c:v>
+                  <c:v>-105.97768098833281</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-75.015751297059481</c:v>
+                  <c:v>-96.609571134713036</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-67.445514374240148</c:v>
+                  <c:v>-86.860187440539278</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-59.609100819110111</c:v>
+                  <c:v>-76.768006269182521</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-51.5374373758549</c:v>
+                  <c:v>-66.372856849047423</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-43.262379212492547</c:v>
+                  <c:v>-55.71576408580291</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-34.816584203079628</c:v>
+                  <c:v>-44.83878665582327</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-26.233384042001457</c:v>
+                  <c:v>-33.784851019806162</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-17.546652699002529</c:v>
+                  <c:v>-22.597582011643976</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-8.7906727341038575</c:v>
+                  <c:v>-11.321130671135181</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.0040822020576172E-14</c:v>
+                  <c:v>1.1595971578792775E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECFB-471D-8B3B-F6EF91706280}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1126,307 +1160,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>111.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.70400926424074</c:v>
+                  <c:v>111.57938823828076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148.81720519717169</c:v>
+                  <c:v>110.91842360695863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.3430876093033</c:v>
+                  <c:v>109.81971463146739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145.28747416929465</c:v>
+                  <c:v>108.28759741418095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142.65847744427302</c:v>
+                  <c:v>106.32811852179816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>139.46647288323771</c:v>
+                  <c:v>103.9490111223065</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.72405786990291</c:v>
+                  <c:v>101.15966446570097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>131.44600200657953</c:v>
+                  <c:v>97.97108682890395</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126.64918882530226</c:v>
+                  <c:v>94.395862071125279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121.35254915624212</c:v>
+                  <c:v>90.44809997111912</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>115.57698641636837</c:v>
+                  <c:v>86.143380542333219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109.34529411321174</c:v>
+                  <c:v>81.498692545713808</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102.68206588930329</c:v>
+                  <c:v>76.532366442827382</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.613598462303443</c:v>
+                  <c:v>71.264002053903496</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.167787843870954</c:v>
+                  <c:v>65.714391206298487</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.374019246849485</c:v>
+                  <c:v>59.905435678651813</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.263051115257269</c:v>
+                  <c:v>53.860060764571756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.8668937347609</c:v>
+                  <c:v>47.602124796975119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.21868290270168</c:v>
+                  <c:v>41.156324990146985</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.352549156242119</c:v>
+                  <c:v>34.548099971119122</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.303483074728213</c:v>
+                  <c:v>27.80352938503076</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.107197187858677</c:v>
+                  <c:v>20.949230970683999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.799985034645637</c:v>
+                  <c:v>14.012255512489215</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.4185779293969958</c:v>
+                  <c:v>7.0199800833772272</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.4118077326940046E-14</c:v>
+                  <c:v>-1.7976006967679314E-14</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-9.41857792939701</c:v>
+                  <c:v>-7.0199800833772379</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-18.799985034645655</c:v>
+                  <c:v>-14.012255512489228</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-28.107197187858723</c:v>
+                  <c:v>-20.949230970684035</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-37.303483074728227</c:v>
+                  <c:v>-27.803529385030771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-46.352549156242134</c:v>
+                  <c:v>-34.548099971119136</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-55.218682902701694</c:v>
+                  <c:v>-41.156324990146999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-63.866893734760907</c:v>
+                  <c:v>-47.602124796975126</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-72.263051115257312</c:v>
+                  <c:v>-53.860060764571784</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-80.374019246849528</c:v>
+                  <c:v>-59.905435678651848</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-88.167787843870954</c:v>
+                  <c:v>-65.714391206298487</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-95.613598462303457</c:v>
+                  <c:v>-71.264002053903511</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-102.6820658893033</c:v>
+                  <c:v>-76.532366442827396</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-109.34529411321175</c:v>
+                  <c:v>-81.498692545713823</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-115.5769864163684</c:v>
+                  <c:v>-86.143380542333247</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-121.35254915624211</c:v>
+                  <c:v>-90.448099971119106</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-126.64918882530226</c:v>
+                  <c:v>-94.395862071125279</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-131.44600200657953</c:v>
+                  <c:v>-97.97108682890395</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-135.72405786990294</c:v>
+                  <c:v>-101.15966446570098</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-139.46647288323771</c:v>
+                  <c:v>-103.94901112230652</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-142.65847744427305</c:v>
+                  <c:v>-106.32811852179817</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-145.28747416929465</c:v>
+                  <c:v>-108.28759741418095</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-147.3430876093033</c:v>
+                  <c:v>-109.81971463146739</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-148.81720519717169</c:v>
+                  <c:v>-110.91842360695863</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-149.70400926424074</c:v>
+                  <c:v>-111.57938823828076</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-150</c:v>
+                  <c:v>-111.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-149.70400926424074</c:v>
+                  <c:v>-111.57938823828076</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-148.81720519717169</c:v>
+                  <c:v>-110.91842360695863</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-147.3430876093033</c:v>
+                  <c:v>-109.81971463146738</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-145.28747416929465</c:v>
+                  <c:v>-108.28759741418095</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-142.65847744427302</c:v>
+                  <c:v>-106.32811852179816</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-139.46647288323769</c:v>
+                  <c:v>-103.94901112230649</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-135.72405786990291</c:v>
+                  <c:v>-101.15966446570097</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-131.44600200657953</c:v>
+                  <c:v>-97.971086828903935</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-126.64918882530225</c:v>
+                  <c:v>-94.395862071125265</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-121.35254915624209</c:v>
+                  <c:v>-90.448099971119092</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-115.57698641636836</c:v>
+                  <c:v>-86.143380542333205</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-109.34529411321174</c:v>
+                  <c:v>-81.498692545713808</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-102.68206588930329</c:v>
+                  <c:v>-76.532366442827382</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-95.613598462303429</c:v>
+                  <c:v>-71.264002053903482</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-88.167787843870983</c:v>
+                  <c:v>-65.714391206298501</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-80.374019246849443</c:v>
+                  <c:v>-59.905435678651784</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-72.263051115257284</c:v>
+                  <c:v>-53.860060764571763</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-63.866893734760822</c:v>
+                  <c:v>-47.602124796975069</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-55.218682902701673</c:v>
+                  <c:v>-41.156324990146977</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-46.352549156242134</c:v>
+                  <c:v>-34.548099971119136</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-37.303483074728163</c:v>
+                  <c:v>-27.803529385030725</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-28.107197187858695</c:v>
+                  <c:v>-20.949230970684013</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-18.799985034645559</c:v>
+                  <c:v>-14.012255512489157</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-9.4185779293969816</c:v>
+                  <c:v>-7.0199800833772166</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.756584023544395E-14</c:v>
+                  <c:v>-2.0545739588817558E-14</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.418577929397058</c:v>
+                  <c:v>7.0199800833772734</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18.799985034645633</c:v>
+                  <c:v>14.012255512489213</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>28.10719718785877</c:v>
+                  <c:v>20.94923097068407</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>37.303483074728241</c:v>
+                  <c:v>27.803529385030782</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>46.352549156242084</c:v>
+                  <c:v>34.5480999711191</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>55.218682902701737</c:v>
+                  <c:v>41.156324990147027</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>63.866893734760893</c:v>
+                  <c:v>47.602124796975119</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>72.263051115257355</c:v>
+                  <c:v>53.860060764571813</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>80.374019246849514</c:v>
+                  <c:v>59.905435678651834</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>88.167787843871054</c:v>
+                  <c:v>65.714391206298558</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>95.6135984623035</c:v>
+                  <c:v>71.264002053903539</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>102.68206588930329</c:v>
+                  <c:v>76.532366442827382</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>109.34529411321178</c:v>
+                  <c:v>81.498692545713851</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>115.5769864163684</c:v>
+                  <c:v>86.143380542333247</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>121.35254915624216</c:v>
+                  <c:v>90.448099971119163</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>126.64918882530229</c:v>
+                  <c:v>94.395862071125308</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>131.44600200657953</c:v>
+                  <c:v>97.97108682890395</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>135.72405786990296</c:v>
+                  <c:v>101.159664465701</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>139.46647288323771</c:v>
+                  <c:v>103.94901112230652</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>142.65847744427307</c:v>
+                  <c:v>106.32811852179819</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>145.28747416929468</c:v>
+                  <c:v>108.28759741418096</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>147.3430876093033</c:v>
+                  <c:v>109.81971463146739</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>148.81720519717169</c:v>
+                  <c:v>110.91842360695863</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>149.70400926424074</c:v>
+                  <c:v>111.57938823828076</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>150</c:v>
+                  <c:v>111.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,301 +1475,301 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.418577929397</c:v>
+                  <c:v>207.01998008337725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218.79998503464563</c:v>
+                  <c:v>214.01225551248922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228.1071971878587</c:v>
+                  <c:v>220.94923097068403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237.30348307472821</c:v>
+                  <c:v>227.80352938503077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246.35254915624211</c:v>
+                  <c:v>234.54809997111911</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>255.21868290270169</c:v>
+                  <c:v>241.156324990147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>263.86689373476088</c:v>
+                  <c:v>247.60212479697512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>272.26305111525733</c:v>
+                  <c:v>253.86006076457176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>280.37401924684951</c:v>
+                  <c:v>259.90543567865183</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>288.167787843871</c:v>
+                  <c:v>265.7143912062985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>295.61359846230346</c:v>
+                  <c:v>271.26400205390348</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>302.68206588930332</c:v>
+                  <c:v>276.53236644282742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>309.34529411321171</c:v>
+                  <c:v>281.49869254571382</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>315.57698641636841</c:v>
+                  <c:v>286.14338054233326</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>321.35254915624211</c:v>
+                  <c:v>290.44809997111912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>326.64918882530225</c:v>
+                  <c:v>294.39586207112529</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>331.44600200657953</c:v>
+                  <c:v>297.97108682890394</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>335.72405786990294</c:v>
+                  <c:v>301.15966446570098</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>339.46647288323771</c:v>
+                  <c:v>303.9490111223065</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>342.65847744427299</c:v>
+                  <c:v>306.32811852179816</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>345.28747416929468</c:v>
+                  <c:v>308.28759741418094</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>347.34308760930332</c:v>
+                  <c:v>309.81971463146738</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>348.81720519717169</c:v>
+                  <c:v>310.91842360695864</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>349.70400926424077</c:v>
+                  <c:v>311.57938823828079</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>350</c:v>
+                  <c:v>311.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>349.70400926424077</c:v>
+                  <c:v>311.57938823828079</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>348.81720519717169</c:v>
+                  <c:v>310.91842360695864</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>347.34308760930332</c:v>
+                  <c:v>309.81971463146738</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>345.28747416929468</c:v>
+                  <c:v>308.28759741418094</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>342.65847744427299</c:v>
+                  <c:v>306.32811852179816</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>339.46647288323771</c:v>
+                  <c:v>303.9490111223065</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>335.72405786990294</c:v>
+                  <c:v>301.15966446570098</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>331.44600200657953</c:v>
+                  <c:v>297.97108682890394</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>326.64918882530225</c:v>
+                  <c:v>294.39586207112529</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>321.35254915624211</c:v>
+                  <c:v>290.44809997111912</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>315.57698641636841</c:v>
+                  <c:v>286.14338054233326</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>309.34529411321171</c:v>
+                  <c:v>281.49869254571377</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>302.68206588930326</c:v>
+                  <c:v>276.53236644282737</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>295.61359846230346</c:v>
+                  <c:v>271.26400205390348</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>288.167787843871</c:v>
+                  <c:v>265.7143912062985</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>280.37401924684951</c:v>
+                  <c:v>259.90543567865183</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>272.26305111525727</c:v>
+                  <c:v>253.86006076457176</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>263.86689373476088</c:v>
+                  <c:v>247.60212479697509</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>255.21868290270166</c:v>
+                  <c:v>241.15632499014697</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>246.35254915624208</c:v>
+                  <c:v>234.54809997111909</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>237.30348307472821</c:v>
+                  <c:v>227.80352938503077</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>228.10719718785867</c:v>
+                  <c:v>220.949230970684</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>218.7999850346456</c:v>
+                  <c:v>214.01225551248919</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>209.41857792939697</c:v>
+                  <c:v>207.01998008337722</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>199.99999999999994</c:v>
+                  <c:v>199.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>190.581422070603</c:v>
+                  <c:v>192.98001991662278</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>181.20001496535434</c:v>
+                  <c:v>185.98774448751078</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>171.89280281214127</c:v>
+                  <c:v>179.05076902931597</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>162.69651692527174</c:v>
+                  <c:v>172.1964706149692</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>153.64745084375784</c:v>
+                  <c:v>165.45190002888086</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>144.78131709729826</c:v>
+                  <c:v>158.84367500985297</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>136.13310626523909</c:v>
+                  <c:v>152.39787520302488</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>127.73694888474269</c:v>
+                  <c:v>146.13993923542822</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>119.62598075315049</c:v>
+                  <c:v>140.09456432134817</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>111.832212156129</c:v>
+                  <c:v>134.2856087937015</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>104.3864015376965</c:v>
+                  <c:v>128.73599794609646</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>97.317934110696697</c:v>
+                  <c:v>123.4676335571726</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>90.654705886788264</c:v>
+                  <c:v>118.50130745428619</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>84.423013583631601</c:v>
+                  <c:v>113.85661945766675</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>78.647450843757895</c:v>
+                  <c:v>109.55190002888089</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>73.350811174697711</c:v>
+                  <c:v>105.60413792887469</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68.553997993420467</c:v>
+                  <c:v>102.02891317109605</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>64.275942130097036</c:v>
+                  <c:v>98.840335534298987</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>60.533527116762286</c:v>
+                  <c:v>96.050988877693484</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>57.341522555726982</c:v>
+                  <c:v>93.67188147820184</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>54.712525830705317</c:v>
+                  <c:v>91.712402585819035</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.656912390696704</c:v>
+                  <c:v>90.180285368532608</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>51.182794802828312</c:v>
+                  <c:v>89.081576393041374</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50.295990735759261</c:v>
+                  <c:v>88.420611761719243</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50</c:v>
+                  <c:v>88.2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>50.295990735759261</c:v>
+                  <c:v>88.420611761719243</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>51.182794802828312</c:v>
+                  <c:v>89.081576393041374</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>52.656912390696704</c:v>
+                  <c:v>90.180285368532623</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>54.712525830705346</c:v>
+                  <c:v>91.712402585819049</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>57.341522555726954</c:v>
+                  <c:v>93.671881478201826</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>60.533527116762315</c:v>
+                  <c:v>96.050988877693513</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>64.275942130097064</c:v>
+                  <c:v>98.840335534299015</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>68.553997993420495</c:v>
+                  <c:v>102.02891317109608</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>73.350811174697753</c:v>
+                  <c:v>105.60413792887474</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>78.647450843757952</c:v>
+                  <c:v>109.55190002888092</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>84.423013583631644</c:v>
+                  <c:v>113.8566194576668</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>90.654705886788264</c:v>
+                  <c:v>118.50130745428619</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>97.317934110696754</c:v>
+                  <c:v>123.46763355717265</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>104.38640153769656</c:v>
+                  <c:v>128.73599794609652</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>111.83221215612912</c:v>
+                  <c:v>134.28560879370156</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>119.62598075315056</c:v>
+                  <c:v>140.09456432134823</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>127.7369488847427</c:v>
+                  <c:v>146.13993923542824</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>136.13310626523918</c:v>
+                  <c:v>152.39787520302494</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>144.78131709729831</c:v>
+                  <c:v>158.84367500985303</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>153.64745084375798</c:v>
+                  <c:v>165.45190002888094</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>162.69651692527182</c:v>
+                  <c:v>172.19647061496926</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>171.8928028121413</c:v>
+                  <c:v>179.05076902931597</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>181.20001496535443</c:v>
+                  <c:v>185.98774448751084</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>190.58142207060303</c:v>
+                  <c:v>192.98001991662278</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>200.00000000000009</c:v>
@@ -1744,6 +1778,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ECFB-471D-8B3B-F6EF91706280}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1780,307 +1819,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>506.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>499.6053456856543</c:v>
+                  <c:v>505.79311140190958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>498.42294026289557</c:v>
+                  <c:v>504.57405141104533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>496.45745014573777</c:v>
+                  <c:v>502.54763110025561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>493.71663222572624</c:v>
+                  <c:v>499.72184782472368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>490.21130325903073</c:v>
+                  <c:v>496.10785366006064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>485.95529717765027</c:v>
+                  <c:v>491.71991139015745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>480.96541049320388</c:v>
+                  <c:v>486.57533821849324</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>475.26133600877273</c:v>
+                  <c:v>480.69443742504467</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>468.865585100403</c:v>
+                  <c:v>474.10041823851549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>461.80339887498951</c:v>
+                  <c:v>466.81930424011415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>454.10264855515783</c:v>
+                  <c:v>458.8798306603677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>445.79372548428228</c:v>
+                  <c:v>450.31333097429501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>436.90942118573776</c:v>
+                  <c:v>441.15361324249557</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>427.48479794973792</c:v>
+                  <c:v>431.43682668617976</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>417.55705045849459</c:v>
+                  <c:v>421.20131902270793</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>407.16535899579929</c:v>
+                  <c:v>410.48748512466909</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>396.35073482034306</c:v>
+                  <c:v>399.33760759977366</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>385.15585831301451</c:v>
+                  <c:v>387.79568992071796</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>373.62491053693554</c:v>
+                  <c:v>375.90728276358055</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>361.80339887498951</c:v>
+                  <c:v>363.71930424011418</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>349.73797743297098</c:v>
+                  <c:v>351.27985473339305</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>337.47626291714488</c:v>
+                  <c:v>338.63802706757639</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>325.06664671286086</c:v>
+                  <c:v>325.84371276095953</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>312.55810390586265</c:v>
+                  <c:v>312.94740512694443</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>299.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>287.44189609413729</c:v>
+                  <c:v>287.05259487305557</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>274.93335328713914</c:v>
+                  <c:v>274.15628723904047</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>262.52373708285506</c:v>
+                  <c:v>261.36197293242355</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>250.26202256702902</c:v>
+                  <c:v>248.72014526660695</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>238.19660112501049</c:v>
+                  <c:v>236.28069575988582</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>226.3750894630644</c:v>
+                  <c:v>224.09271723641939</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>214.84414168698544</c:v>
+                  <c:v>212.20431007928201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>203.64926517965691</c:v>
+                  <c:v>200.66239240022628</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>192.83464100420062</c:v>
+                  <c:v>189.51251487533085</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>182.44294954150541</c:v>
+                  <c:v>178.79868097729207</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>172.51520205026205</c:v>
+                  <c:v>168.56317331382019</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>163.09057881426224</c:v>
+                  <c:v>158.8463867575044</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>154.20627451571767</c:v>
+                  <c:v>149.68666902570493</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>145.89735144484212</c:v>
+                  <c:v>141.12016933963224</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>138.19660112501055</c:v>
+                  <c:v>133.18069575988588</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>131.13441489959698</c:v>
+                  <c:v>125.89958176148451</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>124.73866399122727</c:v>
+                  <c:v>119.30556257495533</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>119.0345895067961</c:v>
+                  <c:v>113.42466178150679</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>114.04470282234971</c:v>
+                  <c:v>108.28008860984255</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>109.78869674096927</c:v>
+                  <c:v>103.89214633993933</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>106.28336777427378</c:v>
+                  <c:v>100.27815217527629</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>103.54254985426226</c:v>
+                  <c:v>97.452368899744386</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>101.57705973710443</c:v>
+                  <c:v>95.425948588954668</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100.3946543143457</c:v>
+                  <c:v>94.206888598090416</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>100</c:v>
+                  <c:v>93.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100.3946543143457</c:v>
+                  <c:v>94.206888598090416</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>101.57705973710443</c:v>
+                  <c:v>95.425948588954668</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>103.54254985426229</c:v>
+                  <c:v>97.452368899744414</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>106.28336777427378</c:v>
+                  <c:v>100.27815217527629</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>109.7886967409693</c:v>
+                  <c:v>103.89214633993936</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>114.04470282234976</c:v>
+                  <c:v>108.28008860984261</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>119.0345895067961</c:v>
+                  <c:v>113.42466178150679</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>124.7386639912273</c:v>
+                  <c:v>119.30556257495536</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>131.134414899597</c:v>
+                  <c:v>125.89958176148451</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>138.19660112501055</c:v>
+                  <c:v>133.18069575988588</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>145.8973514448422</c:v>
+                  <c:v>141.1201693396323</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>154.20627451571769</c:v>
+                  <c:v>149.68666902570496</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>163.09057881426227</c:v>
+                  <c:v>158.8463867575044</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>172.51520205026208</c:v>
+                  <c:v>168.56317331382022</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>182.44294954150536</c:v>
+                  <c:v>178.79868097729201</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>192.83464100420073</c:v>
+                  <c:v>189.51251487533096</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>203.64926517965694</c:v>
+                  <c:v>200.66239240022634</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>214.84414168698555</c:v>
+                  <c:v>212.20431007928212</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>226.37508946306446</c:v>
+                  <c:v>224.09271723641945</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>238.19660112501049</c:v>
+                  <c:v>236.28069575988582</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>250.26202256702911</c:v>
+                  <c:v>248.72014526660701</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>262.52373708285506</c:v>
+                  <c:v>261.36197293242355</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>274.93335328713925</c:v>
+                  <c:v>274.15628723904058</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>287.44189609413735</c:v>
+                  <c:v>287.05259487305563</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>299.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>312.55810390586277</c:v>
+                  <c:v>312.94740512694449</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>325.06664671286086</c:v>
+                  <c:v>325.84371276095953</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>337.47626291714505</c:v>
+                  <c:v>338.6380270675765</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>349.73797743297098</c:v>
+                  <c:v>351.27985473339311</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>361.80339887498945</c:v>
+                  <c:v>363.71930424011413</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>373.62491053693566</c:v>
+                  <c:v>375.90728276358067</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>385.15585831301451</c:v>
+                  <c:v>387.79568992071796</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>396.35073482034318</c:v>
+                  <c:v>399.33760759977378</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>407.16535899579935</c:v>
+                  <c:v>410.48748512466909</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>417.55705045849476</c:v>
+                  <c:v>421.20131902270805</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>427.48479794973798</c:v>
+                  <c:v>431.43682668617987</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>436.90942118573776</c:v>
+                  <c:v>441.15361324249557</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>445.79372548428239</c:v>
+                  <c:v>450.31333097429513</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>454.10264855515788</c:v>
+                  <c:v>458.87983066036776</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>461.80339887498957</c:v>
+                  <c:v>466.81930424011421</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>468.86558510040305</c:v>
+                  <c:v>474.10041823851554</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>475.26133600877273</c:v>
+                  <c:v>480.69443742504467</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>480.96541049320393</c:v>
+                  <c:v>486.57533821849324</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>485.95529717765032</c:v>
+                  <c:v>491.71991139015745</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>490.21130325903073</c:v>
+                  <c:v>496.1078536600607</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>493.71663222572624</c:v>
+                  <c:v>499.72184782472374</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>496.45745014573777</c:v>
+                  <c:v>502.54763110025561</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>498.42294026289557</c:v>
+                  <c:v>504.57405141104533</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>499.6053456856543</c:v>
+                  <c:v>505.79311140190958</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>500</c:v>
+                  <c:v>506.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,301 +2134,301 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.55810390586268</c:v>
+                  <c:v>112.94740512694442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.06664671286086</c:v>
+                  <c:v>125.84371276095953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.47626291714494</c:v>
+                  <c:v>138.63802706757642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.73797743297095</c:v>
+                  <c:v>151.27985473339305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.80339887498948</c:v>
+                  <c:v>163.71930424011416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>173.6249105369356</c:v>
+                  <c:v>175.90728276358061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>185.15585831301456</c:v>
+                  <c:v>187.79568992071799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>196.35073482034306</c:v>
+                  <c:v>199.33760759977369</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>207.16535899579935</c:v>
+                  <c:v>210.48748512466909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>217.55705045849464</c:v>
+                  <c:v>221.20131902270793</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>227.48479794973795</c:v>
+                  <c:v>231.43682668617981</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>236.90942118573776</c:v>
+                  <c:v>241.1536132424956</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>245.79372548428231</c:v>
+                  <c:v>250.31333097429504</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>254.10264855515786</c:v>
+                  <c:v>258.8798306603677</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>261.80339887498951</c:v>
+                  <c:v>266.81930424011415</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>268.865585100403</c:v>
+                  <c:v>274.10041823851549</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>275.26133600877273</c:v>
+                  <c:v>280.69443742504473</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>280.96541049320388</c:v>
+                  <c:v>286.57533821849324</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>285.95529717765032</c:v>
+                  <c:v>291.71991139015745</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>290.21130325903073</c:v>
+                  <c:v>296.10785366006064</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>293.71663222572624</c:v>
+                  <c:v>299.72184782472368</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>296.45745014573777</c:v>
+                  <c:v>302.54763110025561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>298.42294026289557</c:v>
+                  <c:v>304.57405141104533</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>299.6053456856543</c:v>
+                  <c:v>305.79311140190958</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>300</c:v>
+                  <c:v>306.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>299.6053456856543</c:v>
+                  <c:v>305.79311140190958</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>298.42294026289557</c:v>
+                  <c:v>304.57405141104528</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>296.45745014573771</c:v>
+                  <c:v>302.54763110025556</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>293.71663222572624</c:v>
+                  <c:v>299.72184782472368</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>290.21130325903073</c:v>
+                  <c:v>296.10785366006064</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>285.95529717765027</c:v>
+                  <c:v>291.71991139015745</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>280.96541049320388</c:v>
+                  <c:v>286.57533821849324</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>275.26133600877267</c:v>
+                  <c:v>280.69443742504461</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>268.865585100403</c:v>
+                  <c:v>274.10041823851549</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>261.80339887498951</c:v>
+                  <c:v>266.81930424011415</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>254.10264855515786</c:v>
+                  <c:v>258.8798306603677</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>245.79372548428228</c:v>
+                  <c:v>250.31333097429504</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>236.9094211857377</c:v>
+                  <c:v>241.15361324249557</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>227.48479794973792</c:v>
+                  <c:v>231.43682668617978</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>217.55705045849464</c:v>
+                  <c:v>221.20131902270799</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>207.16535899579935</c:v>
+                  <c:v>210.48748512466909</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>196.35073482034304</c:v>
+                  <c:v>199.33760759977366</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>185.15585831301451</c:v>
+                  <c:v>187.79568992071796</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>173.62491053693554</c:v>
+                  <c:v>175.90728276358055</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>161.80339887498943</c:v>
+                  <c:v>163.7193042401141</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>149.73797743297098</c:v>
+                  <c:v>151.27985473339305</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>137.47626291714491</c:v>
+                  <c:v>138.63802706757639</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>125.06664671286082</c:v>
+                  <c:v>125.84371276095951</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>112.55810390586262</c:v>
+                  <c:v>112.94740512694437</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>99.999999999999929</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>87.441896094137334</c:v>
+                  <c:v>87.052594873055597</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74.933353287139141</c:v>
+                  <c:v>74.156287239040466</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.52373708285505</c:v>
+                  <c:v>61.361972932423555</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.262022567029</c:v>
+                  <c:v>48.720145266606899</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>38.196601125010453</c:v>
+                  <c:v>36.280695759885781</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>26.375089463064342</c:v>
+                  <c:v>24.092717236419332</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.844141686985466</c:v>
+                  <c:v>12.204310079282024</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.649265179656922</c:v>
+                  <c:v>0.66239240022629531</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-7.1653589957993518</c:v>
+                  <c:v>-10.487485124669121</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-17.557050458494672</c:v>
+                  <c:v>-21.201319022708006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-27.484797949737995</c:v>
+                  <c:v>-31.43682668617987</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-36.909421185737756</c:v>
+                  <c:v>-41.153613242495595</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-45.793725484282305</c:v>
+                  <c:v>-50.313330974295042</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-54.102648555157884</c:v>
+                  <c:v>-58.879830660367759</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-61.803398874989455</c:v>
+                  <c:v>-66.819304240114121</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-68.865585100403052</c:v>
+                  <c:v>-74.100418238515545</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-75.26133600877273</c:v>
+                  <c:v>-80.694437425044669</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-80.965410493203962</c:v>
+                  <c:v>-86.575338218493272</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-85.955297177650294</c:v>
+                  <c:v>-91.719911390157449</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-90.2113032590307</c:v>
+                  <c:v>-96.107853660060641</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-93.716632225726244</c:v>
+                  <c:v>-99.721847824723739</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-96.457450145737738</c:v>
+                  <c:v>-102.54763110025561</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-98.422940262895565</c:v>
+                  <c:v>-104.57405141104533</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-99.605345685654299</c:v>
+                  <c:v>-105.79311140190958</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-100</c:v>
+                  <c:v>-106.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-99.605345685654299</c:v>
+                  <c:v>-105.79311140190958</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-98.422940262895565</c:v>
+                  <c:v>-104.57405141104533</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-96.45745014573771</c:v>
+                  <c:v>-102.54763110025559</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-93.716632225726215</c:v>
+                  <c:v>-99.72184782472371</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-90.211303259030728</c:v>
+                  <c:v>-96.10785366006067</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-85.955297177650237</c:v>
+                  <c:v>-91.719911390157392</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-80.965410493203905</c:v>
+                  <c:v>-86.575338218493215</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-75.261336008772673</c:v>
+                  <c:v>-80.694437425044612</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-68.865585100402996</c:v>
+                  <c:v>-74.100418238515488</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-61.803398874989398</c:v>
+                  <c:v>-66.819304240114064</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-54.102648555157799</c:v>
+                  <c:v>-58.879830660367702</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-45.793725484282305</c:v>
+                  <c:v>-50.313330974295042</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-36.909421185737642</c:v>
+                  <c:v>-41.15361324249551</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-27.484797949737924</c:v>
+                  <c:v>-31.436826686179785</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-17.557050458494516</c:v>
+                  <c:v>-21.201319022707835</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-7.1653589957992665</c:v>
+                  <c:v>-10.487485124669035</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.6492651796569362</c:v>
+                  <c:v>0.66239240022630952</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14.844141686985552</c:v>
+                  <c:v>12.204310079282109</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>26.375089463064427</c:v>
+                  <c:v>24.092717236419432</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>38.196601125010645</c:v>
+                  <c:v>36.28069575988598</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>50.262022567029099</c:v>
+                  <c:v>48.720145266607005</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>62.523737082855064</c:v>
+                  <c:v>61.361972932423569</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>74.933353287139241</c:v>
+                  <c:v>74.156287239040566</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>87.441896094137348</c:v>
+                  <c:v>87.052594873055611</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100.00000000000013</c:v>
@@ -2398,6 +2437,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ECFB-471D-8B3B-F6EF91706280}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3050,6 +3094,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ECFB-471D-8B3B-F6EF91706280}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3080,7 +3129,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.0\ _€_-;\-* #\ ##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -3134,7 +3183,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.0\ _€_-;\-* #\ ##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -3811,22 +3860,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1608646" cy="190501"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+            <xdr:cNvPr id="3" name="ZoneTexte 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9172575" y="576262"/>
+              <a:off x="1571625" y="595312"/>
               <a:ext cx="1608646" cy="190501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4046,15 +4101,21 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+            <xdr:cNvPr id="3" name="ZoneTexte 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9172575" y="576262"/>
+              <a:off x="1571625" y="595312"/>
               <a:ext cx="1608646" cy="190501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4082,6 +4143,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="fr-FR" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -4114,7 +4176,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4126,35 +4188,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)^2</a:t>
+                <a:t>0−𝑦)^2</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR" sz="1100"/>
             </a:p>
@@ -4166,22 +4204,28 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1768113" cy="190501"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+            <xdr:cNvPr id="4" name="ZoneTexte 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9153525" y="776287"/>
+              <a:off x="1562100" y="795337"/>
               <a:ext cx="1768113" cy="190501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4401,15 +4445,21 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+            <xdr:cNvPr id="4" name="ZoneTexte 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9153525" y="776287"/>
+              <a:off x="1562100" y="795337"/>
               <a:ext cx="1768113" cy="190501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4437,6 +4487,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="fr-FR" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -4469,7 +4520,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4485,43 +4536,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>20</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)^2</a:t>
+                <a:t>200−𝑦)^2</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR" sz="1100"/>
             </a:p>
@@ -4533,22 +4548,28 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1924309" cy="190501"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+            <xdr:cNvPr id="5" name="ZoneTexte 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9153525" y="947737"/>
+              <a:off x="1543050" y="966787"/>
               <a:ext cx="1924309" cy="190501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4768,15 +4789,21 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+            <xdr:cNvPr id="5" name="ZoneTexte 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9153525" y="947737"/>
+              <a:off x="1543050" y="966787"/>
               <a:ext cx="1924309" cy="190501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4804,6 +4831,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="fr-FR" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -4836,7 +4864,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4852,43 +4880,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>10</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)^2</a:t>
+                <a:t>100−𝑦)^2</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR" sz="1100"/>
             </a:p>
@@ -4900,22 +4892,28 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2225545" cy="353751"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+            <xdr:cNvPr id="6" name="ZoneTexte 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5105400" y="433387"/>
+              <a:off x="190500" y="3709987"/>
               <a:ext cx="2225545" cy="353751"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5170,12 +5168,18 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+            <xdr:cNvPr id="6" name="ZoneTexte 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5105400" y="433387"/>
+              <a:off x="190500" y="3709987"/>
               <a:ext cx="2225545" cy="353751"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5234,22 +5238,28 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1476623" cy="354905"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+            <xdr:cNvPr id="7" name="ZoneTexte 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5438775" y="900112"/>
+              <a:off x="161925" y="4100512"/>
               <a:ext cx="1476623" cy="354905"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5441,12 +5451,18 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+            <xdr:cNvPr id="7" name="ZoneTexte 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5438775" y="900112"/>
+              <a:off x="161925" y="4100512"/>
               <a:ext cx="1476623" cy="354905"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5506,32 +5522,44 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>56893</xdr:rowOff>
+      <xdr:rowOff>75943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Groupe 9"/>
+        <xdr:cNvPr id="10" name="Groupe 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3257550" y="1771393"/>
+          <a:off x="2952750" y="1790443"/>
           <a:ext cx="6267450" cy="4343657"/>
-          <a:chOff x="1743075" y="1971418"/>
+          <a:chOff x="1762125" y="1990468"/>
           <a:chExt cx="6267450" cy="4343657"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="TableAussi"/>
+          <xdr:cNvPr id="2" name="TableAussi">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5543,7 +5571,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1743075" y="1971418"/>
+            <a:off x="1762125" y="1990468"/>
             <a:ext cx="6267450" cy="4343657"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5553,7 +5581,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Table"/>
+          <xdr:cNvPr id="9" name="Table">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5595,7 +5629,13 @@
       </xdr:sp>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="8" name="TrcerSurTable"/>
+          <xdr:cNvPr id="8" name="TrcerSurTable">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
@@ -5877,74 +5917,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="4.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
-        <v>140</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="G2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="14">
+        <v>150</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
+        <f>SQRT(POWER($B$2,2)+POWER($B$3,2))</f>
+        <v>180.27756377319946</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>150</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B5" s="13">
+        <f>SQRT(POWER($B$2,2)+POWER(200-$B$3,2))</f>
+        <v>111.80339887498948</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>200</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B6" s="13">
+        <f>SQRT(POWER(300-$B$2,2)+POWER(100-$B$3,2))</f>
+        <v>206.15528128088303</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <v>180.3</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>111.8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="14">
+        <v>206.2</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B16" s="13">
+        <f>(0.5*B13*B13+0.5*B14*B14-B15*B15+80000)/600</f>
+        <v>99.975375000000014</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <f>(0.5*B1*B1+0.5*B2*B2-B3*B3+80000)/600</f>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <f>(B1*B1-B2*B2+40000)/400</f>
-        <v>92.75</v>
+      <c r="B17" s="13">
+        <f>(B13*B13-B14*B14+40000)/400</f>
+        <v>150.02212500000002</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5963,115 +6073,115 @@
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="str">
         <f>L3</f>
         <v>x_1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="str">
         <f>N3</f>
         <v>x_2</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="str">
         <f>P3</f>
         <v>x_3</v>
       </c>
       <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
+      <c r="L2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <f>$A3*$T$4</f>
+        <f t="shared" ref="B3:B34" si="0">$A3*$T$4</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>Feuil1!$B$1*COS($B3)+Feuil2!L$4</f>
-        <v>140</v>
+        <f>Feuil1!$B$13*COS($B3)+Feuil2!L$4</f>
+        <v>180.3</v>
       </c>
       <c r="D3">
-        <f>Feuil1!$B$1*SIN($B3)+Feuil2!M$4</f>
+        <f>Feuil1!$B$13*SIN($B3)+Feuil2!M$4</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>Feuil1!$B$2*COS($B3)+Feuil2!N$4</f>
-        <v>150</v>
+        <f>Feuil1!$B$14*COS($B3)+Feuil2!N$4</f>
+        <v>111.8</v>
       </c>
       <c r="F3">
-        <f>Feuil1!$B$2*SIN($B3)+Feuil2!O$4</f>
+        <f>Feuil1!$B$14*SIN($B3)+Feuil2!O$4</f>
         <v>200</v>
       </c>
       <c r="G3">
-        <f>Feuil1!$B$3*COS($B3)+Feuil2!P$4</f>
-        <v>500</v>
+        <f>Feuil1!$B$15*COS($B3)+Feuil2!P$4</f>
+        <v>506.2</v>
       </c>
       <c r="H3">
-        <f>Feuil1!$B$3*SIN($B3)+Feuil2!Q$4</f>
+        <f>Feuil1!$B$15*SIN($B3)+Feuil2!Q$4</f>
         <v>100</v>
       </c>
       <c r="I3">
-        <f>IF(A3&lt;=2/10*$U$4,0,IF(A3&lt;=5/10*$U$4,300,IF(A3&lt;=7/10*$U$4,300,IF(A3&lt;=$U$4,0))))</f>
+        <f t="shared" ref="I3:I34" si="1">IF(A3&lt;=2/10*$U$4,0,IF(A3&lt;=5/10*$U$4,300,IF(A3&lt;=7/10*$U$4,300,IF(A3&lt;=$U$4,0))))</f>
         <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>18</v>
+      <c r="U3" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6079,39 +6189,39 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>$A4*$T$4</f>
+        <f t="shared" si="0"/>
         <v>6.2831853071795868E-2</v>
       </c>
       <c r="C4">
-        <f>Feuil1!$B$1*COS($B4)+Feuil2!L$4</f>
-        <v>139.72374197995802</v>
+        <f>Feuil1!$B$13*COS($B4)+Feuil2!L$4</f>
+        <v>179.94421913561737</v>
       </c>
       <c r="D4">
-        <f>Feuil1!$B$1*SIN($B4)+Feuil2!M$4</f>
-        <v>8.7906727341038717</v>
+        <f>Feuil1!$B$13*SIN($B4)+Feuil2!M$4</f>
+        <v>11.321130671135203</v>
       </c>
       <c r="E4">
-        <f>Feuil1!$B$2*COS($B4)+Feuil2!N$4</f>
-        <v>149.70400926424074</v>
+        <f>Feuil1!$B$14*COS($B4)+Feuil2!N$4</f>
+        <v>111.57938823828076</v>
       </c>
       <c r="F4">
-        <f>Feuil1!$B$2*SIN($B4)+Feuil2!O$4</f>
-        <v>209.418577929397</v>
+        <f>Feuil1!$B$14*SIN($B4)+Feuil2!O$4</f>
+        <v>207.01998008337725</v>
       </c>
       <c r="G4">
-        <f>Feuil1!$B$3*COS($B4)+Feuil2!P$4</f>
-        <v>499.6053456856543</v>
+        <f>Feuil1!$B$15*COS($B4)+Feuil2!P$4</f>
+        <v>505.79311140190958</v>
       </c>
       <c r="H4">
-        <f>Feuil1!$B$3*SIN($B4)+Feuil2!Q$4</f>
-        <v>112.55810390586268</v>
+        <f>Feuil1!$B$15*SIN($B4)+Feuil2!Q$4</f>
+        <v>112.94740512694442</v>
       </c>
       <c r="I4">
-        <f>IF(A4&lt;=2/10*$U$4,0,IF(A4&lt;=5/10*$U$4,300,IF(A4&lt;=7/10*$U$4,300,IF(A4&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>IF(A4&lt;=2/10*$U$4,200,IF(A4&lt;=5/10*$U$4,200,IF(A4&lt;=7/10*$U$4,0,IF(A4&lt;=$U$4,0))))</f>
+        <f t="shared" ref="J4:J35" si="2">IF(A4&lt;=2/10*$U$4,200,IF(A4&lt;=5/10*$U$4,200,IF(A4&lt;=7/10*$U$4,0,IF(A4&lt;=$U$4,0))))</f>
         <v>200</v>
       </c>
       <c r="L4" s="3">
@@ -6129,7 +6239,7 @@
       <c r="P4" s="3">
         <v>300</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="7">
         <v>100</v>
       </c>
       <c r="R4" s="3">
@@ -6139,11 +6249,11 @@
         <f>2*PI()</f>
         <v>6.2831853071795862</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="9">
         <f>2*PI()/$U$4</f>
         <v>6.2831853071795868E-2</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="9">
         <v>100</v>
       </c>
     </row>
@@ -6152,39 +6262,39 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f>$A5*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.12566370614359174</v>
       </c>
       <c r="C5">
-        <f>Feuil1!$B$1*COS($B5)+Feuil2!L$4</f>
-        <v>138.89605818402691</v>
+        <f>Feuil1!$B$13*COS($B5)+Feuil2!L$4</f>
+        <v>178.87828064700037</v>
       </c>
       <c r="D5">
-        <f>Feuil1!$B$1*SIN($B5)+Feuil2!M$4</f>
-        <v>17.546652699002596</v>
+        <f>Feuil1!$B$13*SIN($B5)+Feuil2!M$4</f>
+        <v>22.597582011644061</v>
       </c>
       <c r="E5">
-        <f>Feuil1!$B$2*COS($B5)+Feuil2!N$4</f>
-        <v>148.81720519717169</v>
+        <f>Feuil1!$B$14*COS($B5)+Feuil2!N$4</f>
+        <v>110.91842360695863</v>
       </c>
       <c r="F5">
-        <f>Feuil1!$B$2*SIN($B5)+Feuil2!O$4</f>
-        <v>218.79998503464563</v>
+        <f>Feuil1!$B$14*SIN($B5)+Feuil2!O$4</f>
+        <v>214.01225551248922</v>
       </c>
       <c r="G5">
-        <f>Feuil1!$B$3*COS($B5)+Feuil2!P$4</f>
-        <v>498.42294026289557</v>
+        <f>Feuil1!$B$15*COS($B5)+Feuil2!P$4</f>
+        <v>504.57405141104533</v>
       </c>
       <c r="H5">
-        <f>Feuil1!$B$3*SIN($B5)+Feuil2!Q$4</f>
-        <v>125.06664671286086</v>
+        <f>Feuil1!$B$15*SIN($B5)+Feuil2!Q$4</f>
+        <v>125.84371276095953</v>
       </c>
       <c r="I5">
-        <f>IF(A5&lt;=2/10*$U$4,0,IF(A5&lt;=5/10*$U$4,300,IF(A5&lt;=7/10*$U$4,300,IF(A5&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>IF(A5&lt;=2/10*$U$4,200,IF(A5&lt;=5/10*$U$4,200,IF(A5&lt;=7/10*$U$4,0,IF(A5&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6193,39 +6303,39 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <f>$A6*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.1884955592153876</v>
       </c>
       <c r="C6">
-        <f>Feuil1!$B$1*COS($B6)+Feuil2!L$4</f>
-        <v>137.52021510201641</v>
+        <f>Feuil1!$B$13*COS($B6)+Feuil2!L$4</f>
+        <v>177.10639130638259</v>
       </c>
       <c r="D6">
-        <f>Feuil1!$B$1*SIN($B6)+Feuil2!M$4</f>
-        <v>26.233384042001447</v>
+        <f>Feuil1!$B$13*SIN($B6)+Feuil2!M$4</f>
+        <v>33.784851019806155</v>
       </c>
       <c r="E6">
-        <f>Feuil1!$B$2*COS($B6)+Feuil2!N$4</f>
-        <v>147.3430876093033</v>
+        <f>Feuil1!$B$14*COS($B6)+Feuil2!N$4</f>
+        <v>109.81971463146739</v>
       </c>
       <c r="F6">
-        <f>Feuil1!$B$2*SIN($B6)+Feuil2!O$4</f>
-        <v>228.1071971878587</v>
+        <f>Feuil1!$B$14*SIN($B6)+Feuil2!O$4</f>
+        <v>220.94923097068403</v>
       </c>
       <c r="G6">
-        <f>Feuil1!$B$3*COS($B6)+Feuil2!P$4</f>
-        <v>496.45745014573777</v>
+        <f>Feuil1!$B$15*COS($B6)+Feuil2!P$4</f>
+        <v>502.54763110025561</v>
       </c>
       <c r="H6">
-        <f>Feuil1!$B$3*SIN($B6)+Feuil2!Q$4</f>
-        <v>137.47626291714494</v>
+        <f>Feuil1!$B$15*SIN($B6)+Feuil2!Q$4</f>
+        <v>138.63802706757642</v>
       </c>
       <c r="I6">
-        <f>IF(A6&lt;=2/10*$U$4,0,IF(A6&lt;=5/10*$U$4,300,IF(A6&lt;=7/10*$U$4,300,IF(A6&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>IF(A6&lt;=2/10*$U$4,200,IF(A6&lt;=5/10*$U$4,200,IF(A6&lt;=7/10*$U$4,0,IF(A6&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6234,39 +6344,39 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <f>$A7*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.25132741228718347</v>
       </c>
       <c r="C7">
-        <f>Feuil1!$B$1*COS($B7)+Feuil2!L$4</f>
-        <v>135.60164255800834</v>
+        <f>Feuil1!$B$13*COS($B7)+Feuil2!L$4</f>
+        <v>174.6355439514922</v>
       </c>
       <c r="D7">
-        <f>Feuil1!$B$1*SIN($B7)+Feuil2!M$4</f>
-        <v>34.816584203079671</v>
+        <f>Feuil1!$B$13*SIN($B7)+Feuil2!M$4</f>
+        <v>44.83878665582332</v>
       </c>
       <c r="E7">
-        <f>Feuil1!$B$2*COS($B7)+Feuil2!N$4</f>
-        <v>145.28747416929465</v>
+        <f>Feuil1!$B$14*COS($B7)+Feuil2!N$4</f>
+        <v>108.28759741418095</v>
       </c>
       <c r="F7">
-        <f>Feuil1!$B$2*SIN($B7)+Feuil2!O$4</f>
-        <v>237.30348307472821</v>
+        <f>Feuil1!$B$14*SIN($B7)+Feuil2!O$4</f>
+        <v>227.80352938503077</v>
       </c>
       <c r="G7">
-        <f>Feuil1!$B$3*COS($B7)+Feuil2!P$4</f>
-        <v>493.71663222572624</v>
+        <f>Feuil1!$B$15*COS($B7)+Feuil2!P$4</f>
+        <v>499.72184782472368</v>
       </c>
       <c r="H7">
-        <f>Feuil1!$B$3*SIN($B7)+Feuil2!Q$4</f>
-        <v>149.73797743297095</v>
+        <f>Feuil1!$B$15*SIN($B7)+Feuil2!Q$4</f>
+        <v>151.27985473339305</v>
       </c>
       <c r="I7">
-        <f>IF(A7&lt;=2/10*$U$4,0,IF(A7&lt;=5/10*$U$4,300,IF(A7&lt;=7/10*$U$4,300,IF(A7&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>IF(A7&lt;=2/10*$U$4,200,IF(A7&lt;=5/10*$U$4,200,IF(A7&lt;=7/10*$U$4,0,IF(A7&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6275,39 +6385,39 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <f>$A8*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.31415926535897931</v>
       </c>
       <c r="C8">
-        <f>Feuil1!$B$1*COS($B8)+Feuil2!L$4</f>
-        <v>133.14791228132148</v>
+        <f>Feuil1!$B$13*COS($B8)+Feuil2!L$4</f>
+        <v>171.4754898880162</v>
       </c>
       <c r="D8">
-        <f>Feuil1!$B$1*SIN($B8)+Feuil2!M$4</f>
-        <v>43.262379212492633</v>
+        <f>Feuil1!$B$13*SIN($B8)+Feuil2!M$4</f>
+        <v>55.715764085803016</v>
       </c>
       <c r="E8">
-        <f>Feuil1!$B$2*COS($B8)+Feuil2!N$4</f>
-        <v>142.65847744427302</v>
+        <f>Feuil1!$B$14*COS($B8)+Feuil2!N$4</f>
+        <v>106.32811852179816</v>
       </c>
       <c r="F8">
-        <f>Feuil1!$B$2*SIN($B8)+Feuil2!O$4</f>
-        <v>246.35254915624211</v>
+        <f>Feuil1!$B$14*SIN($B8)+Feuil2!O$4</f>
+        <v>234.54809997111911</v>
       </c>
       <c r="G8">
-        <f>Feuil1!$B$3*COS($B8)+Feuil2!P$4</f>
-        <v>490.21130325903073</v>
+        <f>Feuil1!$B$15*COS($B8)+Feuil2!P$4</f>
+        <v>496.10785366006064</v>
       </c>
       <c r="H8">
-        <f>Feuil1!$B$3*SIN($B8)+Feuil2!Q$4</f>
-        <v>161.80339887498948</v>
+        <f>Feuil1!$B$15*SIN($B8)+Feuil2!Q$4</f>
+        <v>163.71930424011416</v>
       </c>
       <c r="I8">
-        <f>IF(A8&lt;=2/10*$U$4,0,IF(A8&lt;=5/10*$U$4,300,IF(A8&lt;=7/10*$U$4,300,IF(A8&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>IF(A8&lt;=2/10*$U$4,200,IF(A8&lt;=5/10*$U$4,200,IF(A8&lt;=7/10*$U$4,0,IF(A8&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6316,39 +6426,39 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <f>$A9*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.37699111843077521</v>
       </c>
       <c r="C9">
-        <f>Feuil1!$B$1*COS($B9)+Feuil2!L$4</f>
-        <v>130.1687080243552</v>
+        <f>Feuil1!$B$13*COS($B9)+Feuil2!L$4</f>
+        <v>167.63870040565172</v>
       </c>
       <c r="D9">
-        <f>Feuil1!$B$1*SIN($B9)+Feuil2!M$4</f>
-        <v>51.537437375854914</v>
+        <f>Feuil1!$B$13*SIN($B9)+Feuil2!M$4</f>
+        <v>66.372856849047437</v>
       </c>
       <c r="E9">
-        <f>Feuil1!$B$2*COS($B9)+Feuil2!N$4</f>
-        <v>139.46647288323771</v>
+        <f>Feuil1!$B$14*COS($B9)+Feuil2!N$4</f>
+        <v>103.9490111223065</v>
       </c>
       <c r="F9">
-        <f>Feuil1!$B$2*SIN($B9)+Feuil2!O$4</f>
-        <v>255.21868290270169</v>
+        <f>Feuil1!$B$14*SIN($B9)+Feuil2!O$4</f>
+        <v>241.156324990147</v>
       </c>
       <c r="G9">
-        <f>Feuil1!$B$3*COS($B9)+Feuil2!P$4</f>
-        <v>485.95529717765027</v>
+        <f>Feuil1!$B$15*COS($B9)+Feuil2!P$4</f>
+        <v>491.71991139015745</v>
       </c>
       <c r="H9">
-        <f>Feuil1!$B$3*SIN($B9)+Feuil2!Q$4</f>
-        <v>173.6249105369356</v>
+        <f>Feuil1!$B$15*SIN($B9)+Feuil2!Q$4</f>
+        <v>175.90728276358061</v>
       </c>
       <c r="I9">
-        <f>IF(A9&lt;=2/10*$U$4,0,IF(A9&lt;=5/10*$U$4,300,IF(A9&lt;=7/10*$U$4,300,IF(A9&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>IF(A9&lt;=2/10*$U$4,200,IF(A9&lt;=5/10*$U$4,200,IF(A9&lt;=7/10*$U$4,0,IF(A9&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6357,39 +6467,39 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <f>$A10*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.4398229715025711</v>
       </c>
       <c r="C10">
-        <f>Feuil1!$B$1*COS($B10)+Feuil2!L$4</f>
-        <v>126.67578734524272</v>
+        <f>Feuil1!$B$13*COS($B10)+Feuil2!L$4</f>
+        <v>163.14031755962333</v>
       </c>
       <c r="D10">
-        <f>Feuil1!$B$1*SIN($B10)+Feuil2!M$4</f>
-        <v>59.609100819110182</v>
+        <f>Feuil1!$B$13*SIN($B10)+Feuil2!M$4</f>
+        <v>76.768006269182621</v>
       </c>
       <c r="E10">
-        <f>Feuil1!$B$2*COS($B10)+Feuil2!N$4</f>
-        <v>135.72405786990291</v>
+        <f>Feuil1!$B$14*COS($B10)+Feuil2!N$4</f>
+        <v>101.15966446570097</v>
       </c>
       <c r="F10">
-        <f>Feuil1!$B$2*SIN($B10)+Feuil2!O$4</f>
-        <v>263.86689373476088</v>
+        <f>Feuil1!$B$14*SIN($B10)+Feuil2!O$4</f>
+        <v>247.60212479697512</v>
       </c>
       <c r="G10">
-        <f>Feuil1!$B$3*COS($B10)+Feuil2!P$4</f>
-        <v>480.96541049320388</v>
+        <f>Feuil1!$B$15*COS($B10)+Feuil2!P$4</f>
+        <v>486.57533821849324</v>
       </c>
       <c r="H10">
-        <f>Feuil1!$B$3*SIN($B10)+Feuil2!Q$4</f>
-        <v>185.15585831301456</v>
+        <f>Feuil1!$B$15*SIN($B10)+Feuil2!Q$4</f>
+        <v>187.79568992071799</v>
       </c>
       <c r="I10">
-        <f>IF(A10&lt;=2/10*$U$4,0,IF(A10&lt;=5/10*$U$4,300,IF(A10&lt;=7/10*$U$4,300,IF(A10&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>IF(A10&lt;=2/10*$U$4,200,IF(A10&lt;=5/10*$U$4,200,IF(A10&lt;=7/10*$U$4,0,IF(A10&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6398,39 +6508,39 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <f>$A11*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.50265482457436694</v>
       </c>
       <c r="C11">
-        <f>Feuil1!$B$1*COS($B11)+Feuil2!L$4</f>
-        <v>122.6829352061409</v>
+        <f>Feuil1!$B$13*COS($B11)+Feuil2!L$4</f>
+        <v>157.99809441190862</v>
       </c>
       <c r="D11">
-        <f>Feuil1!$B$1*SIN($B11)+Feuil2!M$4</f>
-        <v>67.445514374240148</v>
+        <f>Feuil1!$B$13*SIN($B11)+Feuil2!M$4</f>
+        <v>86.860187440539278</v>
       </c>
       <c r="E11">
-        <f>Feuil1!$B$2*COS($B11)+Feuil2!N$4</f>
-        <v>131.44600200657953</v>
+        <f>Feuil1!$B$14*COS($B11)+Feuil2!N$4</f>
+        <v>97.97108682890395</v>
       </c>
       <c r="F11">
-        <f>Feuil1!$B$2*SIN($B11)+Feuil2!O$4</f>
-        <v>272.26305111525733</v>
+        <f>Feuil1!$B$14*SIN($B11)+Feuil2!O$4</f>
+        <v>253.86006076457176</v>
       </c>
       <c r="G11">
-        <f>Feuil1!$B$3*COS($B11)+Feuil2!P$4</f>
-        <v>475.26133600877273</v>
+        <f>Feuil1!$B$15*COS($B11)+Feuil2!P$4</f>
+        <v>480.69443742504467</v>
       </c>
       <c r="H11">
-        <f>Feuil1!$B$3*SIN($B11)+Feuil2!Q$4</f>
-        <v>196.35073482034306</v>
+        <f>Feuil1!$B$15*SIN($B11)+Feuil2!Q$4</f>
+        <v>199.33760759977369</v>
       </c>
       <c r="I11">
-        <f>IF(A11&lt;=2/10*$U$4,0,IF(A11&lt;=5/10*$U$4,300,IF(A11&lt;=7/10*$U$4,300,IF(A11&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>IF(A11&lt;=2/10*$U$4,200,IF(A11&lt;=5/10*$U$4,200,IF(A11&lt;=7/10*$U$4,0,IF(A11&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6439,39 +6549,39 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <f>$A12*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.56548667764616278</v>
       </c>
       <c r="C12">
-        <f>Feuil1!$B$1*COS($B12)+Feuil2!L$4</f>
-        <v>118.20590957028212</v>
+        <f>Feuil1!$B$13*COS($B12)+Feuil2!L$4</f>
+        <v>152.23232496801333</v>
       </c>
       <c r="D12">
-        <f>Feuil1!$B$1*SIN($B12)+Feuil2!M$4</f>
-        <v>75.015751297059538</v>
+        <f>Feuil1!$B$13*SIN($B12)+Feuil2!M$4</f>
+        <v>96.609571134713107</v>
       </c>
       <c r="E12">
-        <f>Feuil1!$B$2*COS($B12)+Feuil2!N$4</f>
-        <v>126.64918882530226</v>
+        <f>Feuil1!$B$14*COS($B12)+Feuil2!N$4</f>
+        <v>94.395862071125279</v>
       </c>
       <c r="F12">
-        <f>Feuil1!$B$2*SIN($B12)+Feuil2!O$4</f>
-        <v>280.37401924684951</v>
+        <f>Feuil1!$B$14*SIN($B12)+Feuil2!O$4</f>
+        <v>259.90543567865183</v>
       </c>
       <c r="G12">
-        <f>Feuil1!$B$3*COS($B12)+Feuil2!P$4</f>
-        <v>468.865585100403</v>
+        <f>Feuil1!$B$15*COS($B12)+Feuil2!P$4</f>
+        <v>474.10041823851549</v>
       </c>
       <c r="H12">
-        <f>Feuil1!$B$3*SIN($B12)+Feuil2!Q$4</f>
-        <v>207.16535899579935</v>
+        <f>Feuil1!$B$15*SIN($B12)+Feuil2!Q$4</f>
+        <v>210.48748512466909</v>
       </c>
       <c r="I12">
-        <f>IF(A12&lt;=2/10*$U$4,0,IF(A12&lt;=5/10*$U$4,300,IF(A12&lt;=7/10*$U$4,300,IF(A12&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>IF(A12&lt;=2/10*$U$4,200,IF(A12&lt;=5/10*$U$4,200,IF(A12&lt;=7/10*$U$4,0,IF(A12&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6480,39 +6590,39 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <f>$A13*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.62831853071795862</v>
       </c>
       <c r="C13">
-        <f>Feuil1!$B$1*COS($B13)+Feuil2!L$4</f>
-        <v>113.26237921249265</v>
+        <f>Feuil1!$B$13*COS($B13)+Feuil2!L$4</f>
+        <v>145.86576408580302</v>
       </c>
       <c r="D13">
-        <f>Feuil1!$B$1*SIN($B13)+Feuil2!M$4</f>
-        <v>82.289935320946242</v>
+        <f>Feuil1!$B$13*SIN($B13)+Feuil2!M$4</f>
+        <v>105.97768098833291</v>
       </c>
       <c r="E13">
-        <f>Feuil1!$B$2*COS($B13)+Feuil2!N$4</f>
-        <v>121.35254915624212</v>
+        <f>Feuil1!$B$14*COS($B13)+Feuil2!N$4</f>
+        <v>90.44809997111912</v>
       </c>
       <c r="F13">
-        <f>Feuil1!$B$2*SIN($B13)+Feuil2!O$4</f>
-        <v>288.167787843871</v>
+        <f>Feuil1!$B$14*SIN($B13)+Feuil2!O$4</f>
+        <v>265.7143912062985</v>
       </c>
       <c r="G13">
-        <f>Feuil1!$B$3*COS($B13)+Feuil2!P$4</f>
-        <v>461.80339887498951</v>
+        <f>Feuil1!$B$15*COS($B13)+Feuil2!P$4</f>
+        <v>466.81930424011415</v>
       </c>
       <c r="H13">
-        <f>Feuil1!$B$3*SIN($B13)+Feuil2!Q$4</f>
-        <v>217.55705045849464</v>
+        <f>Feuil1!$B$15*SIN($B13)+Feuil2!Q$4</f>
+        <v>221.20131902270793</v>
       </c>
       <c r="I13">
-        <f>IF(A13&lt;=2/10*$U$4,0,IF(A13&lt;=5/10*$U$4,300,IF(A13&lt;=7/10*$U$4,300,IF(A13&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>IF(A13&lt;=2/10*$U$4,200,IF(A13&lt;=5/10*$U$4,200,IF(A13&lt;=7/10*$U$4,0,IF(A13&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6521,39 +6631,39 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <f>$A14*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.69115038378975457</v>
       </c>
       <c r="C14">
-        <f>Feuil1!$B$1*COS($B14)+Feuil2!L$4</f>
-        <v>107.87185398861048</v>
+        <f>Feuil1!$B$13*COS($B14)+Feuil2!L$4</f>
+        <v>138.92353767247479</v>
       </c>
       <c r="D14">
-        <f>Feuil1!$B$1*SIN($B14)+Feuil2!M$4</f>
-        <v>89.23935856481657</v>
+        <f>Feuil1!$B$13*SIN($B14)+Feuil2!M$4</f>
+        <v>114.92754535168876</v>
       </c>
       <c r="E14">
-        <f>Feuil1!$B$2*COS($B14)+Feuil2!N$4</f>
-        <v>115.57698641636837</v>
+        <f>Feuil1!$B$14*COS($B14)+Feuil2!N$4</f>
+        <v>86.143380542333219</v>
       </c>
       <c r="F14">
-        <f>Feuil1!$B$2*SIN($B14)+Feuil2!O$4</f>
-        <v>295.61359846230346</v>
+        <f>Feuil1!$B$14*SIN($B14)+Feuil2!O$4</f>
+        <v>271.26400205390348</v>
       </c>
       <c r="G14">
-        <f>Feuil1!$B$3*COS($B14)+Feuil2!P$4</f>
-        <v>454.10264855515783</v>
+        <f>Feuil1!$B$15*COS($B14)+Feuil2!P$4</f>
+        <v>458.8798306603677</v>
       </c>
       <c r="H14">
-        <f>Feuil1!$B$3*SIN($B14)+Feuil2!Q$4</f>
-        <v>227.48479794973795</v>
+        <f>Feuil1!$B$15*SIN($B14)+Feuil2!Q$4</f>
+        <v>231.43682668617981</v>
       </c>
       <c r="I14">
-        <f>IF(A14&lt;=2/10*$U$4,0,IF(A14&lt;=5/10*$U$4,300,IF(A14&lt;=7/10*$U$4,300,IF(A14&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>IF(A14&lt;=2/10*$U$4,200,IF(A14&lt;=5/10*$U$4,200,IF(A14&lt;=7/10*$U$4,0,IF(A14&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6562,39 +6672,39 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <f>$A15*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.75398223686155041</v>
       </c>
       <c r="C15">
-        <f>Feuil1!$B$1*COS($B15)+Feuil2!L$4</f>
-        <v>102.05560783899762</v>
+        <f>Feuil1!$B$13*COS($B15)+Feuil2!L$4</f>
+        <v>131.43304352408052</v>
       </c>
       <c r="D15">
-        <f>Feuil1!$B$1*SIN($B15)+Feuil2!M$4</f>
-        <v>95.836594830016423</v>
+        <f>Feuil1!$B$13*SIN($B15)+Feuil2!M$4</f>
+        <v>123.42384319894259</v>
       </c>
       <c r="E15">
-        <f>Feuil1!$B$2*COS($B15)+Feuil2!N$4</f>
-        <v>109.34529411321174</v>
+        <f>Feuil1!$B$14*COS($B15)+Feuil2!N$4</f>
+        <v>81.498692545713808</v>
       </c>
       <c r="F15">
-        <f>Feuil1!$B$2*SIN($B15)+Feuil2!O$4</f>
-        <v>302.68206588930332</v>
+        <f>Feuil1!$B$14*SIN($B15)+Feuil2!O$4</f>
+        <v>276.53236644282742</v>
       </c>
       <c r="G15">
-        <f>Feuil1!$B$3*COS($B15)+Feuil2!P$4</f>
-        <v>445.79372548428228</v>
+        <f>Feuil1!$B$15*COS($B15)+Feuil2!P$4</f>
+        <v>450.31333097429501</v>
       </c>
       <c r="H15">
-        <f>Feuil1!$B$3*SIN($B15)+Feuil2!Q$4</f>
-        <v>236.90942118573776</v>
+        <f>Feuil1!$B$15*SIN($B15)+Feuil2!Q$4</f>
+        <v>241.1536132424956</v>
       </c>
       <c r="I15">
-        <f>IF(A15&lt;=2/10*$U$4,0,IF(A15&lt;=5/10*$U$4,300,IF(A15&lt;=7/10*$U$4,300,IF(A15&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>IF(A15&lt;=2/10*$U$4,200,IF(A15&lt;=5/10*$U$4,200,IF(A15&lt;=7/10*$U$4,0,IF(A15&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6603,39 +6713,39 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <f>$A16*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.81681408993334625</v>
       </c>
       <c r="C16">
-        <f>Feuil1!$B$1*COS($B16)+Feuil2!L$4</f>
-        <v>95.836594830016409</v>
+        <f>Feuil1!$B$13*COS($B16)+Feuil2!L$4</f>
+        <v>123.42384319894256</v>
       </c>
       <c r="D16">
-        <f>Feuil1!$B$1*SIN($B16)+Feuil2!M$4</f>
-        <v>102.05560783899762</v>
+        <f>Feuil1!$B$13*SIN($B16)+Feuil2!M$4</f>
+        <v>131.43304352408052</v>
       </c>
       <c r="E16">
-        <f>Feuil1!$B$2*COS($B16)+Feuil2!N$4</f>
-        <v>102.68206588930329</v>
+        <f>Feuil1!$B$14*COS($B16)+Feuil2!N$4</f>
+        <v>76.532366442827382</v>
       </c>
       <c r="F16">
-        <f>Feuil1!$B$2*SIN($B16)+Feuil2!O$4</f>
-        <v>309.34529411321171</v>
+        <f>Feuil1!$B$14*SIN($B16)+Feuil2!O$4</f>
+        <v>281.49869254571382</v>
       </c>
       <c r="G16">
-        <f>Feuil1!$B$3*COS($B16)+Feuil2!P$4</f>
-        <v>436.90942118573776</v>
+        <f>Feuil1!$B$15*COS($B16)+Feuil2!P$4</f>
+        <v>441.15361324249557</v>
       </c>
       <c r="H16">
-        <f>Feuil1!$B$3*SIN($B16)+Feuil2!Q$4</f>
-        <v>245.79372548428231</v>
+        <f>Feuil1!$B$15*SIN($B16)+Feuil2!Q$4</f>
+        <v>250.31333097429504</v>
       </c>
       <c r="I16">
-        <f>IF(A16&lt;=2/10*$U$4,0,IF(A16&lt;=5/10*$U$4,300,IF(A16&lt;=7/10*$U$4,300,IF(A16&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>IF(A16&lt;=2/10*$U$4,200,IF(A16&lt;=5/10*$U$4,200,IF(A16&lt;=7/10*$U$4,0,IF(A16&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6644,39 +6754,39 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <f>$A17*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.87964594300514221</v>
       </c>
       <c r="C17">
-        <f>Feuil1!$B$1*COS($B17)+Feuil2!L$4</f>
-        <v>89.239358564816555</v>
+        <f>Feuil1!$B$13*COS($B17)+Feuil2!L$4</f>
+        <v>114.92754535168875</v>
       </c>
       <c r="D17">
-        <f>Feuil1!$B$1*SIN($B17)+Feuil2!M$4</f>
-        <v>107.8718539886105</v>
+        <f>Feuil1!$B$13*SIN($B17)+Feuil2!M$4</f>
+        <v>138.92353767247482</v>
       </c>
       <c r="E17">
-        <f>Feuil1!$B$2*COS($B17)+Feuil2!N$4</f>
-        <v>95.613598462303443</v>
+        <f>Feuil1!$B$14*COS($B17)+Feuil2!N$4</f>
+        <v>71.264002053903496</v>
       </c>
       <c r="F17">
-        <f>Feuil1!$B$2*SIN($B17)+Feuil2!O$4</f>
-        <v>315.57698641636841</v>
+        <f>Feuil1!$B$14*SIN($B17)+Feuil2!O$4</f>
+        <v>286.14338054233326</v>
       </c>
       <c r="G17">
-        <f>Feuil1!$B$3*COS($B17)+Feuil2!P$4</f>
-        <v>427.48479794973792</v>
+        <f>Feuil1!$B$15*COS($B17)+Feuil2!P$4</f>
+        <v>431.43682668617976</v>
       </c>
       <c r="H17">
-        <f>Feuil1!$B$3*SIN($B17)+Feuil2!Q$4</f>
-        <v>254.10264855515786</v>
+        <f>Feuil1!$B$15*SIN($B17)+Feuil2!Q$4</f>
+        <v>258.8798306603677</v>
       </c>
       <c r="I17">
-        <f>IF(A17&lt;=2/10*$U$4,0,IF(A17&lt;=5/10*$U$4,300,IF(A17&lt;=7/10*$U$4,300,IF(A17&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>IF(A17&lt;=2/10*$U$4,200,IF(A17&lt;=5/10*$U$4,200,IF(A17&lt;=7/10*$U$4,0,IF(A17&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6685,39 +6795,39 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <f>$A18*$T$4</f>
+        <f t="shared" si="0"/>
         <v>0.94247779607693805</v>
       </c>
       <c r="C18">
-        <f>Feuil1!$B$1*COS($B18)+Feuil2!L$4</f>
-        <v>82.289935320946228</v>
+        <f>Feuil1!$B$13*COS($B18)+Feuil2!L$4</f>
+        <v>105.97768098833289</v>
       </c>
       <c r="D18">
-        <f>Feuil1!$B$1*SIN($B18)+Feuil2!M$4</f>
-        <v>113.26237921249265</v>
+        <f>Feuil1!$B$13*SIN($B18)+Feuil2!M$4</f>
+        <v>145.86576408580302</v>
       </c>
       <c r="E18">
-        <f>Feuil1!$B$2*COS($B18)+Feuil2!N$4</f>
-        <v>88.167787843870954</v>
+        <f>Feuil1!$B$14*COS($B18)+Feuil2!N$4</f>
+        <v>65.714391206298487</v>
       </c>
       <c r="F18">
-        <f>Feuil1!$B$2*SIN($B18)+Feuil2!O$4</f>
-        <v>321.35254915624211</v>
+        <f>Feuil1!$B$14*SIN($B18)+Feuil2!O$4</f>
+        <v>290.44809997111912</v>
       </c>
       <c r="G18">
-        <f>Feuil1!$B$3*COS($B18)+Feuil2!P$4</f>
-        <v>417.55705045849459</v>
+        <f>Feuil1!$B$15*COS($B18)+Feuil2!P$4</f>
+        <v>421.20131902270793</v>
       </c>
       <c r="H18">
-        <f>Feuil1!$B$3*SIN($B18)+Feuil2!Q$4</f>
-        <v>261.80339887498951</v>
+        <f>Feuil1!$B$15*SIN($B18)+Feuil2!Q$4</f>
+        <v>266.81930424011415</v>
       </c>
       <c r="I18">
-        <f>IF(A18&lt;=2/10*$U$4,0,IF(A18&lt;=5/10*$U$4,300,IF(A18&lt;=7/10*$U$4,300,IF(A18&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>IF(A18&lt;=2/10*$U$4,200,IF(A18&lt;=5/10*$U$4,200,IF(A18&lt;=7/10*$U$4,0,IF(A18&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6726,39 +6836,39 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <f>$A19*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.0053096491487339</v>
       </c>
       <c r="C19">
-        <f>Feuil1!$B$1*COS($B19)+Feuil2!L$4</f>
-        <v>75.015751297059523</v>
+        <f>Feuil1!$B$13*COS($B19)+Feuil2!L$4</f>
+        <v>96.609571134713079</v>
       </c>
       <c r="D19">
-        <f>Feuil1!$B$1*SIN($B19)+Feuil2!M$4</f>
-        <v>118.20590957028212</v>
+        <f>Feuil1!$B$13*SIN($B19)+Feuil2!M$4</f>
+        <v>152.23232496801333</v>
       </c>
       <c r="E19">
-        <f>Feuil1!$B$2*COS($B19)+Feuil2!N$4</f>
-        <v>80.374019246849485</v>
+        <f>Feuil1!$B$14*COS($B19)+Feuil2!N$4</f>
+        <v>59.905435678651813</v>
       </c>
       <c r="F19">
-        <f>Feuil1!$B$2*SIN($B19)+Feuil2!O$4</f>
-        <v>326.64918882530225</v>
+        <f>Feuil1!$B$14*SIN($B19)+Feuil2!O$4</f>
+        <v>294.39586207112529</v>
       </c>
       <c r="G19">
-        <f>Feuil1!$B$3*COS($B19)+Feuil2!P$4</f>
-        <v>407.16535899579929</v>
+        <f>Feuil1!$B$15*COS($B19)+Feuil2!P$4</f>
+        <v>410.48748512466909</v>
       </c>
       <c r="H19">
-        <f>Feuil1!$B$3*SIN($B19)+Feuil2!Q$4</f>
-        <v>268.865585100403</v>
+        <f>Feuil1!$B$15*SIN($B19)+Feuil2!Q$4</f>
+        <v>274.10041823851549</v>
       </c>
       <c r="I19">
-        <f>IF(A19&lt;=2/10*$U$4,0,IF(A19&lt;=5/10*$U$4,300,IF(A19&lt;=7/10*$U$4,300,IF(A19&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>IF(A19&lt;=2/10*$U$4,200,IF(A19&lt;=5/10*$U$4,200,IF(A19&lt;=7/10*$U$4,0,IF(A19&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6767,39 +6877,39 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <f>$A20*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.0681415022205298</v>
       </c>
       <c r="C20">
-        <f>Feuil1!$B$1*COS($B20)+Feuil2!L$4</f>
-        <v>67.445514374240119</v>
+        <f>Feuil1!$B$13*COS($B20)+Feuil2!L$4</f>
+        <v>86.860187440539249</v>
       </c>
       <c r="D20">
-        <f>Feuil1!$B$1*SIN($B20)+Feuil2!M$4</f>
-        <v>122.68293520614091</v>
+        <f>Feuil1!$B$13*SIN($B20)+Feuil2!M$4</f>
+        <v>157.99809441190862</v>
       </c>
       <c r="E20">
-        <f>Feuil1!$B$2*COS($B20)+Feuil2!N$4</f>
-        <v>72.263051115257269</v>
+        <f>Feuil1!$B$14*COS($B20)+Feuil2!N$4</f>
+        <v>53.860060764571756</v>
       </c>
       <c r="F20">
-        <f>Feuil1!$B$2*SIN($B20)+Feuil2!O$4</f>
-        <v>331.44600200657953</v>
+        <f>Feuil1!$B$14*SIN($B20)+Feuil2!O$4</f>
+        <v>297.97108682890394</v>
       </c>
       <c r="G20">
-        <f>Feuil1!$B$3*COS($B20)+Feuil2!P$4</f>
-        <v>396.35073482034306</v>
+        <f>Feuil1!$B$15*COS($B20)+Feuil2!P$4</f>
+        <v>399.33760759977366</v>
       </c>
       <c r="H20">
-        <f>Feuil1!$B$3*SIN($B20)+Feuil2!Q$4</f>
-        <v>275.26133600877273</v>
+        <f>Feuil1!$B$15*SIN($B20)+Feuil2!Q$4</f>
+        <v>280.69443742504473</v>
       </c>
       <c r="I20">
-        <f>IF(A20&lt;=2/10*$U$4,0,IF(A20&lt;=5/10*$U$4,300,IF(A20&lt;=7/10*$U$4,300,IF(A20&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>IF(A20&lt;=2/10*$U$4,200,IF(A20&lt;=5/10*$U$4,200,IF(A20&lt;=7/10*$U$4,0,IF(A20&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6808,39 +6918,39 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <f>$A21*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.1309733552923256</v>
       </c>
       <c r="C21">
-        <f>Feuil1!$B$1*COS($B21)+Feuil2!L$4</f>
-        <v>59.609100819110175</v>
+        <f>Feuil1!$B$13*COS($B21)+Feuil2!L$4</f>
+        <v>76.768006269182607</v>
       </c>
       <c r="D21">
-        <f>Feuil1!$B$1*SIN($B21)+Feuil2!M$4</f>
-        <v>126.67578734524274</v>
+        <f>Feuil1!$B$13*SIN($B21)+Feuil2!M$4</f>
+        <v>163.14031755962333</v>
       </c>
       <c r="E21">
-        <f>Feuil1!$B$2*COS($B21)+Feuil2!N$4</f>
-        <v>63.8668937347609</v>
+        <f>Feuil1!$B$14*COS($B21)+Feuil2!N$4</f>
+        <v>47.602124796975119</v>
       </c>
       <c r="F21">
-        <f>Feuil1!$B$2*SIN($B21)+Feuil2!O$4</f>
-        <v>335.72405786990294</v>
+        <f>Feuil1!$B$14*SIN($B21)+Feuil2!O$4</f>
+        <v>301.15966446570098</v>
       </c>
       <c r="G21">
-        <f>Feuil1!$B$3*COS($B21)+Feuil2!P$4</f>
-        <v>385.15585831301451</v>
+        <f>Feuil1!$B$15*COS($B21)+Feuil2!P$4</f>
+        <v>387.79568992071796</v>
       </c>
       <c r="H21">
-        <f>Feuil1!$B$3*SIN($B21)+Feuil2!Q$4</f>
-        <v>280.96541049320388</v>
+        <f>Feuil1!$B$15*SIN($B21)+Feuil2!Q$4</f>
+        <v>286.57533821849324</v>
       </c>
       <c r="I21">
-        <f>IF(A21&lt;=2/10*$U$4,0,IF(A21&lt;=5/10*$U$4,300,IF(A21&lt;=7/10*$U$4,300,IF(A21&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>IF(A21&lt;=2/10*$U$4,200,IF(A21&lt;=5/10*$U$4,200,IF(A21&lt;=7/10*$U$4,0,IF(A21&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6849,39 +6959,39 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <f>$A22*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.1938052083641215</v>
       </c>
       <c r="C22">
-        <f>Feuil1!$B$1*COS($B22)+Feuil2!L$4</f>
-        <v>51.5374373758549</v>
+        <f>Feuil1!$B$13*COS($B22)+Feuil2!L$4</f>
+        <v>66.372856849047423</v>
       </c>
       <c r="D22">
-        <f>Feuil1!$B$1*SIN($B22)+Feuil2!M$4</f>
-        <v>130.1687080243552</v>
+        <f>Feuil1!$B$13*SIN($B22)+Feuil2!M$4</f>
+        <v>167.63870040565175</v>
       </c>
       <c r="E22">
-        <f>Feuil1!$B$2*COS($B22)+Feuil2!N$4</f>
-        <v>55.21868290270168</v>
+        <f>Feuil1!$B$14*COS($B22)+Feuil2!N$4</f>
+        <v>41.156324990146985</v>
       </c>
       <c r="F22">
-        <f>Feuil1!$B$2*SIN($B22)+Feuil2!O$4</f>
-        <v>339.46647288323771</v>
+        <f>Feuil1!$B$14*SIN($B22)+Feuil2!O$4</f>
+        <v>303.9490111223065</v>
       </c>
       <c r="G22">
-        <f>Feuil1!$B$3*COS($B22)+Feuil2!P$4</f>
-        <v>373.62491053693554</v>
+        <f>Feuil1!$B$15*COS($B22)+Feuil2!P$4</f>
+        <v>375.90728276358055</v>
       </c>
       <c r="H22">
-        <f>Feuil1!$B$3*SIN($B22)+Feuil2!Q$4</f>
-        <v>285.95529717765032</v>
+        <f>Feuil1!$B$15*SIN($B22)+Feuil2!Q$4</f>
+        <v>291.71991139015745</v>
       </c>
       <c r="I22">
-        <f>IF(A22&lt;=2/10*$U$4,0,IF(A22&lt;=5/10*$U$4,300,IF(A22&lt;=7/10*$U$4,300,IF(A22&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>IF(A22&lt;=2/10*$U$4,200,IF(A22&lt;=5/10*$U$4,200,IF(A22&lt;=7/10*$U$4,0,IF(A22&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6890,39 +7000,39 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <f>$A23*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.2566370614359172</v>
       </c>
       <c r="C23">
-        <f>Feuil1!$B$1*COS($B23)+Feuil2!L$4</f>
-        <v>43.262379212492647</v>
+        <f>Feuil1!$B$13*COS($B23)+Feuil2!L$4</f>
+        <v>55.715764085803031</v>
       </c>
       <c r="D23">
-        <f>Feuil1!$B$1*SIN($B23)+Feuil2!M$4</f>
-        <v>133.14791228132148</v>
+        <f>Feuil1!$B$13*SIN($B23)+Feuil2!M$4</f>
+        <v>171.4754898880162</v>
       </c>
       <c r="E23">
-        <f>Feuil1!$B$2*COS($B23)+Feuil2!N$4</f>
-        <v>46.352549156242119</v>
+        <f>Feuil1!$B$14*COS($B23)+Feuil2!N$4</f>
+        <v>34.548099971119122</v>
       </c>
       <c r="F23">
-        <f>Feuil1!$B$2*SIN($B23)+Feuil2!O$4</f>
-        <v>342.65847744427299</v>
+        <f>Feuil1!$B$14*SIN($B23)+Feuil2!O$4</f>
+        <v>306.32811852179816</v>
       </c>
       <c r="G23">
-        <f>Feuil1!$B$3*COS($B23)+Feuil2!P$4</f>
-        <v>361.80339887498951</v>
+        <f>Feuil1!$B$15*COS($B23)+Feuil2!P$4</f>
+        <v>363.71930424011418</v>
       </c>
       <c r="H23">
-        <f>Feuil1!$B$3*SIN($B23)+Feuil2!Q$4</f>
-        <v>290.21130325903073</v>
+        <f>Feuil1!$B$15*SIN($B23)+Feuil2!Q$4</f>
+        <v>296.10785366006064</v>
       </c>
       <c r="I23">
-        <f>IF(A23&lt;=2/10*$U$4,0,IF(A23&lt;=5/10*$U$4,300,IF(A23&lt;=7/10*$U$4,300,IF(A23&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>IF(A23&lt;=2/10*$U$4,200,IF(A23&lt;=5/10*$U$4,200,IF(A23&lt;=7/10*$U$4,0,IF(A23&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6931,39 +7041,39 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <f>$A24*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.3194689145077132</v>
       </c>
       <c r="C24">
-        <f>Feuil1!$B$1*COS($B24)+Feuil2!L$4</f>
-        <v>34.816584203079664</v>
+        <f>Feuil1!$B$13*COS($B24)+Feuil2!L$4</f>
+        <v>44.838786655823313</v>
       </c>
       <c r="D24">
-        <f>Feuil1!$B$1*SIN($B24)+Feuil2!M$4</f>
-        <v>135.60164255800834</v>
+        <f>Feuil1!$B$13*SIN($B24)+Feuil2!M$4</f>
+        <v>174.6355439514922</v>
       </c>
       <c r="E24">
-        <f>Feuil1!$B$2*COS($B24)+Feuil2!N$4</f>
-        <v>37.303483074728213</v>
+        <f>Feuil1!$B$14*COS($B24)+Feuil2!N$4</f>
+        <v>27.80352938503076</v>
       </c>
       <c r="F24">
-        <f>Feuil1!$B$2*SIN($B24)+Feuil2!O$4</f>
-        <v>345.28747416929468</v>
+        <f>Feuil1!$B$14*SIN($B24)+Feuil2!O$4</f>
+        <v>308.28759741418094</v>
       </c>
       <c r="G24">
-        <f>Feuil1!$B$3*COS($B24)+Feuil2!P$4</f>
-        <v>349.73797743297098</v>
+        <f>Feuil1!$B$15*COS($B24)+Feuil2!P$4</f>
+        <v>351.27985473339305</v>
       </c>
       <c r="H24">
-        <f>Feuil1!$B$3*SIN($B24)+Feuil2!Q$4</f>
-        <v>293.71663222572624</v>
+        <f>Feuil1!$B$15*SIN($B24)+Feuil2!Q$4</f>
+        <v>299.72184782472368</v>
       </c>
       <c r="I24">
-        <f>IF(A24&lt;=2/10*$U$4,0,IF(A24&lt;=5/10*$U$4,300,IF(A24&lt;=7/10*$U$4,300,IF(A24&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J24">
-        <f>IF(A24&lt;=2/10*$U$4,200,IF(A24&lt;=5/10*$U$4,200,IF(A24&lt;=7/10*$U$4,0,IF(A24&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -6972,39 +7082,39 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <f>$A25*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.3823007675795091</v>
       </c>
       <c r="C25">
-        <f>Feuil1!$B$1*COS($B25)+Feuil2!L$4</f>
-        <v>26.233384042001433</v>
+        <f>Feuil1!$B$13*COS($B25)+Feuil2!L$4</f>
+        <v>33.784851019806133</v>
       </c>
       <c r="D25">
-        <f>Feuil1!$B$1*SIN($B25)+Feuil2!M$4</f>
-        <v>137.52021510201641</v>
+        <f>Feuil1!$B$13*SIN($B25)+Feuil2!M$4</f>
+        <v>177.10639130638259</v>
       </c>
       <c r="E25">
-        <f>Feuil1!$B$2*COS($B25)+Feuil2!N$4</f>
-        <v>28.107197187858677</v>
+        <f>Feuil1!$B$14*COS($B25)+Feuil2!N$4</f>
+        <v>20.949230970683999</v>
       </c>
       <c r="F25">
-        <f>Feuil1!$B$2*SIN($B25)+Feuil2!O$4</f>
-        <v>347.34308760930332</v>
+        <f>Feuil1!$B$14*SIN($B25)+Feuil2!O$4</f>
+        <v>309.81971463146738</v>
       </c>
       <c r="G25">
-        <f>Feuil1!$B$3*COS($B25)+Feuil2!P$4</f>
-        <v>337.47626291714488</v>
+        <f>Feuil1!$B$15*COS($B25)+Feuil2!P$4</f>
+        <v>338.63802706757639</v>
       </c>
       <c r="H25">
-        <f>Feuil1!$B$3*SIN($B25)+Feuil2!Q$4</f>
-        <v>296.45745014573777</v>
+        <f>Feuil1!$B$15*SIN($B25)+Feuil2!Q$4</f>
+        <v>302.54763110025561</v>
       </c>
       <c r="I25">
-        <f>IF(A25&lt;=2/10*$U$4,0,IF(A25&lt;=5/10*$U$4,300,IF(A25&lt;=7/10*$U$4,300,IF(A25&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J25">
-        <f>IF(A25&lt;=2/10*$U$4,200,IF(A25&lt;=5/10*$U$4,200,IF(A25&lt;=7/10*$U$4,0,IF(A25&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7013,39 +7123,39 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <f>$A26*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.4451326206513049</v>
       </c>
       <c r="C26">
-        <f>Feuil1!$B$1*COS($B26)+Feuil2!L$4</f>
-        <v>17.546652699002596</v>
+        <f>Feuil1!$B$13*COS($B26)+Feuil2!L$4</f>
+        <v>22.597582011644061</v>
       </c>
       <c r="D26">
-        <f>Feuil1!$B$1*SIN($B26)+Feuil2!M$4</f>
-        <v>138.89605818402691</v>
+        <f>Feuil1!$B$13*SIN($B26)+Feuil2!M$4</f>
+        <v>178.87828064700037</v>
       </c>
       <c r="E26">
-        <f>Feuil1!$B$2*COS($B26)+Feuil2!N$4</f>
-        <v>18.799985034645637</v>
+        <f>Feuil1!$B$14*COS($B26)+Feuil2!N$4</f>
+        <v>14.012255512489215</v>
       </c>
       <c r="F26">
-        <f>Feuil1!$B$2*SIN($B26)+Feuil2!O$4</f>
-        <v>348.81720519717169</v>
+        <f>Feuil1!$B$14*SIN($B26)+Feuil2!O$4</f>
+        <v>310.91842360695864</v>
       </c>
       <c r="G26">
-        <f>Feuil1!$B$3*COS($B26)+Feuil2!P$4</f>
-        <v>325.06664671286086</v>
+        <f>Feuil1!$B$15*COS($B26)+Feuil2!P$4</f>
+        <v>325.84371276095953</v>
       </c>
       <c r="H26">
-        <f>Feuil1!$B$3*SIN($B26)+Feuil2!Q$4</f>
-        <v>298.42294026289557</v>
+        <f>Feuil1!$B$15*SIN($B26)+Feuil2!Q$4</f>
+        <v>304.57405141104533</v>
       </c>
       <c r="I26">
-        <f>IF(A26&lt;=2/10*$U$4,0,IF(A26&lt;=5/10*$U$4,300,IF(A26&lt;=7/10*$U$4,300,IF(A26&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J26">
-        <f>IF(A26&lt;=2/10*$U$4,200,IF(A26&lt;=5/10*$U$4,200,IF(A26&lt;=7/10*$U$4,0,IF(A26&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7054,39 +7164,39 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <f>$A27*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.5079644737231008</v>
       </c>
       <c r="C27">
-        <f>Feuil1!$B$1*COS($B27)+Feuil2!L$4</f>
-        <v>8.7906727341038629</v>
+        <f>Feuil1!$B$13*COS($B27)+Feuil2!L$4</f>
+        <v>11.32113067113519</v>
       </c>
       <c r="D27">
-        <f>Feuil1!$B$1*SIN($B27)+Feuil2!M$4</f>
-        <v>139.72374197995802</v>
+        <f>Feuil1!$B$13*SIN($B27)+Feuil2!M$4</f>
+        <v>179.94421913561737</v>
       </c>
       <c r="E27">
-        <f>Feuil1!$B$2*COS($B27)+Feuil2!N$4</f>
-        <v>9.4185779293969958</v>
+        <f>Feuil1!$B$14*COS($B27)+Feuil2!N$4</f>
+        <v>7.0199800833772272</v>
       </c>
       <c r="F27">
-        <f>Feuil1!$B$2*SIN($B27)+Feuil2!O$4</f>
-        <v>349.70400926424077</v>
+        <f>Feuil1!$B$14*SIN($B27)+Feuil2!O$4</f>
+        <v>311.57938823828079</v>
       </c>
       <c r="G27">
-        <f>Feuil1!$B$3*COS($B27)+Feuil2!P$4</f>
-        <v>312.55810390586265</v>
+        <f>Feuil1!$B$15*COS($B27)+Feuil2!P$4</f>
+        <v>312.94740512694443</v>
       </c>
       <c r="H27">
-        <f>Feuil1!$B$3*SIN($B27)+Feuil2!Q$4</f>
-        <v>299.6053456856543</v>
+        <f>Feuil1!$B$15*SIN($B27)+Feuil2!Q$4</f>
+        <v>305.79311140190958</v>
       </c>
       <c r="I27">
-        <f>IF(A27&lt;=2/10*$U$4,0,IF(A27&lt;=5/10*$U$4,300,IF(A27&lt;=7/10*$U$4,300,IF(A27&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J27">
-        <f>IF(A27&lt;=2/10*$U$4,200,IF(A27&lt;=5/10*$U$4,200,IF(A27&lt;=7/10*$U$4,0,IF(A27&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7095,39 +7205,39 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <f>$A28*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.5707963267948968</v>
       </c>
       <c r="C28">
-        <f>Feuil1!$B$1*COS($B28)+Feuil2!L$4</f>
-        <v>-2.2510205505144043E-14</v>
+        <f>Feuil1!$B$13*COS($B28)+Feuil2!L$4</f>
+        <v>-2.8989928946981938E-14</v>
       </c>
       <c r="D28">
-        <f>Feuil1!$B$1*SIN($B28)+Feuil2!M$4</f>
-        <v>140</v>
+        <f>Feuil1!$B$13*SIN($B28)+Feuil2!M$4</f>
+        <v>180.3</v>
       </c>
       <c r="E28">
-        <f>Feuil1!$B$2*COS($B28)+Feuil2!N$4</f>
-        <v>-2.4118077326940046E-14</v>
+        <f>Feuil1!$B$14*COS($B28)+Feuil2!N$4</f>
+        <v>-1.7976006967679314E-14</v>
       </c>
       <c r="F28">
-        <f>Feuil1!$B$2*SIN($B28)+Feuil2!O$4</f>
-        <v>350</v>
+        <f>Feuil1!$B$14*SIN($B28)+Feuil2!O$4</f>
+        <v>311.8</v>
       </c>
       <c r="G28">
-        <f>Feuil1!$B$3*COS($B28)+Feuil2!P$4</f>
+        <f>Feuil1!$B$15*COS($B28)+Feuil2!P$4</f>
         <v>299.99999999999994</v>
       </c>
       <c r="H28">
-        <f>Feuil1!$B$3*SIN($B28)+Feuil2!Q$4</f>
+        <f>Feuil1!$B$15*SIN($B28)+Feuil2!Q$4</f>
+        <v>306.2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I28">
-        <f>IF(A28&lt;=2/10*$U$4,0,IF(A28&lt;=5/10*$U$4,300,IF(A28&lt;=7/10*$U$4,300,IF(A28&lt;=$U$4,0))))</f>
-        <v>300</v>
-      </c>
       <c r="J28">
-        <f>IF(A28&lt;=2/10*$U$4,200,IF(A28&lt;=5/10*$U$4,200,IF(A28&lt;=7/10*$U$4,0,IF(A28&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7136,39 +7246,39 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <f>$A29*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.6336281798666925</v>
       </c>
       <c r="C29">
-        <f>Feuil1!$B$1*COS($B29)+Feuil2!L$4</f>
-        <v>-8.7906727341038771</v>
+        <f>Feuil1!$B$13*COS($B29)+Feuil2!L$4</f>
+        <v>-11.321130671135206</v>
       </c>
       <c r="D29">
-        <f>Feuil1!$B$1*SIN($B29)+Feuil2!M$4</f>
-        <v>139.72374197995802</v>
+        <f>Feuil1!$B$13*SIN($B29)+Feuil2!M$4</f>
+        <v>179.94421913561737</v>
       </c>
       <c r="E29">
-        <f>Feuil1!$B$2*COS($B29)+Feuil2!N$4</f>
-        <v>-9.41857792939701</v>
+        <f>Feuil1!$B$14*COS($B29)+Feuil2!N$4</f>
+        <v>-7.0199800833772379</v>
       </c>
       <c r="F29">
-        <f>Feuil1!$B$2*SIN($B29)+Feuil2!O$4</f>
-        <v>349.70400926424077</v>
+        <f>Feuil1!$B$14*SIN($B29)+Feuil2!O$4</f>
+        <v>311.57938823828079</v>
       </c>
       <c r="G29">
-        <f>Feuil1!$B$3*COS($B29)+Feuil2!P$4</f>
-        <v>287.44189609413729</v>
+        <f>Feuil1!$B$15*COS($B29)+Feuil2!P$4</f>
+        <v>287.05259487305557</v>
       </c>
       <c r="H29">
-        <f>Feuil1!$B$3*SIN($B29)+Feuil2!Q$4</f>
-        <v>299.6053456856543</v>
+        <f>Feuil1!$B$15*SIN($B29)+Feuil2!Q$4</f>
+        <v>305.79311140190958</v>
       </c>
       <c r="I29">
-        <f>IF(A29&lt;=2/10*$U$4,0,IF(A29&lt;=5/10*$U$4,300,IF(A29&lt;=7/10*$U$4,300,IF(A29&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J29">
-        <f>IF(A29&lt;=2/10*$U$4,200,IF(A29&lt;=5/10*$U$4,200,IF(A29&lt;=7/10*$U$4,0,IF(A29&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7177,39 +7287,39 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <f>$A30*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.6964600329384885</v>
       </c>
       <c r="C30">
-        <f>Feuil1!$B$1*COS($B30)+Feuil2!L$4</f>
-        <v>-17.54665269900261</v>
+        <f>Feuil1!$B$13*COS($B30)+Feuil2!L$4</f>
+        <v>-22.597582011644079</v>
       </c>
       <c r="D30">
-        <f>Feuil1!$B$1*SIN($B30)+Feuil2!M$4</f>
-        <v>138.89605818402688</v>
+        <f>Feuil1!$B$13*SIN($B30)+Feuil2!M$4</f>
+        <v>178.87828064700037</v>
       </c>
       <c r="E30">
-        <f>Feuil1!$B$2*COS($B30)+Feuil2!N$4</f>
-        <v>-18.799985034645655</v>
+        <f>Feuil1!$B$14*COS($B30)+Feuil2!N$4</f>
+        <v>-14.012255512489228</v>
       </c>
       <c r="F30">
-        <f>Feuil1!$B$2*SIN($B30)+Feuil2!O$4</f>
-        <v>348.81720519717169</v>
+        <f>Feuil1!$B$14*SIN($B30)+Feuil2!O$4</f>
+        <v>310.91842360695864</v>
       </c>
       <c r="G30">
-        <f>Feuil1!$B$3*COS($B30)+Feuil2!P$4</f>
-        <v>274.93335328713914</v>
+        <f>Feuil1!$B$15*COS($B30)+Feuil2!P$4</f>
+        <v>274.15628723904047</v>
       </c>
       <c r="H30">
-        <f>Feuil1!$B$3*SIN($B30)+Feuil2!Q$4</f>
-        <v>298.42294026289557</v>
+        <f>Feuil1!$B$15*SIN($B30)+Feuil2!Q$4</f>
+        <v>304.57405141104528</v>
       </c>
       <c r="I30">
-        <f>IF(A30&lt;=2/10*$U$4,0,IF(A30&lt;=5/10*$U$4,300,IF(A30&lt;=7/10*$U$4,300,IF(A30&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J30">
-        <f>IF(A30&lt;=2/10*$U$4,200,IF(A30&lt;=5/10*$U$4,200,IF(A30&lt;=7/10*$U$4,0,IF(A30&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7218,39 +7328,39 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <f>$A31*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.7592918860102844</v>
       </c>
       <c r="C31">
-        <f>Feuil1!$B$1*COS($B31)+Feuil2!L$4</f>
-        <v>-26.233384042001475</v>
+        <f>Feuil1!$B$13*COS($B31)+Feuil2!L$4</f>
+        <v>-33.78485101980619</v>
       </c>
       <c r="D31">
-        <f>Feuil1!$B$1*SIN($B31)+Feuil2!M$4</f>
-        <v>137.52021510201641</v>
+        <f>Feuil1!$B$13*SIN($B31)+Feuil2!M$4</f>
+        <v>177.10639130638256</v>
       </c>
       <c r="E31">
-        <f>Feuil1!$B$2*COS($B31)+Feuil2!N$4</f>
-        <v>-28.107197187858723</v>
+        <f>Feuil1!$B$14*COS($B31)+Feuil2!N$4</f>
+        <v>-20.949230970684035</v>
       </c>
       <c r="F31">
-        <f>Feuil1!$B$2*SIN($B31)+Feuil2!O$4</f>
-        <v>347.34308760930332</v>
+        <f>Feuil1!$B$14*SIN($B31)+Feuil2!O$4</f>
+        <v>309.81971463146738</v>
       </c>
       <c r="G31">
-        <f>Feuil1!$B$3*COS($B31)+Feuil2!P$4</f>
-        <v>262.52373708285506</v>
+        <f>Feuil1!$B$15*COS($B31)+Feuil2!P$4</f>
+        <v>261.36197293242355</v>
       </c>
       <c r="H31">
-        <f>Feuil1!$B$3*SIN($B31)+Feuil2!Q$4</f>
-        <v>296.45745014573771</v>
+        <f>Feuil1!$B$15*SIN($B31)+Feuil2!Q$4</f>
+        <v>302.54763110025556</v>
       </c>
       <c r="I31">
-        <f>IF(A31&lt;=2/10*$U$4,0,IF(A31&lt;=5/10*$U$4,300,IF(A31&lt;=7/10*$U$4,300,IF(A31&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J31">
-        <f>IF(A31&lt;=2/10*$U$4,200,IF(A31&lt;=5/10*$U$4,200,IF(A31&lt;=7/10*$U$4,0,IF(A31&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7259,39 +7369,39 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <f>$A32*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.8221237390820801</v>
       </c>
       <c r="C32">
-        <f>Feuil1!$B$1*COS($B32)+Feuil2!L$4</f>
-        <v>-34.816584203079678</v>
+        <f>Feuil1!$B$13*COS($B32)+Feuil2!L$4</f>
+        <v>-44.838786655823334</v>
       </c>
       <c r="D32">
-        <f>Feuil1!$B$1*SIN($B32)+Feuil2!M$4</f>
-        <v>135.60164255800834</v>
+        <f>Feuil1!$B$13*SIN($B32)+Feuil2!M$4</f>
+        <v>174.6355439514922</v>
       </c>
       <c r="E32">
-        <f>Feuil1!$B$2*COS($B32)+Feuil2!N$4</f>
-        <v>-37.303483074728227</v>
+        <f>Feuil1!$B$14*COS($B32)+Feuil2!N$4</f>
+        <v>-27.803529385030771</v>
       </c>
       <c r="F32">
-        <f>Feuil1!$B$2*SIN($B32)+Feuil2!O$4</f>
-        <v>345.28747416929468</v>
+        <f>Feuil1!$B$14*SIN($B32)+Feuil2!O$4</f>
+        <v>308.28759741418094</v>
       </c>
       <c r="G32">
-        <f>Feuil1!$B$3*COS($B32)+Feuil2!P$4</f>
-        <v>250.26202256702902</v>
+        <f>Feuil1!$B$15*COS($B32)+Feuil2!P$4</f>
+        <v>248.72014526660695</v>
       </c>
       <c r="H32">
-        <f>Feuil1!$B$3*SIN($B32)+Feuil2!Q$4</f>
-        <v>293.71663222572624</v>
+        <f>Feuil1!$B$15*SIN($B32)+Feuil2!Q$4</f>
+        <v>299.72184782472368</v>
       </c>
       <c r="I32">
-        <f>IF(A32&lt;=2/10*$U$4,0,IF(A32&lt;=5/10*$U$4,300,IF(A32&lt;=7/10*$U$4,300,IF(A32&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J32">
-        <f>IF(A32&lt;=2/10*$U$4,200,IF(A32&lt;=5/10*$U$4,200,IF(A32&lt;=7/10*$U$4,0,IF(A32&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7300,39 +7410,39 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <f>$A33*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.8849555921538761</v>
       </c>
       <c r="C33">
-        <f>Feuil1!$B$1*COS($B33)+Feuil2!L$4</f>
-        <v>-43.262379212492661</v>
+        <f>Feuil1!$B$13*COS($B33)+Feuil2!L$4</f>
+        <v>-55.715764085803052</v>
       </c>
       <c r="D33">
-        <f>Feuil1!$B$1*SIN($B33)+Feuil2!M$4</f>
-        <v>133.14791228132148</v>
+        <f>Feuil1!$B$13*SIN($B33)+Feuil2!M$4</f>
+        <v>171.4754898880162</v>
       </c>
       <c r="E33">
-        <f>Feuil1!$B$2*COS($B33)+Feuil2!N$4</f>
-        <v>-46.352549156242134</v>
+        <f>Feuil1!$B$14*COS($B33)+Feuil2!N$4</f>
+        <v>-34.548099971119136</v>
       </c>
       <c r="F33">
-        <f>Feuil1!$B$2*SIN($B33)+Feuil2!O$4</f>
-        <v>342.65847744427299</v>
+        <f>Feuil1!$B$14*SIN($B33)+Feuil2!O$4</f>
+        <v>306.32811852179816</v>
       </c>
       <c r="G33">
-        <f>Feuil1!$B$3*COS($B33)+Feuil2!P$4</f>
-        <v>238.19660112501049</v>
+        <f>Feuil1!$B$15*COS($B33)+Feuil2!P$4</f>
+        <v>236.28069575988582</v>
       </c>
       <c r="H33">
-        <f>Feuil1!$B$3*SIN($B33)+Feuil2!Q$4</f>
-        <v>290.21130325903073</v>
+        <f>Feuil1!$B$15*SIN($B33)+Feuil2!Q$4</f>
+        <v>296.10785366006064</v>
       </c>
       <c r="I33">
-        <f>IF(A33&lt;=2/10*$U$4,0,IF(A33&lt;=5/10*$U$4,300,IF(A33&lt;=7/10*$U$4,300,IF(A33&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J33">
-        <f>IF(A33&lt;=2/10*$U$4,200,IF(A33&lt;=5/10*$U$4,200,IF(A33&lt;=7/10*$U$4,0,IF(A33&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7341,39 +7451,39 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <f>$A34*$T$4</f>
+        <f t="shared" si="0"/>
         <v>1.9477874452256718</v>
       </c>
       <c r="C34">
-        <f>Feuil1!$B$1*COS($B34)+Feuil2!L$4</f>
-        <v>-51.537437375854914</v>
+        <f>Feuil1!$B$13*COS($B34)+Feuil2!L$4</f>
+        <v>-66.372856849047437</v>
       </c>
       <c r="D34">
-        <f>Feuil1!$B$1*SIN($B34)+Feuil2!M$4</f>
-        <v>130.1687080243552</v>
+        <f>Feuil1!$B$13*SIN($B34)+Feuil2!M$4</f>
+        <v>167.63870040565172</v>
       </c>
       <c r="E34">
-        <f>Feuil1!$B$2*COS($B34)+Feuil2!N$4</f>
-        <v>-55.218682902701694</v>
+        <f>Feuil1!$B$14*COS($B34)+Feuil2!N$4</f>
+        <v>-41.156324990146999</v>
       </c>
       <c r="F34">
-        <f>Feuil1!$B$2*SIN($B34)+Feuil2!O$4</f>
-        <v>339.46647288323771</v>
+        <f>Feuil1!$B$14*SIN($B34)+Feuil2!O$4</f>
+        <v>303.9490111223065</v>
       </c>
       <c r="G34">
-        <f>Feuil1!$B$3*COS($B34)+Feuil2!P$4</f>
-        <v>226.3750894630644</v>
+        <f>Feuil1!$B$15*COS($B34)+Feuil2!P$4</f>
+        <v>224.09271723641939</v>
       </c>
       <c r="H34">
-        <f>Feuil1!$B$3*SIN($B34)+Feuil2!Q$4</f>
-        <v>285.95529717765027</v>
+        <f>Feuil1!$B$15*SIN($B34)+Feuil2!Q$4</f>
+        <v>291.71991139015745</v>
       </c>
       <c r="I34">
-        <f>IF(A34&lt;=2/10*$U$4,0,IF(A34&lt;=5/10*$U$4,300,IF(A34&lt;=7/10*$U$4,300,IF(A34&lt;=$U$4,0))))</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J34">
-        <f>IF(A34&lt;=2/10*$U$4,200,IF(A34&lt;=5/10*$U$4,200,IF(A34&lt;=7/10*$U$4,0,IF(A34&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7382,39 +7492,39 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <f>$A35*$T$4</f>
+        <f t="shared" ref="B35:B66" si="3">$A35*$T$4</f>
         <v>2.0106192982974678</v>
       </c>
       <c r="C35">
-        <f>Feuil1!$B$1*COS($B35)+Feuil2!L$4</f>
-        <v>-59.609100819110182</v>
+        <f>Feuil1!$B$13*COS($B35)+Feuil2!L$4</f>
+        <v>-76.768006269182621</v>
       </c>
       <c r="D35">
-        <f>Feuil1!$B$1*SIN($B35)+Feuil2!M$4</f>
-        <v>126.67578734524272</v>
+        <f>Feuil1!$B$13*SIN($B35)+Feuil2!M$4</f>
+        <v>163.14031755962333</v>
       </c>
       <c r="E35">
-        <f>Feuil1!$B$2*COS($B35)+Feuil2!N$4</f>
-        <v>-63.866893734760907</v>
+        <f>Feuil1!$B$14*COS($B35)+Feuil2!N$4</f>
+        <v>-47.602124796975126</v>
       </c>
       <c r="F35">
-        <f>Feuil1!$B$2*SIN($B35)+Feuil2!O$4</f>
-        <v>335.72405786990294</v>
+        <f>Feuil1!$B$14*SIN($B35)+Feuil2!O$4</f>
+        <v>301.15966446570098</v>
       </c>
       <c r="G35">
-        <f>Feuil1!$B$3*COS($B35)+Feuil2!P$4</f>
-        <v>214.84414168698544</v>
+        <f>Feuil1!$B$15*COS($B35)+Feuil2!P$4</f>
+        <v>212.20431007928201</v>
       </c>
       <c r="H35">
-        <f>Feuil1!$B$3*SIN($B35)+Feuil2!Q$4</f>
-        <v>280.96541049320388</v>
+        <f>Feuil1!$B$15*SIN($B35)+Feuil2!Q$4</f>
+        <v>286.57533821849324</v>
       </c>
       <c r="I35">
-        <f>IF(A35&lt;=2/10*$U$4,0,IF(A35&lt;=5/10*$U$4,300,IF(A35&lt;=7/10*$U$4,300,IF(A35&lt;=$U$4,0))))</f>
+        <f t="shared" ref="I35:I66" si="4">IF(A35&lt;=2/10*$U$4,0,IF(A35&lt;=5/10*$U$4,300,IF(A35&lt;=7/10*$U$4,300,IF(A35&lt;=$U$4,0))))</f>
         <v>300</v>
       </c>
       <c r="J35">
-        <f>IF(A35&lt;=2/10*$U$4,200,IF(A35&lt;=5/10*$U$4,200,IF(A35&lt;=7/10*$U$4,0,IF(A35&lt;=$U$4,0))))</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -7423,39 +7533,39 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <f>$A36*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.0734511513692637</v>
       </c>
       <c r="C36">
-        <f>Feuil1!$B$1*COS($B36)+Feuil2!L$4</f>
-        <v>-67.445514374240162</v>
+        <f>Feuil1!$B$13*COS($B36)+Feuil2!L$4</f>
+        <v>-86.860187440539292</v>
       </c>
       <c r="D36">
-        <f>Feuil1!$B$1*SIN($B36)+Feuil2!M$4</f>
-        <v>122.68293520614088</v>
+        <f>Feuil1!$B$13*SIN($B36)+Feuil2!M$4</f>
+        <v>157.9980944119086</v>
       </c>
       <c r="E36">
-        <f>Feuil1!$B$2*COS($B36)+Feuil2!N$4</f>
-        <v>-72.263051115257312</v>
+        <f>Feuil1!$B$14*COS($B36)+Feuil2!N$4</f>
+        <v>-53.860060764571784</v>
       </c>
       <c r="F36">
-        <f>Feuil1!$B$2*SIN($B36)+Feuil2!O$4</f>
-        <v>331.44600200657953</v>
+        <f>Feuil1!$B$14*SIN($B36)+Feuil2!O$4</f>
+        <v>297.97108682890394</v>
       </c>
       <c r="G36">
-        <f>Feuil1!$B$3*COS($B36)+Feuil2!P$4</f>
-        <v>203.64926517965691</v>
+        <f>Feuil1!$B$15*COS($B36)+Feuil2!P$4</f>
+        <v>200.66239240022628</v>
       </c>
       <c r="H36">
-        <f>Feuil1!$B$3*SIN($B36)+Feuil2!Q$4</f>
-        <v>275.26133600877267</v>
+        <f>Feuil1!$B$15*SIN($B36)+Feuil2!Q$4</f>
+        <v>280.69443742504461</v>
       </c>
       <c r="I36">
-        <f>IF(A36&lt;=2/10*$U$4,0,IF(A36&lt;=5/10*$U$4,300,IF(A36&lt;=7/10*$U$4,300,IF(A36&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J36">
-        <f>IF(A36&lt;=2/10*$U$4,200,IF(A36&lt;=5/10*$U$4,200,IF(A36&lt;=7/10*$U$4,0,IF(A36&lt;=$U$4,0))))</f>
+        <f t="shared" ref="J36:J67" si="5">IF(A36&lt;=2/10*$U$4,200,IF(A36&lt;=5/10*$U$4,200,IF(A36&lt;=7/10*$U$4,0,IF(A36&lt;=$U$4,0))))</f>
         <v>200</v>
       </c>
     </row>
@@ -7464,39 +7574,39 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <f>$A37*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.1362830044410597</v>
       </c>
       <c r="C37">
-        <f>Feuil1!$B$1*COS($B37)+Feuil2!L$4</f>
-        <v>-75.015751297059566</v>
+        <f>Feuil1!$B$13*COS($B37)+Feuil2!L$4</f>
+        <v>-96.60957113471315</v>
       </c>
       <c r="D37">
-        <f>Feuil1!$B$1*SIN($B37)+Feuil2!M$4</f>
-        <v>118.20590957028209</v>
+        <f>Feuil1!$B$13*SIN($B37)+Feuil2!M$4</f>
+        <v>152.2323249680133</v>
       </c>
       <c r="E37">
-        <f>Feuil1!$B$2*COS($B37)+Feuil2!N$4</f>
-        <v>-80.374019246849528</v>
+        <f>Feuil1!$B$14*COS($B37)+Feuil2!N$4</f>
+        <v>-59.905435678651848</v>
       </c>
       <c r="F37">
-        <f>Feuil1!$B$2*SIN($B37)+Feuil2!O$4</f>
-        <v>326.64918882530225</v>
+        <f>Feuil1!$B$14*SIN($B37)+Feuil2!O$4</f>
+        <v>294.39586207112529</v>
       </c>
       <c r="G37">
-        <f>Feuil1!$B$3*COS($B37)+Feuil2!P$4</f>
-        <v>192.83464100420062</v>
+        <f>Feuil1!$B$15*COS($B37)+Feuil2!P$4</f>
+        <v>189.51251487533085</v>
       </c>
       <c r="H37">
-        <f>Feuil1!$B$3*SIN($B37)+Feuil2!Q$4</f>
-        <v>268.865585100403</v>
+        <f>Feuil1!$B$15*SIN($B37)+Feuil2!Q$4</f>
+        <v>274.10041823851549</v>
       </c>
       <c r="I37">
-        <f>IF(A37&lt;=2/10*$U$4,0,IF(A37&lt;=5/10*$U$4,300,IF(A37&lt;=7/10*$U$4,300,IF(A37&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J37">
-        <f>IF(A37&lt;=2/10*$U$4,200,IF(A37&lt;=5/10*$U$4,200,IF(A37&lt;=7/10*$U$4,0,IF(A37&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7505,39 +7615,39 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <f>$A38*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.1991148575128552</v>
       </c>
       <c r="C38">
-        <f>Feuil1!$B$1*COS($B38)+Feuil2!L$4</f>
-        <v>-82.289935320946228</v>
+        <f>Feuil1!$B$13*COS($B38)+Feuil2!L$4</f>
+        <v>-105.97768098833289</v>
       </c>
       <c r="D38">
-        <f>Feuil1!$B$1*SIN($B38)+Feuil2!M$4</f>
-        <v>113.26237921249265</v>
+        <f>Feuil1!$B$13*SIN($B38)+Feuil2!M$4</f>
+        <v>145.86576408580302</v>
       </c>
       <c r="E38">
-        <f>Feuil1!$B$2*COS($B38)+Feuil2!N$4</f>
-        <v>-88.167787843870954</v>
+        <f>Feuil1!$B$14*COS($B38)+Feuil2!N$4</f>
+        <v>-65.714391206298487</v>
       </c>
       <c r="F38">
-        <f>Feuil1!$B$2*SIN($B38)+Feuil2!O$4</f>
-        <v>321.35254915624211</v>
+        <f>Feuil1!$B$14*SIN($B38)+Feuil2!O$4</f>
+        <v>290.44809997111912</v>
       </c>
       <c r="G38">
-        <f>Feuil1!$B$3*COS($B38)+Feuil2!P$4</f>
-        <v>182.44294954150541</v>
+        <f>Feuil1!$B$15*COS($B38)+Feuil2!P$4</f>
+        <v>178.79868097729207</v>
       </c>
       <c r="H38">
-        <f>Feuil1!$B$3*SIN($B38)+Feuil2!Q$4</f>
-        <v>261.80339887498951</v>
+        <f>Feuil1!$B$15*SIN($B38)+Feuil2!Q$4</f>
+        <v>266.81930424011415</v>
       </c>
       <c r="I38">
-        <f>IF(A38&lt;=2/10*$U$4,0,IF(A38&lt;=5/10*$U$4,300,IF(A38&lt;=7/10*$U$4,300,IF(A38&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J38">
-        <f>IF(A38&lt;=2/10*$U$4,200,IF(A38&lt;=5/10*$U$4,200,IF(A38&lt;=7/10*$U$4,0,IF(A38&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7546,39 +7656,39 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <f>$A39*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.2619467105846511</v>
       </c>
       <c r="C39">
-        <f>Feuil1!$B$1*COS($B39)+Feuil2!L$4</f>
-        <v>-89.23935856481657</v>
+        <f>Feuil1!$B$13*COS($B39)+Feuil2!L$4</f>
+        <v>-114.92754535168876</v>
       </c>
       <c r="D39">
-        <f>Feuil1!$B$1*SIN($B39)+Feuil2!M$4</f>
-        <v>107.8718539886105</v>
+        <f>Feuil1!$B$13*SIN($B39)+Feuil2!M$4</f>
+        <v>138.92353767247482</v>
       </c>
       <c r="E39">
-        <f>Feuil1!$B$2*COS($B39)+Feuil2!N$4</f>
-        <v>-95.613598462303457</v>
+        <f>Feuil1!$B$14*COS($B39)+Feuil2!N$4</f>
+        <v>-71.264002053903511</v>
       </c>
       <c r="F39">
-        <f>Feuil1!$B$2*SIN($B39)+Feuil2!O$4</f>
-        <v>315.57698641636841</v>
+        <f>Feuil1!$B$14*SIN($B39)+Feuil2!O$4</f>
+        <v>286.14338054233326</v>
       </c>
       <c r="G39">
-        <f>Feuil1!$B$3*COS($B39)+Feuil2!P$4</f>
-        <v>172.51520205026205</v>
+        <f>Feuil1!$B$15*COS($B39)+Feuil2!P$4</f>
+        <v>168.56317331382019</v>
       </c>
       <c r="H39">
-        <f>Feuil1!$B$3*SIN($B39)+Feuil2!Q$4</f>
-        <v>254.10264855515786</v>
+        <f>Feuil1!$B$15*SIN($B39)+Feuil2!Q$4</f>
+        <v>258.8798306603677</v>
       </c>
       <c r="I39">
-        <f>IF(A39&lt;=2/10*$U$4,0,IF(A39&lt;=5/10*$U$4,300,IF(A39&lt;=7/10*$U$4,300,IF(A39&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J39">
-        <f>IF(A39&lt;=2/10*$U$4,200,IF(A39&lt;=5/10*$U$4,200,IF(A39&lt;=7/10*$U$4,0,IF(A39&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7587,39 +7697,39 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <f>$A40*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.3247785636564471</v>
       </c>
       <c r="C40">
-        <f>Feuil1!$B$1*COS($B40)+Feuil2!L$4</f>
-        <v>-95.836594830016423</v>
+        <f>Feuil1!$B$13*COS($B40)+Feuil2!L$4</f>
+        <v>-123.42384319894259</v>
       </c>
       <c r="D40">
-        <f>Feuil1!$B$1*SIN($B40)+Feuil2!M$4</f>
-        <v>102.0556078389976</v>
+        <f>Feuil1!$B$13*SIN($B40)+Feuil2!M$4</f>
+        <v>131.43304352408049</v>
       </c>
       <c r="E40">
-        <f>Feuil1!$B$2*COS($B40)+Feuil2!N$4</f>
-        <v>-102.6820658893033</v>
+        <f>Feuil1!$B$14*COS($B40)+Feuil2!N$4</f>
+        <v>-76.532366442827396</v>
       </c>
       <c r="F40">
-        <f>Feuil1!$B$2*SIN($B40)+Feuil2!O$4</f>
-        <v>309.34529411321171</v>
+        <f>Feuil1!$B$14*SIN($B40)+Feuil2!O$4</f>
+        <v>281.49869254571377</v>
       </c>
       <c r="G40">
-        <f>Feuil1!$B$3*COS($B40)+Feuil2!P$4</f>
-        <v>163.09057881426224</v>
+        <f>Feuil1!$B$15*COS($B40)+Feuil2!P$4</f>
+        <v>158.8463867575044</v>
       </c>
       <c r="H40">
-        <f>Feuil1!$B$3*SIN($B40)+Feuil2!Q$4</f>
-        <v>245.79372548428228</v>
+        <f>Feuil1!$B$15*SIN($B40)+Feuil2!Q$4</f>
+        <v>250.31333097429504</v>
       </c>
       <c r="I40">
-        <f>IF(A40&lt;=2/10*$U$4,0,IF(A40&lt;=5/10*$U$4,300,IF(A40&lt;=7/10*$U$4,300,IF(A40&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J40">
-        <f>IF(A40&lt;=2/10*$U$4,200,IF(A40&lt;=5/10*$U$4,200,IF(A40&lt;=7/10*$U$4,0,IF(A40&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7628,39 +7738,39 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <f>$A41*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.387610416728243</v>
       </c>
       <c r="C41">
-        <f>Feuil1!$B$1*COS($B41)+Feuil2!L$4</f>
-        <v>-102.05560783899763</v>
+        <f>Feuil1!$B$13*COS($B41)+Feuil2!L$4</f>
+        <v>-131.43304352408052</v>
       </c>
       <c r="D41">
-        <f>Feuil1!$B$1*SIN($B41)+Feuil2!M$4</f>
-        <v>95.836594830016395</v>
+        <f>Feuil1!$B$13*SIN($B41)+Feuil2!M$4</f>
+        <v>123.42384319894255</v>
       </c>
       <c r="E41">
-        <f>Feuil1!$B$2*COS($B41)+Feuil2!N$4</f>
-        <v>-109.34529411321175</v>
+        <f>Feuil1!$B$14*COS($B41)+Feuil2!N$4</f>
+        <v>-81.498692545713823</v>
       </c>
       <c r="F41">
-        <f>Feuil1!$B$2*SIN($B41)+Feuil2!O$4</f>
-        <v>302.68206588930326</v>
+        <f>Feuil1!$B$14*SIN($B41)+Feuil2!O$4</f>
+        <v>276.53236644282737</v>
       </c>
       <c r="G41">
-        <f>Feuil1!$B$3*COS($B41)+Feuil2!P$4</f>
-        <v>154.20627451571767</v>
+        <f>Feuil1!$B$15*COS($B41)+Feuil2!P$4</f>
+        <v>149.68666902570493</v>
       </c>
       <c r="H41">
-        <f>Feuil1!$B$3*SIN($B41)+Feuil2!Q$4</f>
-        <v>236.9094211857377</v>
+        <f>Feuil1!$B$15*SIN($B41)+Feuil2!Q$4</f>
+        <v>241.15361324249557</v>
       </c>
       <c r="I41">
-        <f>IF(A41&lt;=2/10*$U$4,0,IF(A41&lt;=5/10*$U$4,300,IF(A41&lt;=7/10*$U$4,300,IF(A41&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J41">
-        <f>IF(A41&lt;=2/10*$U$4,200,IF(A41&lt;=5/10*$U$4,200,IF(A41&lt;=7/10*$U$4,0,IF(A41&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7669,39 +7779,39 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <f>$A42*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.450442269800039</v>
       </c>
       <c r="C42">
-        <f>Feuil1!$B$1*COS($B42)+Feuil2!L$4</f>
-        <v>-107.87185398861051</v>
+        <f>Feuil1!$B$13*COS($B42)+Feuil2!L$4</f>
+        <v>-138.92353767247482</v>
       </c>
       <c r="D42">
-        <f>Feuil1!$B$1*SIN($B42)+Feuil2!M$4</f>
-        <v>89.239358564816527</v>
+        <f>Feuil1!$B$13*SIN($B42)+Feuil2!M$4</f>
+        <v>114.92754535168874</v>
       </c>
       <c r="E42">
-        <f>Feuil1!$B$2*COS($B42)+Feuil2!N$4</f>
-        <v>-115.5769864163684</v>
+        <f>Feuil1!$B$14*COS($B42)+Feuil2!N$4</f>
+        <v>-86.143380542333247</v>
       </c>
       <c r="F42">
-        <f>Feuil1!$B$2*SIN($B42)+Feuil2!O$4</f>
-        <v>295.61359846230346</v>
+        <f>Feuil1!$B$14*SIN($B42)+Feuil2!O$4</f>
+        <v>271.26400205390348</v>
       </c>
       <c r="G42">
-        <f>Feuil1!$B$3*COS($B42)+Feuil2!P$4</f>
-        <v>145.89735144484212</v>
+        <f>Feuil1!$B$15*COS($B42)+Feuil2!P$4</f>
+        <v>141.12016933963224</v>
       </c>
       <c r="H42">
-        <f>Feuil1!$B$3*SIN($B42)+Feuil2!Q$4</f>
-        <v>227.48479794973792</v>
+        <f>Feuil1!$B$15*SIN($B42)+Feuil2!Q$4</f>
+        <v>231.43682668617978</v>
       </c>
       <c r="I42">
-        <f>IF(A42&lt;=2/10*$U$4,0,IF(A42&lt;=5/10*$U$4,300,IF(A42&lt;=7/10*$U$4,300,IF(A42&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J42">
-        <f>IF(A42&lt;=2/10*$U$4,200,IF(A42&lt;=5/10*$U$4,200,IF(A42&lt;=7/10*$U$4,0,IF(A42&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7710,39 +7820,39 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <f>$A43*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.5132741228718345</v>
       </c>
       <c r="C43">
-        <f>Feuil1!$B$1*COS($B43)+Feuil2!L$4</f>
-        <v>-113.26237921249263</v>
+        <f>Feuil1!$B$13*COS($B43)+Feuil2!L$4</f>
+        <v>-145.86576408580302</v>
       </c>
       <c r="D43">
-        <f>Feuil1!$B$1*SIN($B43)+Feuil2!M$4</f>
-        <v>82.289935320946256</v>
+        <f>Feuil1!$B$13*SIN($B43)+Feuil2!M$4</f>
+        <v>105.97768098833293</v>
       </c>
       <c r="E43">
-        <f>Feuil1!$B$2*COS($B43)+Feuil2!N$4</f>
-        <v>-121.35254915624211</v>
+        <f>Feuil1!$B$14*COS($B43)+Feuil2!N$4</f>
+        <v>-90.448099971119106</v>
       </c>
       <c r="F43">
-        <f>Feuil1!$B$2*SIN($B43)+Feuil2!O$4</f>
-        <v>288.167787843871</v>
+        <f>Feuil1!$B$14*SIN($B43)+Feuil2!O$4</f>
+        <v>265.7143912062985</v>
       </c>
       <c r="G43">
-        <f>Feuil1!$B$3*COS($B43)+Feuil2!P$4</f>
-        <v>138.19660112501055</v>
+        <f>Feuil1!$B$15*COS($B43)+Feuil2!P$4</f>
+        <v>133.18069575988588</v>
       </c>
       <c r="H43">
-        <f>Feuil1!$B$3*SIN($B43)+Feuil2!Q$4</f>
-        <v>217.55705045849464</v>
+        <f>Feuil1!$B$15*SIN($B43)+Feuil2!Q$4</f>
+        <v>221.20131902270799</v>
       </c>
       <c r="I43">
-        <f>IF(A43&lt;=2/10*$U$4,0,IF(A43&lt;=5/10*$U$4,300,IF(A43&lt;=7/10*$U$4,300,IF(A43&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J43">
-        <f>IF(A43&lt;=2/10*$U$4,200,IF(A43&lt;=5/10*$U$4,200,IF(A43&lt;=7/10*$U$4,0,IF(A43&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7751,39 +7861,39 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <f>$A44*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.5761059759436304</v>
       </c>
       <c r="C44">
-        <f>Feuil1!$B$1*COS($B44)+Feuil2!L$4</f>
-        <v>-118.20590957028212</v>
+        <f>Feuil1!$B$13*COS($B44)+Feuil2!L$4</f>
+        <v>-152.23232496801333</v>
       </c>
       <c r="D44">
-        <f>Feuil1!$B$1*SIN($B44)+Feuil2!M$4</f>
-        <v>75.015751297059538</v>
+        <f>Feuil1!$B$13*SIN($B44)+Feuil2!M$4</f>
+        <v>96.609571134713107</v>
       </c>
       <c r="E44">
-        <f>Feuil1!$B$2*COS($B44)+Feuil2!N$4</f>
-        <v>-126.64918882530226</v>
+        <f>Feuil1!$B$14*COS($B44)+Feuil2!N$4</f>
+        <v>-94.395862071125279</v>
       </c>
       <c r="F44">
-        <f>Feuil1!$B$2*SIN($B44)+Feuil2!O$4</f>
-        <v>280.37401924684951</v>
+        <f>Feuil1!$B$14*SIN($B44)+Feuil2!O$4</f>
+        <v>259.90543567865183</v>
       </c>
       <c r="G44">
-        <f>Feuil1!$B$3*COS($B44)+Feuil2!P$4</f>
-        <v>131.13441489959698</v>
+        <f>Feuil1!$B$15*COS($B44)+Feuil2!P$4</f>
+        <v>125.89958176148451</v>
       </c>
       <c r="H44">
-        <f>Feuil1!$B$3*SIN($B44)+Feuil2!Q$4</f>
-        <v>207.16535899579935</v>
+        <f>Feuil1!$B$15*SIN($B44)+Feuil2!Q$4</f>
+        <v>210.48748512466909</v>
       </c>
       <c r="I44">
-        <f>IF(A44&lt;=2/10*$U$4,0,IF(A44&lt;=5/10*$U$4,300,IF(A44&lt;=7/10*$U$4,300,IF(A44&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J44">
-        <f>IF(A44&lt;=2/10*$U$4,200,IF(A44&lt;=5/10*$U$4,200,IF(A44&lt;=7/10*$U$4,0,IF(A44&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7792,39 +7902,39 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <f>$A45*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.6389378290154264</v>
       </c>
       <c r="C45">
-        <f>Feuil1!$B$1*COS($B45)+Feuil2!L$4</f>
-        <v>-122.6829352061409</v>
+        <f>Feuil1!$B$13*COS($B45)+Feuil2!L$4</f>
+        <v>-157.99809441190862</v>
       </c>
       <c r="D45">
-        <f>Feuil1!$B$1*SIN($B45)+Feuil2!M$4</f>
-        <v>67.445514374240133</v>
+        <f>Feuil1!$B$13*SIN($B45)+Feuil2!M$4</f>
+        <v>86.860187440539264</v>
       </c>
       <c r="E45">
-        <f>Feuil1!$B$2*COS($B45)+Feuil2!N$4</f>
-        <v>-131.44600200657953</v>
+        <f>Feuil1!$B$14*COS($B45)+Feuil2!N$4</f>
+        <v>-97.97108682890395</v>
       </c>
       <c r="F45">
-        <f>Feuil1!$B$2*SIN($B45)+Feuil2!O$4</f>
-        <v>272.26305111525727</v>
+        <f>Feuil1!$B$14*SIN($B45)+Feuil2!O$4</f>
+        <v>253.86006076457176</v>
       </c>
       <c r="G45">
-        <f>Feuil1!$B$3*COS($B45)+Feuil2!P$4</f>
-        <v>124.73866399122727</v>
+        <f>Feuil1!$B$15*COS($B45)+Feuil2!P$4</f>
+        <v>119.30556257495533</v>
       </c>
       <c r="H45">
-        <f>Feuil1!$B$3*SIN($B45)+Feuil2!Q$4</f>
-        <v>196.35073482034304</v>
+        <f>Feuil1!$B$15*SIN($B45)+Feuil2!Q$4</f>
+        <v>199.33760759977366</v>
       </c>
       <c r="I45">
-        <f>IF(A45&lt;=2/10*$U$4,0,IF(A45&lt;=5/10*$U$4,300,IF(A45&lt;=7/10*$U$4,300,IF(A45&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J45">
-        <f>IF(A45&lt;=2/10*$U$4,200,IF(A45&lt;=5/10*$U$4,200,IF(A45&lt;=7/10*$U$4,0,IF(A45&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7833,39 +7943,39 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <f>$A46*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.7017696820872223</v>
       </c>
       <c r="C46">
-        <f>Feuil1!$B$1*COS($B46)+Feuil2!L$4</f>
-        <v>-126.67578734524274</v>
+        <f>Feuil1!$B$13*COS($B46)+Feuil2!L$4</f>
+        <v>-163.14031755962333</v>
       </c>
       <c r="D46">
-        <f>Feuil1!$B$1*SIN($B46)+Feuil2!M$4</f>
-        <v>59.609100819110147</v>
+        <f>Feuil1!$B$13*SIN($B46)+Feuil2!M$4</f>
+        <v>76.768006269182578</v>
       </c>
       <c r="E46">
-        <f>Feuil1!$B$2*COS($B46)+Feuil2!N$4</f>
-        <v>-135.72405786990294</v>
+        <f>Feuil1!$B$14*COS($B46)+Feuil2!N$4</f>
+        <v>-101.15966446570098</v>
       </c>
       <c r="F46">
-        <f>Feuil1!$B$2*SIN($B46)+Feuil2!O$4</f>
-        <v>263.86689373476088</v>
+        <f>Feuil1!$B$14*SIN($B46)+Feuil2!O$4</f>
+        <v>247.60212479697509</v>
       </c>
       <c r="G46">
-        <f>Feuil1!$B$3*COS($B46)+Feuil2!P$4</f>
-        <v>119.0345895067961</v>
+        <f>Feuil1!$B$15*COS($B46)+Feuil2!P$4</f>
+        <v>113.42466178150679</v>
       </c>
       <c r="H46">
-        <f>Feuil1!$B$3*SIN($B46)+Feuil2!Q$4</f>
-        <v>185.15585831301451</v>
+        <f>Feuil1!$B$15*SIN($B46)+Feuil2!Q$4</f>
+        <v>187.79568992071796</v>
       </c>
       <c r="I46">
-        <f>IF(A46&lt;=2/10*$U$4,0,IF(A46&lt;=5/10*$U$4,300,IF(A46&lt;=7/10*$U$4,300,IF(A46&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J46">
-        <f>IF(A46&lt;=2/10*$U$4,200,IF(A46&lt;=5/10*$U$4,200,IF(A46&lt;=7/10*$U$4,0,IF(A46&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7874,39 +7984,39 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <f>$A47*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.7646015351590183</v>
       </c>
       <c r="C47">
-        <f>Feuil1!$B$1*COS($B47)+Feuil2!L$4</f>
-        <v>-130.1687080243552</v>
+        <f>Feuil1!$B$13*COS($B47)+Feuil2!L$4</f>
+        <v>-167.63870040565175</v>
       </c>
       <c r="D47">
-        <f>Feuil1!$B$1*SIN($B47)+Feuil2!M$4</f>
-        <v>51.537437375854886</v>
+        <f>Feuil1!$B$13*SIN($B47)+Feuil2!M$4</f>
+        <v>66.372856849047409</v>
       </c>
       <c r="E47">
-        <f>Feuil1!$B$2*COS($B47)+Feuil2!N$4</f>
-        <v>-139.46647288323771</v>
+        <f>Feuil1!$B$14*COS($B47)+Feuil2!N$4</f>
+        <v>-103.94901112230652</v>
       </c>
       <c r="F47">
-        <f>Feuil1!$B$2*SIN($B47)+Feuil2!O$4</f>
-        <v>255.21868290270166</v>
+        <f>Feuil1!$B$14*SIN($B47)+Feuil2!O$4</f>
+        <v>241.15632499014697</v>
       </c>
       <c r="G47">
-        <f>Feuil1!$B$3*COS($B47)+Feuil2!P$4</f>
-        <v>114.04470282234971</v>
+        <f>Feuil1!$B$15*COS($B47)+Feuil2!P$4</f>
+        <v>108.28008860984255</v>
       </c>
       <c r="H47">
-        <f>Feuil1!$B$3*SIN($B47)+Feuil2!Q$4</f>
-        <v>173.62491053693554</v>
+        <f>Feuil1!$B$15*SIN($B47)+Feuil2!Q$4</f>
+        <v>175.90728276358055</v>
       </c>
       <c r="I47">
-        <f>IF(A47&lt;=2/10*$U$4,0,IF(A47&lt;=5/10*$U$4,300,IF(A47&lt;=7/10*$U$4,300,IF(A47&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J47">
-        <f>IF(A47&lt;=2/10*$U$4,200,IF(A47&lt;=5/10*$U$4,200,IF(A47&lt;=7/10*$U$4,0,IF(A47&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7915,39 +8025,39 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <f>$A48*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.8274333882308142</v>
       </c>
       <c r="C48">
-        <f>Feuil1!$B$1*COS($B48)+Feuil2!L$4</f>
-        <v>-133.14791228132151</v>
+        <f>Feuil1!$B$13*COS($B48)+Feuil2!L$4</f>
+        <v>-171.4754898880162</v>
       </c>
       <c r="D48">
-        <f>Feuil1!$B$1*SIN($B48)+Feuil2!M$4</f>
-        <v>43.262379212492597</v>
+        <f>Feuil1!$B$13*SIN($B48)+Feuil2!M$4</f>
+        <v>55.715764085802967</v>
       </c>
       <c r="E48">
-        <f>Feuil1!$B$2*COS($B48)+Feuil2!N$4</f>
-        <v>-142.65847744427305</v>
+        <f>Feuil1!$B$14*COS($B48)+Feuil2!N$4</f>
+        <v>-106.32811852179817</v>
       </c>
       <c r="F48">
-        <f>Feuil1!$B$2*SIN($B48)+Feuil2!O$4</f>
-        <v>246.35254915624208</v>
+        <f>Feuil1!$B$14*SIN($B48)+Feuil2!O$4</f>
+        <v>234.54809997111909</v>
       </c>
       <c r="G48">
-        <f>Feuil1!$B$3*COS($B48)+Feuil2!P$4</f>
-        <v>109.78869674096927</v>
+        <f>Feuil1!$B$15*COS($B48)+Feuil2!P$4</f>
+        <v>103.89214633993933</v>
       </c>
       <c r="H48">
-        <f>Feuil1!$B$3*SIN($B48)+Feuil2!Q$4</f>
-        <v>161.80339887498943</v>
+        <f>Feuil1!$B$15*SIN($B48)+Feuil2!Q$4</f>
+        <v>163.7193042401141</v>
       </c>
       <c r="I48">
-        <f>IF(A48&lt;=2/10*$U$4,0,IF(A48&lt;=5/10*$U$4,300,IF(A48&lt;=7/10*$U$4,300,IF(A48&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J48">
-        <f>IF(A48&lt;=2/10*$U$4,200,IF(A48&lt;=5/10*$U$4,200,IF(A48&lt;=7/10*$U$4,0,IF(A48&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7956,39 +8066,39 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <f>$A49*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.8902652413026098</v>
       </c>
       <c r="C49">
-        <f>Feuil1!$B$1*COS($B49)+Feuil2!L$4</f>
-        <v>-135.60164255800834</v>
+        <f>Feuil1!$B$13*COS($B49)+Feuil2!L$4</f>
+        <v>-174.6355439514922</v>
       </c>
       <c r="D49">
-        <f>Feuil1!$B$1*SIN($B49)+Feuil2!M$4</f>
-        <v>34.816584203079678</v>
+        <f>Feuil1!$B$13*SIN($B49)+Feuil2!M$4</f>
+        <v>44.838786655823327</v>
       </c>
       <c r="E49">
-        <f>Feuil1!$B$2*COS($B49)+Feuil2!N$4</f>
-        <v>-145.28747416929465</v>
+        <f>Feuil1!$B$14*COS($B49)+Feuil2!N$4</f>
+        <v>-108.28759741418095</v>
       </c>
       <c r="F49">
-        <f>Feuil1!$B$2*SIN($B49)+Feuil2!O$4</f>
-        <v>237.30348307472821</v>
+        <f>Feuil1!$B$14*SIN($B49)+Feuil2!O$4</f>
+        <v>227.80352938503077</v>
       </c>
       <c r="G49">
-        <f>Feuil1!$B$3*COS($B49)+Feuil2!P$4</f>
-        <v>106.28336777427378</v>
+        <f>Feuil1!$B$15*COS($B49)+Feuil2!P$4</f>
+        <v>100.27815217527629</v>
       </c>
       <c r="H49">
-        <f>Feuil1!$B$3*SIN($B49)+Feuil2!Q$4</f>
-        <v>149.73797743297098</v>
+        <f>Feuil1!$B$15*SIN($B49)+Feuil2!Q$4</f>
+        <v>151.27985473339305</v>
       </c>
       <c r="I49">
-        <f>IF(A49&lt;=2/10*$U$4,0,IF(A49&lt;=5/10*$U$4,300,IF(A49&lt;=7/10*$U$4,300,IF(A49&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J49">
-        <f>IF(A49&lt;=2/10*$U$4,200,IF(A49&lt;=5/10*$U$4,200,IF(A49&lt;=7/10*$U$4,0,IF(A49&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -7997,39 +8107,39 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <f>$A50*$T$4</f>
+        <f t="shared" si="3"/>
         <v>2.9530970943744057</v>
       </c>
       <c r="C50">
-        <f>Feuil1!$B$1*COS($B50)+Feuil2!L$4</f>
-        <v>-137.52021510201641</v>
+        <f>Feuil1!$B$13*COS($B50)+Feuil2!L$4</f>
+        <v>-177.10639130638259</v>
       </c>
       <c r="D50">
-        <f>Feuil1!$B$1*SIN($B50)+Feuil2!M$4</f>
-        <v>26.23338404200144</v>
+        <f>Feuil1!$B$13*SIN($B50)+Feuil2!M$4</f>
+        <v>33.78485101980614</v>
       </c>
       <c r="E50">
-        <f>Feuil1!$B$2*COS($B50)+Feuil2!N$4</f>
-        <v>-147.3430876093033</v>
+        <f>Feuil1!$B$14*COS($B50)+Feuil2!N$4</f>
+        <v>-109.81971463146739</v>
       </c>
       <c r="F50">
-        <f>Feuil1!$B$2*SIN($B50)+Feuil2!O$4</f>
-        <v>228.10719718785867</v>
+        <f>Feuil1!$B$14*SIN($B50)+Feuil2!O$4</f>
+        <v>220.949230970684</v>
       </c>
       <c r="G50">
-        <f>Feuil1!$B$3*COS($B50)+Feuil2!P$4</f>
-        <v>103.54254985426226</v>
+        <f>Feuil1!$B$15*COS($B50)+Feuil2!P$4</f>
+        <v>97.452368899744386</v>
       </c>
       <c r="H50">
-        <f>Feuil1!$B$3*SIN($B50)+Feuil2!Q$4</f>
-        <v>137.47626291714491</v>
+        <f>Feuil1!$B$15*SIN($B50)+Feuil2!Q$4</f>
+        <v>138.63802706757639</v>
       </c>
       <c r="I50">
-        <f>IF(A50&lt;=2/10*$U$4,0,IF(A50&lt;=5/10*$U$4,300,IF(A50&lt;=7/10*$U$4,300,IF(A50&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J50">
-        <f>IF(A50&lt;=2/10*$U$4,200,IF(A50&lt;=5/10*$U$4,200,IF(A50&lt;=7/10*$U$4,0,IF(A50&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -8038,39 +8148,39 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <f>$A51*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.0159289474462017</v>
       </c>
       <c r="C51">
-        <f>Feuil1!$B$1*COS($B51)+Feuil2!L$4</f>
-        <v>-138.89605818402691</v>
+        <f>Feuil1!$B$13*COS($B51)+Feuil2!L$4</f>
+        <v>-178.87828064700037</v>
       </c>
       <c r="D51">
-        <f>Feuil1!$B$1*SIN($B51)+Feuil2!M$4</f>
-        <v>17.546652699002571</v>
+        <f>Feuil1!$B$13*SIN($B51)+Feuil2!M$4</f>
+        <v>22.597582011644029</v>
       </c>
       <c r="E51">
-        <f>Feuil1!$B$2*COS($B51)+Feuil2!N$4</f>
-        <v>-148.81720519717169</v>
+        <f>Feuil1!$B$14*COS($B51)+Feuil2!N$4</f>
+        <v>-110.91842360695863</v>
       </c>
       <c r="F51">
-        <f>Feuil1!$B$2*SIN($B51)+Feuil2!O$4</f>
-        <v>218.7999850346456</v>
+        <f>Feuil1!$B$14*SIN($B51)+Feuil2!O$4</f>
+        <v>214.01225551248919</v>
       </c>
       <c r="G51">
-        <f>Feuil1!$B$3*COS($B51)+Feuil2!P$4</f>
-        <v>101.57705973710443</v>
+        <f>Feuil1!$B$15*COS($B51)+Feuil2!P$4</f>
+        <v>95.425948588954668</v>
       </c>
       <c r="H51">
-        <f>Feuil1!$B$3*SIN($B51)+Feuil2!Q$4</f>
-        <v>125.06664671286082</v>
+        <f>Feuil1!$B$15*SIN($B51)+Feuil2!Q$4</f>
+        <v>125.84371276095951</v>
       </c>
       <c r="I51">
-        <f>IF(A51&lt;=2/10*$U$4,0,IF(A51&lt;=5/10*$U$4,300,IF(A51&lt;=7/10*$U$4,300,IF(A51&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J51">
-        <f>IF(A51&lt;=2/10*$U$4,200,IF(A51&lt;=5/10*$U$4,200,IF(A51&lt;=7/10*$U$4,0,IF(A51&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -8079,39 +8189,39 @@
         <v>49</v>
       </c>
       <c r="B52">
-        <f>$A52*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.0787608005179976</v>
       </c>
       <c r="C52">
-        <f>Feuil1!$B$1*COS($B52)+Feuil2!L$4</f>
-        <v>-139.72374197995802</v>
+        <f>Feuil1!$B$13*COS($B52)+Feuil2!L$4</f>
+        <v>-179.94421913561737</v>
       </c>
       <c r="D52">
-        <f>Feuil1!$B$1*SIN($B52)+Feuil2!M$4</f>
-        <v>8.7906727341038398</v>
+        <f>Feuil1!$B$13*SIN($B52)+Feuil2!M$4</f>
+        <v>11.32113067113516</v>
       </c>
       <c r="E52">
-        <f>Feuil1!$B$2*COS($B52)+Feuil2!N$4</f>
-        <v>-149.70400926424074</v>
+        <f>Feuil1!$B$14*COS($B52)+Feuil2!N$4</f>
+        <v>-111.57938823828076</v>
       </c>
       <c r="F52">
-        <f>Feuil1!$B$2*SIN($B52)+Feuil2!O$4</f>
-        <v>209.41857792939697</v>
+        <f>Feuil1!$B$14*SIN($B52)+Feuil2!O$4</f>
+        <v>207.01998008337722</v>
       </c>
       <c r="G52">
-        <f>Feuil1!$B$3*COS($B52)+Feuil2!P$4</f>
-        <v>100.3946543143457</v>
+        <f>Feuil1!$B$15*COS($B52)+Feuil2!P$4</f>
+        <v>94.206888598090416</v>
       </c>
       <c r="H52">
-        <f>Feuil1!$B$3*SIN($B52)+Feuil2!Q$4</f>
-        <v>112.55810390586262</v>
+        <f>Feuil1!$B$15*SIN($B52)+Feuil2!Q$4</f>
+        <v>112.94740512694437</v>
       </c>
       <c r="I52">
-        <f>IF(A52&lt;=2/10*$U$4,0,IF(A52&lt;=5/10*$U$4,300,IF(A52&lt;=7/10*$U$4,300,IF(A52&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J52">
-        <f>IF(A52&lt;=2/10*$U$4,200,IF(A52&lt;=5/10*$U$4,200,IF(A52&lt;=7/10*$U$4,0,IF(A52&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -8120,39 +8230,39 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <f>$A53*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.1415926535897936</v>
       </c>
       <c r="C53">
-        <f>Feuil1!$B$1*COS($B53)+Feuil2!L$4</f>
-        <v>-140</v>
+        <f>Feuil1!$B$13*COS($B53)+Feuil2!L$4</f>
+        <v>-180.3</v>
       </c>
       <c r="D53">
-        <f>Feuil1!$B$1*SIN($B53)+Feuil2!M$4</f>
-        <v>-4.5020411010288086E-14</v>
+        <f>Feuil1!$B$13*SIN($B53)+Feuil2!M$4</f>
+        <v>-5.7979857893963876E-14</v>
       </c>
       <c r="E53">
-        <f>Feuil1!$B$2*COS($B53)+Feuil2!N$4</f>
-        <v>-150</v>
+        <f>Feuil1!$B$14*COS($B53)+Feuil2!N$4</f>
+        <v>-111.8</v>
       </c>
       <c r="F53">
-        <f>Feuil1!$B$2*SIN($B53)+Feuil2!O$4</f>
-        <v>199.99999999999994</v>
+        <f>Feuil1!$B$14*SIN($B53)+Feuil2!O$4</f>
+        <v>199.99999999999997</v>
       </c>
       <c r="G53">
-        <f>Feuil1!$B$3*COS($B53)+Feuil2!P$4</f>
-        <v>100</v>
+        <f>Feuil1!$B$15*COS($B53)+Feuil2!P$4</f>
+        <v>93.800000000000011</v>
       </c>
       <c r="H53">
-        <f>Feuil1!$B$3*SIN($B53)+Feuil2!Q$4</f>
+        <f>Feuil1!$B$15*SIN($B53)+Feuil2!Q$4</f>
         <v>99.999999999999929</v>
       </c>
       <c r="I53">
-        <f>IF(A53&lt;=2/10*$U$4,0,IF(A53&lt;=5/10*$U$4,300,IF(A53&lt;=7/10*$U$4,300,IF(A53&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J53">
-        <f>IF(A53&lt;=2/10*$U$4,200,IF(A53&lt;=5/10*$U$4,200,IF(A53&lt;=7/10*$U$4,0,IF(A53&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -8161,39 +8271,39 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <f>$A54*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.2044245066615891</v>
       </c>
       <c r="C54">
-        <f>Feuil1!$B$1*COS($B54)+Feuil2!L$4</f>
-        <v>-139.72374197995802</v>
+        <f>Feuil1!$B$13*COS($B54)+Feuil2!L$4</f>
+        <v>-179.94421913561737</v>
       </c>
       <c r="D54">
-        <f>Feuil1!$B$1*SIN($B54)+Feuil2!M$4</f>
-        <v>-8.7906727341038682</v>
+        <f>Feuil1!$B$13*SIN($B54)+Feuil2!M$4</f>
+        <v>-11.321130671135197</v>
       </c>
       <c r="E54">
-        <f>Feuil1!$B$2*COS($B54)+Feuil2!N$4</f>
-        <v>-149.70400926424074</v>
+        <f>Feuil1!$B$14*COS($B54)+Feuil2!N$4</f>
+        <v>-111.57938823828076</v>
       </c>
       <c r="F54">
-        <f>Feuil1!$B$2*SIN($B54)+Feuil2!O$4</f>
-        <v>190.581422070603</v>
+        <f>Feuil1!$B$14*SIN($B54)+Feuil2!O$4</f>
+        <v>192.98001991662278</v>
       </c>
       <c r="G54">
-        <f>Feuil1!$B$3*COS($B54)+Feuil2!P$4</f>
-        <v>100.3946543143457</v>
+        <f>Feuil1!$B$15*COS($B54)+Feuil2!P$4</f>
+        <v>94.206888598090416</v>
       </c>
       <c r="H54">
-        <f>Feuil1!$B$3*SIN($B54)+Feuil2!Q$4</f>
-        <v>87.441896094137334</v>
+        <f>Feuil1!$B$15*SIN($B54)+Feuil2!Q$4</f>
+        <v>87.052594873055597</v>
       </c>
       <c r="I54">
-        <f>IF(A54&lt;=2/10*$U$4,0,IF(A54&lt;=5/10*$U$4,300,IF(A54&lt;=7/10*$U$4,300,IF(A54&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J54">
-        <f>IF(A54&lt;=2/10*$U$4,200,IF(A54&lt;=5/10*$U$4,200,IF(A54&lt;=7/10*$U$4,0,IF(A54&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8202,39 +8312,39 @@
         <v>52</v>
       </c>
       <c r="B55">
-        <f>$A55*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.267256359733385</v>
       </c>
       <c r="C55">
-        <f>Feuil1!$B$1*COS($B55)+Feuil2!L$4</f>
-        <v>-138.89605818402691</v>
+        <f>Feuil1!$B$13*COS($B55)+Feuil2!L$4</f>
+        <v>-178.87828064700037</v>
       </c>
       <c r="D55">
-        <f>Feuil1!$B$1*SIN($B55)+Feuil2!M$4</f>
-        <v>-17.5466526990026</v>
+        <f>Feuil1!$B$13*SIN($B55)+Feuil2!M$4</f>
+        <v>-22.597582011644064</v>
       </c>
       <c r="E55">
-        <f>Feuil1!$B$2*COS($B55)+Feuil2!N$4</f>
-        <v>-148.81720519717169</v>
+        <f>Feuil1!$B$14*COS($B55)+Feuil2!N$4</f>
+        <v>-110.91842360695863</v>
       </c>
       <c r="F55">
-        <f>Feuil1!$B$2*SIN($B55)+Feuil2!O$4</f>
-        <v>181.20001496535434</v>
+        <f>Feuil1!$B$14*SIN($B55)+Feuil2!O$4</f>
+        <v>185.98774448751078</v>
       </c>
       <c r="G55">
-        <f>Feuil1!$B$3*COS($B55)+Feuil2!P$4</f>
-        <v>101.57705973710443</v>
+        <f>Feuil1!$B$15*COS($B55)+Feuil2!P$4</f>
+        <v>95.425948588954668</v>
       </c>
       <c r="H55">
-        <f>Feuil1!$B$3*SIN($B55)+Feuil2!Q$4</f>
-        <v>74.933353287139141</v>
+        <f>Feuil1!$B$15*SIN($B55)+Feuil2!Q$4</f>
+        <v>74.156287239040466</v>
       </c>
       <c r="I55">
-        <f>IF(A55&lt;=2/10*$U$4,0,IF(A55&lt;=5/10*$U$4,300,IF(A55&lt;=7/10*$U$4,300,IF(A55&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J55">
-        <f>IF(A55&lt;=2/10*$U$4,200,IF(A55&lt;=5/10*$U$4,200,IF(A55&lt;=7/10*$U$4,0,IF(A55&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8243,39 +8353,39 @@
         <v>53</v>
       </c>
       <c r="B56">
-        <f>$A56*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.330088212805181</v>
       </c>
       <c r="C56">
-        <f>Feuil1!$B$1*COS($B56)+Feuil2!L$4</f>
-        <v>-137.52021510201641</v>
+        <f>Feuil1!$B$13*COS($B56)+Feuil2!L$4</f>
+        <v>-177.10639130638256</v>
       </c>
       <c r="D56">
-        <f>Feuil1!$B$1*SIN($B56)+Feuil2!M$4</f>
-        <v>-26.233384042001468</v>
+        <f>Feuil1!$B$13*SIN($B56)+Feuil2!M$4</f>
+        <v>-33.784851019806176</v>
       </c>
       <c r="E56">
-        <f>Feuil1!$B$2*COS($B56)+Feuil2!N$4</f>
-        <v>-147.3430876093033</v>
+        <f>Feuil1!$B$14*COS($B56)+Feuil2!N$4</f>
+        <v>-109.81971463146738</v>
       </c>
       <c r="F56">
-        <f>Feuil1!$B$2*SIN($B56)+Feuil2!O$4</f>
-        <v>171.89280281214127</v>
+        <f>Feuil1!$B$14*SIN($B56)+Feuil2!O$4</f>
+        <v>179.05076902931597</v>
       </c>
       <c r="G56">
-        <f>Feuil1!$B$3*COS($B56)+Feuil2!P$4</f>
-        <v>103.54254985426229</v>
+        <f>Feuil1!$B$15*COS($B56)+Feuil2!P$4</f>
+        <v>97.452368899744414</v>
       </c>
       <c r="H56">
-        <f>Feuil1!$B$3*SIN($B56)+Feuil2!Q$4</f>
-        <v>62.52373708285505</v>
+        <f>Feuil1!$B$15*SIN($B56)+Feuil2!Q$4</f>
+        <v>61.361972932423555</v>
       </c>
       <c r="I56">
-        <f>IF(A56&lt;=2/10*$U$4,0,IF(A56&lt;=5/10*$U$4,300,IF(A56&lt;=7/10*$U$4,300,IF(A56&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J56">
-        <f>IF(A56&lt;=2/10*$U$4,200,IF(A56&lt;=5/10*$U$4,200,IF(A56&lt;=7/10*$U$4,0,IF(A56&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8284,39 +8394,39 @@
         <v>54</v>
       </c>
       <c r="B57">
-        <f>$A57*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.3929200658769769</v>
       </c>
       <c r="C57">
-        <f>Feuil1!$B$1*COS($B57)+Feuil2!L$4</f>
-        <v>-135.60164255800834</v>
+        <f>Feuil1!$B$13*COS($B57)+Feuil2!L$4</f>
+        <v>-174.6355439514922</v>
       </c>
       <c r="D57">
-        <f>Feuil1!$B$1*SIN($B57)+Feuil2!M$4</f>
-        <v>-34.816584203079699</v>
+        <f>Feuil1!$B$13*SIN($B57)+Feuil2!M$4</f>
+        <v>-44.838786655823363</v>
       </c>
       <c r="E57">
-        <f>Feuil1!$B$2*COS($B57)+Feuil2!N$4</f>
-        <v>-145.28747416929465</v>
+        <f>Feuil1!$B$14*COS($B57)+Feuil2!N$4</f>
+        <v>-108.28759741418095</v>
       </c>
       <c r="F57">
-        <f>Feuil1!$B$2*SIN($B57)+Feuil2!O$4</f>
-        <v>162.69651692527174</v>
+        <f>Feuil1!$B$14*SIN($B57)+Feuil2!O$4</f>
+        <v>172.1964706149692</v>
       </c>
       <c r="G57">
-        <f>Feuil1!$B$3*COS($B57)+Feuil2!P$4</f>
-        <v>106.28336777427378</v>
+        <f>Feuil1!$B$15*COS($B57)+Feuil2!P$4</f>
+        <v>100.27815217527629</v>
       </c>
       <c r="H57">
-        <f>Feuil1!$B$3*SIN($B57)+Feuil2!Q$4</f>
-        <v>50.262022567029</v>
+        <f>Feuil1!$B$15*SIN($B57)+Feuil2!Q$4</f>
+        <v>48.720145266606899</v>
       </c>
       <c r="I57">
-        <f>IF(A57&lt;=2/10*$U$4,0,IF(A57&lt;=5/10*$U$4,300,IF(A57&lt;=7/10*$U$4,300,IF(A57&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J57">
-        <f>IF(A57&lt;=2/10*$U$4,200,IF(A57&lt;=5/10*$U$4,200,IF(A57&lt;=7/10*$U$4,0,IF(A57&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8325,39 +8435,39 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <f>$A58*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.4557519189487729</v>
       </c>
       <c r="C58">
-        <f>Feuil1!$B$1*COS($B58)+Feuil2!L$4</f>
-        <v>-133.14791228132148</v>
+        <f>Feuil1!$B$13*COS($B58)+Feuil2!L$4</f>
+        <v>-171.4754898880162</v>
       </c>
       <c r="D58">
-        <f>Feuil1!$B$1*SIN($B58)+Feuil2!M$4</f>
-        <v>-43.262379212492682</v>
+        <f>Feuil1!$B$13*SIN($B58)+Feuil2!M$4</f>
+        <v>-55.71576408580308</v>
       </c>
       <c r="E58">
-        <f>Feuil1!$B$2*COS($B58)+Feuil2!N$4</f>
-        <v>-142.65847744427302</v>
+        <f>Feuil1!$B$14*COS($B58)+Feuil2!N$4</f>
+        <v>-106.32811852179816</v>
       </c>
       <c r="F58">
-        <f>Feuil1!$B$2*SIN($B58)+Feuil2!O$4</f>
-        <v>153.64745084375784</v>
+        <f>Feuil1!$B$14*SIN($B58)+Feuil2!O$4</f>
+        <v>165.45190002888086</v>
       </c>
       <c r="G58">
-        <f>Feuil1!$B$3*COS($B58)+Feuil2!P$4</f>
-        <v>109.7886967409693</v>
+        <f>Feuil1!$B$15*COS($B58)+Feuil2!P$4</f>
+        <v>103.89214633993936</v>
       </c>
       <c r="H58">
-        <f>Feuil1!$B$3*SIN($B58)+Feuil2!Q$4</f>
-        <v>38.196601125010453</v>
+        <f>Feuil1!$B$15*SIN($B58)+Feuil2!Q$4</f>
+        <v>36.280695759885781</v>
       </c>
       <c r="I58">
-        <f>IF(A58&lt;=2/10*$U$4,0,IF(A58&lt;=5/10*$U$4,300,IF(A58&lt;=7/10*$U$4,300,IF(A58&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J58">
-        <f>IF(A58&lt;=2/10*$U$4,200,IF(A58&lt;=5/10*$U$4,200,IF(A58&lt;=7/10*$U$4,0,IF(A58&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8366,39 +8476,39 @@
         <v>56</v>
       </c>
       <c r="B59">
-        <f>$A59*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.5185837720205688</v>
       </c>
       <c r="C59">
-        <f>Feuil1!$B$1*COS($B59)+Feuil2!L$4</f>
-        <v>-130.16870802435517</v>
+        <f>Feuil1!$B$13*COS($B59)+Feuil2!L$4</f>
+        <v>-167.63870040565172</v>
       </c>
       <c r="D59">
-        <f>Feuil1!$B$1*SIN($B59)+Feuil2!M$4</f>
-        <v>-51.537437375854964</v>
+        <f>Feuil1!$B$13*SIN($B59)+Feuil2!M$4</f>
+        <v>-66.372856849047508</v>
       </c>
       <c r="E59">
-        <f>Feuil1!$B$2*COS($B59)+Feuil2!N$4</f>
-        <v>-139.46647288323769</v>
+        <f>Feuil1!$B$14*COS($B59)+Feuil2!N$4</f>
+        <v>-103.94901112230649</v>
       </c>
       <c r="F59">
-        <f>Feuil1!$B$2*SIN($B59)+Feuil2!O$4</f>
-        <v>144.78131709729826</v>
+        <f>Feuil1!$B$14*SIN($B59)+Feuil2!O$4</f>
+        <v>158.84367500985297</v>
       </c>
       <c r="G59">
-        <f>Feuil1!$B$3*COS($B59)+Feuil2!P$4</f>
-        <v>114.04470282234976</v>
+        <f>Feuil1!$B$15*COS($B59)+Feuil2!P$4</f>
+        <v>108.28008860984261</v>
       </c>
       <c r="H59">
-        <f>Feuil1!$B$3*SIN($B59)+Feuil2!Q$4</f>
-        <v>26.375089463064342</v>
+        <f>Feuil1!$B$15*SIN($B59)+Feuil2!Q$4</f>
+        <v>24.092717236419332</v>
       </c>
       <c r="I59">
-        <f>IF(A59&lt;=2/10*$U$4,0,IF(A59&lt;=5/10*$U$4,300,IF(A59&lt;=7/10*$U$4,300,IF(A59&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J59">
-        <f>IF(A59&lt;=2/10*$U$4,200,IF(A59&lt;=5/10*$U$4,200,IF(A59&lt;=7/10*$U$4,0,IF(A59&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8407,39 +8517,39 @@
         <v>57</v>
       </c>
       <c r="B60">
-        <f>$A60*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.5814156250923643</v>
       </c>
       <c r="C60">
-        <f>Feuil1!$B$1*COS($B60)+Feuil2!L$4</f>
-        <v>-126.67578734524272</v>
+        <f>Feuil1!$B$13*COS($B60)+Feuil2!L$4</f>
+        <v>-163.14031755962333</v>
       </c>
       <c r="D60">
-        <f>Feuil1!$B$1*SIN($B60)+Feuil2!M$4</f>
-        <v>-59.609100819110175</v>
+        <f>Feuil1!$B$13*SIN($B60)+Feuil2!M$4</f>
+        <v>-76.768006269182607</v>
       </c>
       <c r="E60">
-        <f>Feuil1!$B$2*COS($B60)+Feuil2!N$4</f>
-        <v>-135.72405786990291</v>
+        <f>Feuil1!$B$14*COS($B60)+Feuil2!N$4</f>
+        <v>-101.15966446570097</v>
       </c>
       <c r="F60">
-        <f>Feuil1!$B$2*SIN($B60)+Feuil2!O$4</f>
-        <v>136.13310626523909</v>
+        <f>Feuil1!$B$14*SIN($B60)+Feuil2!O$4</f>
+        <v>152.39787520302488</v>
       </c>
       <c r="G60">
-        <f>Feuil1!$B$3*COS($B60)+Feuil2!P$4</f>
-        <v>119.0345895067961</v>
+        <f>Feuil1!$B$15*COS($B60)+Feuil2!P$4</f>
+        <v>113.42466178150679</v>
       </c>
       <c r="H60">
-        <f>Feuil1!$B$3*SIN($B60)+Feuil2!Q$4</f>
-        <v>14.844141686985466</v>
+        <f>Feuil1!$B$15*SIN($B60)+Feuil2!Q$4</f>
+        <v>12.204310079282024</v>
       </c>
       <c r="I60">
-        <f>IF(A60&lt;=2/10*$U$4,0,IF(A60&lt;=5/10*$U$4,300,IF(A60&lt;=7/10*$U$4,300,IF(A60&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J60">
-        <f>IF(A60&lt;=2/10*$U$4,200,IF(A60&lt;=5/10*$U$4,200,IF(A60&lt;=7/10*$U$4,0,IF(A60&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8448,39 +8558,39 @@
         <v>58</v>
       </c>
       <c r="B61">
-        <f>$A61*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.6442474781641603</v>
       </c>
       <c r="C61">
-        <f>Feuil1!$B$1*COS($B61)+Feuil2!L$4</f>
-        <v>-122.68293520614088</v>
+        <f>Feuil1!$B$13*COS($B61)+Feuil2!L$4</f>
+        <v>-157.9980944119086</v>
       </c>
       <c r="D61">
-        <f>Feuil1!$B$1*SIN($B61)+Feuil2!M$4</f>
-        <v>-67.445514374240148</v>
+        <f>Feuil1!$B$13*SIN($B61)+Feuil2!M$4</f>
+        <v>-86.860187440539292</v>
       </c>
       <c r="E61">
-        <f>Feuil1!$B$2*COS($B61)+Feuil2!N$4</f>
-        <v>-131.44600200657953</v>
+        <f>Feuil1!$B$14*COS($B61)+Feuil2!N$4</f>
+        <v>-97.971086828903935</v>
       </c>
       <c r="F61">
-        <f>Feuil1!$B$2*SIN($B61)+Feuil2!O$4</f>
-        <v>127.73694888474269</v>
+        <f>Feuil1!$B$14*SIN($B61)+Feuil2!O$4</f>
+        <v>146.13993923542822</v>
       </c>
       <c r="G61">
-        <f>Feuil1!$B$3*COS($B61)+Feuil2!P$4</f>
-        <v>124.7386639912273</v>
+        <f>Feuil1!$B$15*COS($B61)+Feuil2!P$4</f>
+        <v>119.30556257495536</v>
       </c>
       <c r="H61">
-        <f>Feuil1!$B$3*SIN($B61)+Feuil2!Q$4</f>
-        <v>3.649265179656922</v>
+        <f>Feuil1!$B$15*SIN($B61)+Feuil2!Q$4</f>
+        <v>0.66239240022629531</v>
       </c>
       <c r="I61">
-        <f>IF(A61&lt;=2/10*$U$4,0,IF(A61&lt;=5/10*$U$4,300,IF(A61&lt;=7/10*$U$4,300,IF(A61&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J61">
-        <f>IF(A61&lt;=2/10*$U$4,200,IF(A61&lt;=5/10*$U$4,200,IF(A61&lt;=7/10*$U$4,0,IF(A61&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8489,39 +8599,39 @@
         <v>59</v>
       </c>
       <c r="B62">
-        <f>$A62*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.7070793312359562</v>
       </c>
       <c r="C62">
-        <f>Feuil1!$B$1*COS($B62)+Feuil2!L$4</f>
-        <v>-118.20590957028209</v>
+        <f>Feuil1!$B$13*COS($B62)+Feuil2!L$4</f>
+        <v>-152.2323249680133</v>
       </c>
       <c r="D62">
-        <f>Feuil1!$B$1*SIN($B62)+Feuil2!M$4</f>
-        <v>-75.015751297059552</v>
+        <f>Feuil1!$B$13*SIN($B62)+Feuil2!M$4</f>
+        <v>-96.609571134713121</v>
       </c>
       <c r="E62">
-        <f>Feuil1!$B$2*COS($B62)+Feuil2!N$4</f>
-        <v>-126.64918882530225</v>
+        <f>Feuil1!$B$14*COS($B62)+Feuil2!N$4</f>
+        <v>-94.395862071125265</v>
       </c>
       <c r="F62">
-        <f>Feuil1!$B$2*SIN($B62)+Feuil2!O$4</f>
-        <v>119.62598075315049</v>
+        <f>Feuil1!$B$14*SIN($B62)+Feuil2!O$4</f>
+        <v>140.09456432134817</v>
       </c>
       <c r="G62">
-        <f>Feuil1!$B$3*COS($B62)+Feuil2!P$4</f>
-        <v>131.134414899597</v>
+        <f>Feuil1!$B$15*COS($B62)+Feuil2!P$4</f>
+        <v>125.89958176148451</v>
       </c>
       <c r="H62">
-        <f>Feuil1!$B$3*SIN($B62)+Feuil2!Q$4</f>
-        <v>-7.1653589957993518</v>
+        <f>Feuil1!$B$15*SIN($B62)+Feuil2!Q$4</f>
+        <v>-10.487485124669121</v>
       </c>
       <c r="I62">
-        <f>IF(A62&lt;=2/10*$U$4,0,IF(A62&lt;=5/10*$U$4,300,IF(A62&lt;=7/10*$U$4,300,IF(A62&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J62">
-        <f>IF(A62&lt;=2/10*$U$4,200,IF(A62&lt;=5/10*$U$4,200,IF(A62&lt;=7/10*$U$4,0,IF(A62&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8530,39 +8640,39 @@
         <v>60</v>
       </c>
       <c r="B63">
-        <f>$A63*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.7699111843077522</v>
       </c>
       <c r="C63">
-        <f>Feuil1!$B$1*COS($B63)+Feuil2!L$4</f>
-        <v>-113.26237921249262</v>
+        <f>Feuil1!$B$13*COS($B63)+Feuil2!L$4</f>
+        <v>-145.86576408580299</v>
       </c>
       <c r="D63">
-        <f>Feuil1!$B$1*SIN($B63)+Feuil2!M$4</f>
-        <v>-82.28993532094627</v>
+        <f>Feuil1!$B$13*SIN($B63)+Feuil2!M$4</f>
+        <v>-105.97768098833295</v>
       </c>
       <c r="E63">
-        <f>Feuil1!$B$2*COS($B63)+Feuil2!N$4</f>
-        <v>-121.35254915624209</v>
+        <f>Feuil1!$B$14*COS($B63)+Feuil2!N$4</f>
+        <v>-90.448099971119092</v>
       </c>
       <c r="F63">
-        <f>Feuil1!$B$2*SIN($B63)+Feuil2!O$4</f>
-        <v>111.832212156129</v>
+        <f>Feuil1!$B$14*SIN($B63)+Feuil2!O$4</f>
+        <v>134.2856087937015</v>
       </c>
       <c r="G63">
-        <f>Feuil1!$B$3*COS($B63)+Feuil2!P$4</f>
-        <v>138.19660112501055</v>
+        <f>Feuil1!$B$15*COS($B63)+Feuil2!P$4</f>
+        <v>133.18069575988588</v>
       </c>
       <c r="H63">
-        <f>Feuil1!$B$3*SIN($B63)+Feuil2!Q$4</f>
-        <v>-17.557050458494672</v>
+        <f>Feuil1!$B$15*SIN($B63)+Feuil2!Q$4</f>
+        <v>-21.201319022708006</v>
       </c>
       <c r="I63">
-        <f>IF(A63&lt;=2/10*$U$4,0,IF(A63&lt;=5/10*$U$4,300,IF(A63&lt;=7/10*$U$4,300,IF(A63&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J63">
-        <f>IF(A63&lt;=2/10*$U$4,200,IF(A63&lt;=5/10*$U$4,200,IF(A63&lt;=7/10*$U$4,0,IF(A63&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8571,39 +8681,39 @@
         <v>61</v>
       </c>
       <c r="B64">
-        <f>$A64*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.8327430373795481</v>
       </c>
       <c r="C64">
-        <f>Feuil1!$B$1*COS($B64)+Feuil2!L$4</f>
-        <v>-107.87185398861047</v>
+        <f>Feuil1!$B$13*COS($B64)+Feuil2!L$4</f>
+        <v>-138.92353767247477</v>
       </c>
       <c r="D64">
-        <f>Feuil1!$B$1*SIN($B64)+Feuil2!M$4</f>
-        <v>-89.239358564816598</v>
+        <f>Feuil1!$B$13*SIN($B64)+Feuil2!M$4</f>
+        <v>-114.92754535168881</v>
       </c>
       <c r="E64">
-        <f>Feuil1!$B$2*COS($B64)+Feuil2!N$4</f>
-        <v>-115.57698641636836</v>
+        <f>Feuil1!$B$14*COS($B64)+Feuil2!N$4</f>
+        <v>-86.143380542333205</v>
       </c>
       <c r="F64">
-        <f>Feuil1!$B$2*SIN($B64)+Feuil2!O$4</f>
-        <v>104.3864015376965</v>
+        <f>Feuil1!$B$14*SIN($B64)+Feuil2!O$4</f>
+        <v>128.73599794609646</v>
       </c>
       <c r="G64">
-        <f>Feuil1!$B$3*COS($B64)+Feuil2!P$4</f>
-        <v>145.8973514448422</v>
+        <f>Feuil1!$B$15*COS($B64)+Feuil2!P$4</f>
+        <v>141.1201693396323</v>
       </c>
       <c r="H64">
-        <f>Feuil1!$B$3*SIN($B64)+Feuil2!Q$4</f>
-        <v>-27.484797949737995</v>
+        <f>Feuil1!$B$15*SIN($B64)+Feuil2!Q$4</f>
+        <v>-31.43682668617987</v>
       </c>
       <c r="I64">
-        <f>IF(A64&lt;=2/10*$U$4,0,IF(A64&lt;=5/10*$U$4,300,IF(A64&lt;=7/10*$U$4,300,IF(A64&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J64">
-        <f>IF(A64&lt;=2/10*$U$4,200,IF(A64&lt;=5/10*$U$4,200,IF(A64&lt;=7/10*$U$4,0,IF(A64&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8612,39 +8722,39 @@
         <v>62</v>
       </c>
       <c r="B65">
-        <f>$A65*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.8955748904513436</v>
       </c>
       <c r="C65">
-        <f>Feuil1!$B$1*COS($B65)+Feuil2!L$4</f>
-        <v>-102.05560783899762</v>
+        <f>Feuil1!$B$13*COS($B65)+Feuil2!L$4</f>
+        <v>-131.43304352408052</v>
       </c>
       <c r="D65">
-        <f>Feuil1!$B$1*SIN($B65)+Feuil2!M$4</f>
-        <v>-95.836594830016423</v>
+        <f>Feuil1!$B$13*SIN($B65)+Feuil2!M$4</f>
+        <v>-123.42384319894259</v>
       </c>
       <c r="E65">
-        <f>Feuil1!$B$2*COS($B65)+Feuil2!N$4</f>
-        <v>-109.34529411321174</v>
+        <f>Feuil1!$B$14*COS($B65)+Feuil2!N$4</f>
+        <v>-81.498692545713808</v>
       </c>
       <c r="F65">
-        <f>Feuil1!$B$2*SIN($B65)+Feuil2!O$4</f>
-        <v>97.317934110696697</v>
+        <f>Feuil1!$B$14*SIN($B65)+Feuil2!O$4</f>
+        <v>123.4676335571726</v>
       </c>
       <c r="G65">
-        <f>Feuil1!$B$3*COS($B65)+Feuil2!P$4</f>
-        <v>154.20627451571769</v>
+        <f>Feuil1!$B$15*COS($B65)+Feuil2!P$4</f>
+        <v>149.68666902570496</v>
       </c>
       <c r="H65">
-        <f>Feuil1!$B$3*SIN($B65)+Feuil2!Q$4</f>
-        <v>-36.909421185737756</v>
+        <f>Feuil1!$B$15*SIN($B65)+Feuil2!Q$4</f>
+        <v>-41.153613242495595</v>
       </c>
       <c r="I65">
-        <f>IF(A65&lt;=2/10*$U$4,0,IF(A65&lt;=5/10*$U$4,300,IF(A65&lt;=7/10*$U$4,300,IF(A65&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J65">
-        <f>IF(A65&lt;=2/10*$U$4,200,IF(A65&lt;=5/10*$U$4,200,IF(A65&lt;=7/10*$U$4,0,IF(A65&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8653,39 +8763,39 @@
         <v>63</v>
       </c>
       <c r="B66">
-        <f>$A66*$T$4</f>
+        <f t="shared" si="3"/>
         <v>3.9584067435231396</v>
       </c>
       <c r="C66">
-        <f>Feuil1!$B$1*COS($B66)+Feuil2!L$4</f>
-        <v>-95.836594830016409</v>
+        <f>Feuil1!$B$13*COS($B66)+Feuil2!L$4</f>
+        <v>-123.42384319894256</v>
       </c>
       <c r="D66">
-        <f>Feuil1!$B$1*SIN($B66)+Feuil2!M$4</f>
-        <v>-102.05560783899762</v>
+        <f>Feuil1!$B$13*SIN($B66)+Feuil2!M$4</f>
+        <v>-131.43304352408052</v>
       </c>
       <c r="E66">
-        <f>Feuil1!$B$2*COS($B66)+Feuil2!N$4</f>
-        <v>-102.68206588930329</v>
+        <f>Feuil1!$B$14*COS($B66)+Feuil2!N$4</f>
+        <v>-76.532366442827382</v>
       </c>
       <c r="F66">
-        <f>Feuil1!$B$2*SIN($B66)+Feuil2!O$4</f>
-        <v>90.654705886788264</v>
+        <f>Feuil1!$B$14*SIN($B66)+Feuil2!O$4</f>
+        <v>118.50130745428619</v>
       </c>
       <c r="G66">
-        <f>Feuil1!$B$3*COS($B66)+Feuil2!P$4</f>
-        <v>163.09057881426227</v>
+        <f>Feuil1!$B$15*COS($B66)+Feuil2!P$4</f>
+        <v>158.8463867575044</v>
       </c>
       <c r="H66">
-        <f>Feuil1!$B$3*SIN($B66)+Feuil2!Q$4</f>
-        <v>-45.793725484282305</v>
+        <f>Feuil1!$B$15*SIN($B66)+Feuil2!Q$4</f>
+        <v>-50.313330974295042</v>
       </c>
       <c r="I66">
-        <f>IF(A66&lt;=2/10*$U$4,0,IF(A66&lt;=5/10*$U$4,300,IF(A66&lt;=7/10*$U$4,300,IF(A66&lt;=$U$4,0))))</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J66">
-        <f>IF(A66&lt;=2/10*$U$4,200,IF(A66&lt;=5/10*$U$4,200,IF(A66&lt;=7/10*$U$4,0,IF(A66&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8694,39 +8804,39 @@
         <v>64</v>
       </c>
       <c r="B67">
-        <f>$A67*$T$4</f>
+        <f t="shared" ref="B67:B103" si="6">$A67*$T$4</f>
         <v>4.0212385965949355</v>
       </c>
       <c r="C67">
-        <f>Feuil1!$B$1*COS($B67)+Feuil2!L$4</f>
-        <v>-89.239358564816527</v>
+        <f>Feuil1!$B$13*COS($B67)+Feuil2!L$4</f>
+        <v>-114.92754535168874</v>
       </c>
       <c r="D67">
-        <f>Feuil1!$B$1*SIN($B67)+Feuil2!M$4</f>
-        <v>-107.87185398861051</v>
+        <f>Feuil1!$B$13*SIN($B67)+Feuil2!M$4</f>
+        <v>-138.92353767247482</v>
       </c>
       <c r="E67">
-        <f>Feuil1!$B$2*COS($B67)+Feuil2!N$4</f>
-        <v>-95.613598462303429</v>
+        <f>Feuil1!$B$14*COS($B67)+Feuil2!N$4</f>
+        <v>-71.264002053903482</v>
       </c>
       <c r="F67">
-        <f>Feuil1!$B$2*SIN($B67)+Feuil2!O$4</f>
-        <v>84.423013583631601</v>
+        <f>Feuil1!$B$14*SIN($B67)+Feuil2!O$4</f>
+        <v>113.85661945766675</v>
       </c>
       <c r="G67">
-        <f>Feuil1!$B$3*COS($B67)+Feuil2!P$4</f>
-        <v>172.51520205026208</v>
+        <f>Feuil1!$B$15*COS($B67)+Feuil2!P$4</f>
+        <v>168.56317331382022</v>
       </c>
       <c r="H67">
-        <f>Feuil1!$B$3*SIN($B67)+Feuil2!Q$4</f>
-        <v>-54.102648555157884</v>
+        <f>Feuil1!$B$15*SIN($B67)+Feuil2!Q$4</f>
+        <v>-58.879830660367759</v>
       </c>
       <c r="I67">
-        <f>IF(A67&lt;=2/10*$U$4,0,IF(A67&lt;=5/10*$U$4,300,IF(A67&lt;=7/10*$U$4,300,IF(A67&lt;=$U$4,0))))</f>
+        <f t="shared" ref="I67:I103" si="7">IF(A67&lt;=2/10*$U$4,0,IF(A67&lt;=5/10*$U$4,300,IF(A67&lt;=7/10*$U$4,300,IF(A67&lt;=$U$4,0))))</f>
         <v>300</v>
       </c>
       <c r="J67">
-        <f>IF(A67&lt;=2/10*$U$4,200,IF(A67&lt;=5/10*$U$4,200,IF(A67&lt;=7/10*$U$4,0,IF(A67&lt;=$U$4,0))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8735,39 +8845,39 @@
         <v>65</v>
       </c>
       <c r="B68">
-        <f>$A68*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.0840704496667311</v>
       </c>
       <c r="C68">
-        <f>Feuil1!$B$1*COS($B68)+Feuil2!L$4</f>
-        <v>-82.289935320946256</v>
+        <f>Feuil1!$B$13*COS($B68)+Feuil2!L$4</f>
+        <v>-105.97768098833293</v>
       </c>
       <c r="D68">
-        <f>Feuil1!$B$1*SIN($B68)+Feuil2!M$4</f>
-        <v>-113.26237921249263</v>
+        <f>Feuil1!$B$13*SIN($B68)+Feuil2!M$4</f>
+        <v>-145.86576408580302</v>
       </c>
       <c r="E68">
-        <f>Feuil1!$B$2*COS($B68)+Feuil2!N$4</f>
-        <v>-88.167787843870983</v>
+        <f>Feuil1!$B$14*COS($B68)+Feuil2!N$4</f>
+        <v>-65.714391206298501</v>
       </c>
       <c r="F68">
-        <f>Feuil1!$B$2*SIN($B68)+Feuil2!O$4</f>
-        <v>78.647450843757895</v>
+        <f>Feuil1!$B$14*SIN($B68)+Feuil2!O$4</f>
+        <v>109.55190002888089</v>
       </c>
       <c r="G68">
-        <f>Feuil1!$B$3*COS($B68)+Feuil2!P$4</f>
-        <v>182.44294954150536</v>
+        <f>Feuil1!$B$15*COS($B68)+Feuil2!P$4</f>
+        <v>178.79868097729201</v>
       </c>
       <c r="H68">
-        <f>Feuil1!$B$3*SIN($B68)+Feuil2!Q$4</f>
-        <v>-61.803398874989455</v>
+        <f>Feuil1!$B$15*SIN($B68)+Feuil2!Q$4</f>
+        <v>-66.819304240114121</v>
       </c>
       <c r="I68">
-        <f>IF(A68&lt;=2/10*$U$4,0,IF(A68&lt;=5/10*$U$4,300,IF(A68&lt;=7/10*$U$4,300,IF(A68&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="J68">
-        <f>IF(A68&lt;=2/10*$U$4,200,IF(A68&lt;=5/10*$U$4,200,IF(A68&lt;=7/10*$U$4,0,IF(A68&lt;=$U$4,0))))</f>
+        <f t="shared" ref="J68:J103" si="8">IF(A68&lt;=2/10*$U$4,200,IF(A68&lt;=5/10*$U$4,200,IF(A68&lt;=7/10*$U$4,0,IF(A68&lt;=$U$4,0))))</f>
         <v>0</v>
       </c>
     </row>
@@ -8776,39 +8886,39 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <f>$A69*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.1469023027385274</v>
       </c>
       <c r="C69">
-        <f>Feuil1!$B$1*COS($B69)+Feuil2!L$4</f>
-        <v>-75.015751297059481</v>
+        <f>Feuil1!$B$13*COS($B69)+Feuil2!L$4</f>
+        <v>-96.609571134713036</v>
       </c>
       <c r="D69">
-        <f>Feuil1!$B$1*SIN($B69)+Feuil2!M$4</f>
-        <v>-118.20590957028215</v>
+        <f>Feuil1!$B$13*SIN($B69)+Feuil2!M$4</f>
+        <v>-152.23232496801336</v>
       </c>
       <c r="E69">
-        <f>Feuil1!$B$2*COS($B69)+Feuil2!N$4</f>
-        <v>-80.374019246849443</v>
+        <f>Feuil1!$B$14*COS($B69)+Feuil2!N$4</f>
+        <v>-59.905435678651784</v>
       </c>
       <c r="F69">
-        <f>Feuil1!$B$2*SIN($B69)+Feuil2!O$4</f>
-        <v>73.350811174697711</v>
+        <f>Feuil1!$B$14*SIN($B69)+Feuil2!O$4</f>
+        <v>105.60413792887469</v>
       </c>
       <c r="G69">
-        <f>Feuil1!$B$3*COS($B69)+Feuil2!P$4</f>
-        <v>192.83464100420073</v>
+        <f>Feuil1!$B$15*COS($B69)+Feuil2!P$4</f>
+        <v>189.51251487533096</v>
       </c>
       <c r="H69">
-        <f>Feuil1!$B$3*SIN($B69)+Feuil2!Q$4</f>
-        <v>-68.865585100403052</v>
+        <f>Feuil1!$B$15*SIN($B69)+Feuil2!Q$4</f>
+        <v>-74.100418238515545</v>
       </c>
       <c r="I69">
-        <f>IF(A69&lt;=2/10*$U$4,0,IF(A69&lt;=5/10*$U$4,300,IF(A69&lt;=7/10*$U$4,300,IF(A69&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="J69">
-        <f>IF(A69&lt;=2/10*$U$4,200,IF(A69&lt;=5/10*$U$4,200,IF(A69&lt;=7/10*$U$4,0,IF(A69&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8817,39 +8927,39 @@
         <v>67</v>
       </c>
       <c r="B70">
-        <f>$A70*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.209734155810323</v>
       </c>
       <c r="C70">
-        <f>Feuil1!$B$1*COS($B70)+Feuil2!L$4</f>
-        <v>-67.445514374240133</v>
+        <f>Feuil1!$B$13*COS($B70)+Feuil2!L$4</f>
+        <v>-86.860187440539264</v>
       </c>
       <c r="D70">
-        <f>Feuil1!$B$1*SIN($B70)+Feuil2!M$4</f>
-        <v>-122.6829352061409</v>
+        <f>Feuil1!$B$13*SIN($B70)+Feuil2!M$4</f>
+        <v>-157.99809441190862</v>
       </c>
       <c r="E70">
-        <f>Feuil1!$B$2*COS($B70)+Feuil2!N$4</f>
-        <v>-72.263051115257284</v>
+        <f>Feuil1!$B$14*COS($B70)+Feuil2!N$4</f>
+        <v>-53.860060764571763</v>
       </c>
       <c r="F70">
-        <f>Feuil1!$B$2*SIN($B70)+Feuil2!O$4</f>
-        <v>68.553997993420467</v>
+        <f>Feuil1!$B$14*SIN($B70)+Feuil2!O$4</f>
+        <v>102.02891317109605</v>
       </c>
       <c r="G70">
-        <f>Feuil1!$B$3*COS($B70)+Feuil2!P$4</f>
-        <v>203.64926517965694</v>
+        <f>Feuil1!$B$15*COS($B70)+Feuil2!P$4</f>
+        <v>200.66239240022634</v>
       </c>
       <c r="H70">
-        <f>Feuil1!$B$3*SIN($B70)+Feuil2!Q$4</f>
-        <v>-75.26133600877273</v>
+        <f>Feuil1!$B$15*SIN($B70)+Feuil2!Q$4</f>
+        <v>-80.694437425044669</v>
       </c>
       <c r="I70">
-        <f>IF(A70&lt;=2/10*$U$4,0,IF(A70&lt;=5/10*$U$4,300,IF(A70&lt;=7/10*$U$4,300,IF(A70&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="J70">
-        <f>IF(A70&lt;=2/10*$U$4,200,IF(A70&lt;=5/10*$U$4,200,IF(A70&lt;=7/10*$U$4,0,IF(A70&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8858,39 +8968,39 @@
         <v>68</v>
       </c>
       <c r="B71">
-        <f>$A71*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.2725660088821193</v>
       </c>
       <c r="C71">
-        <f>Feuil1!$B$1*COS($B71)+Feuil2!L$4</f>
-        <v>-59.609100819110104</v>
+        <f>Feuil1!$B$13*COS($B71)+Feuil2!L$4</f>
+        <v>-76.768006269182521</v>
       </c>
       <c r="D71">
-        <f>Feuil1!$B$1*SIN($B71)+Feuil2!M$4</f>
-        <v>-126.67578734524277</v>
+        <f>Feuil1!$B$13*SIN($B71)+Feuil2!M$4</f>
+        <v>-163.14031755962338</v>
       </c>
       <c r="E71">
-        <f>Feuil1!$B$2*COS($B71)+Feuil2!N$4</f>
-        <v>-63.866893734760822</v>
+        <f>Feuil1!$B$14*COS($B71)+Feuil2!N$4</f>
+        <v>-47.602124796975069</v>
       </c>
       <c r="F71">
-        <f>Feuil1!$B$2*SIN($B71)+Feuil2!O$4</f>
-        <v>64.275942130097036</v>
+        <f>Feuil1!$B$14*SIN($B71)+Feuil2!O$4</f>
+        <v>98.840335534298987</v>
       </c>
       <c r="G71">
-        <f>Feuil1!$B$3*COS($B71)+Feuil2!P$4</f>
-        <v>214.84414168698555</v>
+        <f>Feuil1!$B$15*COS($B71)+Feuil2!P$4</f>
+        <v>212.20431007928212</v>
       </c>
       <c r="H71">
-        <f>Feuil1!$B$3*SIN($B71)+Feuil2!Q$4</f>
-        <v>-80.965410493203962</v>
+        <f>Feuil1!$B$15*SIN($B71)+Feuil2!Q$4</f>
+        <v>-86.575338218493272</v>
       </c>
       <c r="I71">
-        <f>IF(A71&lt;=2/10*$U$4,0,IF(A71&lt;=5/10*$U$4,300,IF(A71&lt;=7/10*$U$4,300,IF(A71&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="J71">
-        <f>IF(A71&lt;=2/10*$U$4,200,IF(A71&lt;=5/10*$U$4,200,IF(A71&lt;=7/10*$U$4,0,IF(A71&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8899,39 +9009,39 @@
         <v>69</v>
       </c>
       <c r="B72">
-        <f>$A72*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.3353978619539149</v>
       </c>
       <c r="C72">
-        <f>Feuil1!$B$1*COS($B72)+Feuil2!L$4</f>
-        <v>-51.537437375854893</v>
+        <f>Feuil1!$B$13*COS($B72)+Feuil2!L$4</f>
+        <v>-66.372856849047409</v>
       </c>
       <c r="D72">
-        <f>Feuil1!$B$1*SIN($B72)+Feuil2!M$4</f>
-        <v>-130.1687080243552</v>
+        <f>Feuil1!$B$13*SIN($B72)+Feuil2!M$4</f>
+        <v>-167.63870040565175</v>
       </c>
       <c r="E72">
-        <f>Feuil1!$B$2*COS($B72)+Feuil2!N$4</f>
-        <v>-55.218682902701673</v>
+        <f>Feuil1!$B$14*COS($B72)+Feuil2!N$4</f>
+        <v>-41.156324990146977</v>
       </c>
       <c r="F72">
-        <f>Feuil1!$B$2*SIN($B72)+Feuil2!O$4</f>
-        <v>60.533527116762286</v>
+        <f>Feuil1!$B$14*SIN($B72)+Feuil2!O$4</f>
+        <v>96.050988877693484</v>
       </c>
       <c r="G72">
-        <f>Feuil1!$B$3*COS($B72)+Feuil2!P$4</f>
-        <v>226.37508946306446</v>
+        <f>Feuil1!$B$15*COS($B72)+Feuil2!P$4</f>
+        <v>224.09271723641945</v>
       </c>
       <c r="H72">
-        <f>Feuil1!$B$3*SIN($B72)+Feuil2!Q$4</f>
-        <v>-85.955297177650294</v>
+        <f>Feuil1!$B$15*SIN($B72)+Feuil2!Q$4</f>
+        <v>-91.719911390157449</v>
       </c>
       <c r="I72">
-        <f>IF(A72&lt;=2/10*$U$4,0,IF(A72&lt;=5/10*$U$4,300,IF(A72&lt;=7/10*$U$4,300,IF(A72&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="J72">
-        <f>IF(A72&lt;=2/10*$U$4,200,IF(A72&lt;=5/10*$U$4,200,IF(A72&lt;=7/10*$U$4,0,IF(A72&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8940,39 +9050,39 @@
         <v>70</v>
       </c>
       <c r="B73">
-        <f>$A73*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.3982297150257104</v>
       </c>
       <c r="C73">
-        <f>Feuil1!$B$1*COS($B73)+Feuil2!L$4</f>
-        <v>-43.262379212492661</v>
+        <f>Feuil1!$B$13*COS($B73)+Feuil2!L$4</f>
+        <v>-55.715764085803052</v>
       </c>
       <c r="D73">
-        <f>Feuil1!$B$1*SIN($B73)+Feuil2!M$4</f>
-        <v>-133.14791228132148</v>
+        <f>Feuil1!$B$13*SIN($B73)+Feuil2!M$4</f>
+        <v>-171.4754898880162</v>
       </c>
       <c r="E73">
-        <f>Feuil1!$B$2*COS($B73)+Feuil2!N$4</f>
-        <v>-46.352549156242134</v>
+        <f>Feuil1!$B$14*COS($B73)+Feuil2!N$4</f>
+        <v>-34.548099971119136</v>
       </c>
       <c r="F73">
-        <f>Feuil1!$B$2*SIN($B73)+Feuil2!O$4</f>
-        <v>57.341522555726982</v>
+        <f>Feuil1!$B$14*SIN($B73)+Feuil2!O$4</f>
+        <v>93.67188147820184</v>
       </c>
       <c r="G73">
-        <f>Feuil1!$B$3*COS($B73)+Feuil2!P$4</f>
-        <v>238.19660112501049</v>
+        <f>Feuil1!$B$15*COS($B73)+Feuil2!P$4</f>
+        <v>236.28069575988582</v>
       </c>
       <c r="H73">
-        <f>Feuil1!$B$3*SIN($B73)+Feuil2!Q$4</f>
-        <v>-90.2113032590307</v>
+        <f>Feuil1!$B$15*SIN($B73)+Feuil2!Q$4</f>
+        <v>-96.107853660060641</v>
       </c>
       <c r="I73">
-        <f>IF(A73&lt;=2/10*$U$4,0,IF(A73&lt;=5/10*$U$4,300,IF(A73&lt;=7/10*$U$4,300,IF(A73&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="J73">
-        <f>IF(A73&lt;=2/10*$U$4,200,IF(A73&lt;=5/10*$U$4,200,IF(A73&lt;=7/10*$U$4,0,IF(A73&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8981,39 +9091,39 @@
         <v>71</v>
       </c>
       <c r="B74">
-        <f>$A74*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.4610615680975068</v>
       </c>
       <c r="C74">
-        <f>Feuil1!$B$1*COS($B74)+Feuil2!L$4</f>
-        <v>-34.816584203079621</v>
+        <f>Feuil1!$B$13*COS($B74)+Feuil2!L$4</f>
+        <v>-44.838786655823256</v>
       </c>
       <c r="D74">
-        <f>Feuil1!$B$1*SIN($B74)+Feuil2!M$4</f>
-        <v>-135.60164255800836</v>
+        <f>Feuil1!$B$13*SIN($B74)+Feuil2!M$4</f>
+        <v>-174.63554395149222</v>
       </c>
       <c r="E74">
-        <f>Feuil1!$B$2*COS($B74)+Feuil2!N$4</f>
-        <v>-37.303483074728163</v>
+        <f>Feuil1!$B$14*COS($B74)+Feuil2!N$4</f>
+        <v>-27.803529385030725</v>
       </c>
       <c r="F74">
-        <f>Feuil1!$B$2*SIN($B74)+Feuil2!O$4</f>
-        <v>54.712525830705317</v>
+        <f>Feuil1!$B$14*SIN($B74)+Feuil2!O$4</f>
+        <v>91.712402585819035</v>
       </c>
       <c r="G74">
-        <f>Feuil1!$B$3*COS($B74)+Feuil2!P$4</f>
-        <v>250.26202256702911</v>
+        <f>Feuil1!$B$15*COS($B74)+Feuil2!P$4</f>
+        <v>248.72014526660701</v>
       </c>
       <c r="H74">
-        <f>Feuil1!$B$3*SIN($B74)+Feuil2!Q$4</f>
-        <v>-93.716632225726244</v>
+        <f>Feuil1!$B$15*SIN($B74)+Feuil2!Q$4</f>
+        <v>-99.721847824723739</v>
       </c>
       <c r="I74">
-        <f>IF(A74&lt;=2/10*$U$4,0,IF(A74&lt;=5/10*$U$4,300,IF(A74&lt;=7/10*$U$4,300,IF(A74&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J74">
-        <f>IF(A74&lt;=2/10*$U$4,200,IF(A74&lt;=5/10*$U$4,200,IF(A74&lt;=7/10*$U$4,0,IF(A74&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9022,39 +9132,39 @@
         <v>72</v>
       </c>
       <c r="B75">
-        <f>$A75*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.5238934211693023</v>
       </c>
       <c r="C75">
-        <f>Feuil1!$B$1*COS($B75)+Feuil2!L$4</f>
-        <v>-26.233384042001447</v>
+        <f>Feuil1!$B$13*COS($B75)+Feuil2!L$4</f>
+        <v>-33.784851019806155</v>
       </c>
       <c r="D75">
-        <f>Feuil1!$B$1*SIN($B75)+Feuil2!M$4</f>
-        <v>-137.52021510201641</v>
+        <f>Feuil1!$B$13*SIN($B75)+Feuil2!M$4</f>
+        <v>-177.10639130638259</v>
       </c>
       <c r="E75">
-        <f>Feuil1!$B$2*COS($B75)+Feuil2!N$4</f>
-        <v>-28.107197187858695</v>
+        <f>Feuil1!$B$14*COS($B75)+Feuil2!N$4</f>
+        <v>-20.949230970684013</v>
       </c>
       <c r="F75">
-        <f>Feuil1!$B$2*SIN($B75)+Feuil2!O$4</f>
-        <v>52.656912390696704</v>
+        <f>Feuil1!$B$14*SIN($B75)+Feuil2!O$4</f>
+        <v>90.180285368532608</v>
       </c>
       <c r="G75">
-        <f>Feuil1!$B$3*COS($B75)+Feuil2!P$4</f>
-        <v>262.52373708285506</v>
+        <f>Feuil1!$B$15*COS($B75)+Feuil2!P$4</f>
+        <v>261.36197293242355</v>
       </c>
       <c r="H75">
-        <f>Feuil1!$B$3*SIN($B75)+Feuil2!Q$4</f>
-        <v>-96.457450145737738</v>
+        <f>Feuil1!$B$15*SIN($B75)+Feuil2!Q$4</f>
+        <v>-102.54763110025561</v>
       </c>
       <c r="I75">
-        <f>IF(A75&lt;=2/10*$U$4,0,IF(A75&lt;=5/10*$U$4,300,IF(A75&lt;=7/10*$U$4,300,IF(A75&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J75">
-        <f>IF(A75&lt;=2/10*$U$4,200,IF(A75&lt;=5/10*$U$4,200,IF(A75&lt;=7/10*$U$4,0,IF(A75&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9063,39 +9173,39 @@
         <v>73</v>
       </c>
       <c r="B76">
-        <f>$A76*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.5867252742410987</v>
       </c>
       <c r="C76">
-        <f>Feuil1!$B$1*COS($B76)+Feuil2!L$4</f>
-        <v>-17.546652699002522</v>
+        <f>Feuil1!$B$13*COS($B76)+Feuil2!L$4</f>
+        <v>-22.597582011643965</v>
       </c>
       <c r="D76">
-        <f>Feuil1!$B$1*SIN($B76)+Feuil2!M$4</f>
-        <v>-138.89605818402691</v>
+        <f>Feuil1!$B$13*SIN($B76)+Feuil2!M$4</f>
+        <v>-178.87828064700037</v>
       </c>
       <c r="E76">
-        <f>Feuil1!$B$2*COS($B76)+Feuil2!N$4</f>
-        <v>-18.799985034645559</v>
+        <f>Feuil1!$B$14*COS($B76)+Feuil2!N$4</f>
+        <v>-14.012255512489157</v>
       </c>
       <c r="F76">
-        <f>Feuil1!$B$2*SIN($B76)+Feuil2!O$4</f>
-        <v>51.182794802828312</v>
+        <f>Feuil1!$B$14*SIN($B76)+Feuil2!O$4</f>
+        <v>89.081576393041374</v>
       </c>
       <c r="G76">
-        <f>Feuil1!$B$3*COS($B76)+Feuil2!P$4</f>
-        <v>274.93335328713925</v>
+        <f>Feuil1!$B$15*COS($B76)+Feuil2!P$4</f>
+        <v>274.15628723904058</v>
       </c>
       <c r="H76">
-        <f>Feuil1!$B$3*SIN($B76)+Feuil2!Q$4</f>
-        <v>-98.422940262895565</v>
+        <f>Feuil1!$B$15*SIN($B76)+Feuil2!Q$4</f>
+        <v>-104.57405141104533</v>
       </c>
       <c r="I76">
-        <f>IF(A76&lt;=2/10*$U$4,0,IF(A76&lt;=5/10*$U$4,300,IF(A76&lt;=7/10*$U$4,300,IF(A76&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J76">
-        <f>IF(A76&lt;=2/10*$U$4,200,IF(A76&lt;=5/10*$U$4,200,IF(A76&lt;=7/10*$U$4,0,IF(A76&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9104,39 +9214,39 @@
         <v>74</v>
       </c>
       <c r="B77">
-        <f>$A77*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.6495571273128942</v>
       </c>
       <c r="C77">
-        <f>Feuil1!$B$1*COS($B77)+Feuil2!L$4</f>
-        <v>-8.7906727341038486</v>
+        <f>Feuil1!$B$13*COS($B77)+Feuil2!L$4</f>
+        <v>-11.321130671135172</v>
       </c>
       <c r="D77">
-        <f>Feuil1!$B$1*SIN($B77)+Feuil2!M$4</f>
-        <v>-139.72374197995802</v>
+        <f>Feuil1!$B$13*SIN($B77)+Feuil2!M$4</f>
+        <v>-179.94421913561737</v>
       </c>
       <c r="E77">
-        <f>Feuil1!$B$2*COS($B77)+Feuil2!N$4</f>
-        <v>-9.4185779293969816</v>
+        <f>Feuil1!$B$14*COS($B77)+Feuil2!N$4</f>
+        <v>-7.0199800833772166</v>
       </c>
       <c r="F77">
-        <f>Feuil1!$B$2*SIN($B77)+Feuil2!O$4</f>
-        <v>50.295990735759261</v>
+        <f>Feuil1!$B$14*SIN($B77)+Feuil2!O$4</f>
+        <v>88.420611761719243</v>
       </c>
       <c r="G77">
-        <f>Feuil1!$B$3*COS($B77)+Feuil2!P$4</f>
-        <v>287.44189609413735</v>
+        <f>Feuil1!$B$15*COS($B77)+Feuil2!P$4</f>
+        <v>287.05259487305563</v>
       </c>
       <c r="H77">
-        <f>Feuil1!$B$3*SIN($B77)+Feuil2!Q$4</f>
-        <v>-99.605345685654299</v>
+        <f>Feuil1!$B$15*SIN($B77)+Feuil2!Q$4</f>
+        <v>-105.79311140190958</v>
       </c>
       <c r="I77">
-        <f>IF(A77&lt;=2/10*$U$4,0,IF(A77&lt;=5/10*$U$4,300,IF(A77&lt;=7/10*$U$4,300,IF(A77&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f>IF(A77&lt;=2/10*$U$4,200,IF(A77&lt;=5/10*$U$4,200,IF(A77&lt;=7/10*$U$4,0,IF(A77&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9145,39 +9255,39 @@
         <v>75</v>
       </c>
       <c r="B78">
-        <f>$A78*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="C78">
-        <f>Feuil1!$B$1*COS($B78)+Feuil2!L$4</f>
-        <v>-2.572811755308102E-14</v>
+        <f>Feuil1!$B$13*COS($B78)+Feuil2!L$4</f>
+        <v>-3.3134139963003628E-14</v>
       </c>
       <c r="D78">
-        <f>Feuil1!$B$1*SIN($B78)+Feuil2!M$4</f>
-        <v>-140</v>
+        <f>Feuil1!$B$13*SIN($B78)+Feuil2!M$4</f>
+        <v>-180.3</v>
       </c>
       <c r="E78">
-        <f>Feuil1!$B$2*COS($B78)+Feuil2!N$4</f>
-        <v>-2.756584023544395E-14</v>
+        <f>Feuil1!$B$14*COS($B78)+Feuil2!N$4</f>
+        <v>-2.0545739588817558E-14</v>
       </c>
       <c r="F78">
-        <f>Feuil1!$B$2*SIN($B78)+Feuil2!O$4</f>
-        <v>50</v>
+        <f>Feuil1!$B$14*SIN($B78)+Feuil2!O$4</f>
+        <v>88.2</v>
       </c>
       <c r="G78">
-        <f>Feuil1!$B$3*COS($B78)+Feuil2!P$4</f>
+        <f>Feuil1!$B$15*COS($B78)+Feuil2!P$4</f>
         <v>299.99999999999994</v>
       </c>
       <c r="H78">
-        <f>Feuil1!$B$3*SIN($B78)+Feuil2!Q$4</f>
-        <v>-100</v>
+        <f>Feuil1!$B$15*SIN($B78)+Feuil2!Q$4</f>
+        <v>-106.19999999999999</v>
       </c>
       <c r="I78">
-        <f>IF(A78&lt;=2/10*$U$4,0,IF(A78&lt;=5/10*$U$4,300,IF(A78&lt;=7/10*$U$4,300,IF(A78&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J78">
-        <f>IF(A78&lt;=2/10*$U$4,200,IF(A78&lt;=5/10*$U$4,200,IF(A78&lt;=7/10*$U$4,0,IF(A78&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9186,39 +9296,39 @@
         <v>76</v>
       </c>
       <c r="B79">
-        <f>$A79*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.7752208334564861</v>
       </c>
       <c r="C79">
-        <f>Feuil1!$B$1*COS($B79)+Feuil2!L$4</f>
-        <v>8.7906727341039215</v>
+        <f>Feuil1!$B$13*COS($B79)+Feuil2!L$4</f>
+        <v>11.321130671135265</v>
       </c>
       <c r="D79">
-        <f>Feuil1!$B$1*SIN($B79)+Feuil2!M$4</f>
-        <v>-139.72374197995802</v>
+        <f>Feuil1!$B$13*SIN($B79)+Feuil2!M$4</f>
+        <v>-179.94421913561737</v>
       </c>
       <c r="E79">
-        <f>Feuil1!$B$2*COS($B79)+Feuil2!N$4</f>
-        <v>9.418577929397058</v>
+        <f>Feuil1!$B$14*COS($B79)+Feuil2!N$4</f>
+        <v>7.0199800833772734</v>
       </c>
       <c r="F79">
-        <f>Feuil1!$B$2*SIN($B79)+Feuil2!O$4</f>
-        <v>50.295990735759261</v>
+        <f>Feuil1!$B$14*SIN($B79)+Feuil2!O$4</f>
+        <v>88.420611761719243</v>
       </c>
       <c r="G79">
-        <f>Feuil1!$B$3*COS($B79)+Feuil2!P$4</f>
-        <v>312.55810390586277</v>
+        <f>Feuil1!$B$15*COS($B79)+Feuil2!P$4</f>
+        <v>312.94740512694449</v>
       </c>
       <c r="H79">
-        <f>Feuil1!$B$3*SIN($B79)+Feuil2!Q$4</f>
-        <v>-99.605345685654299</v>
+        <f>Feuil1!$B$15*SIN($B79)+Feuil2!Q$4</f>
+        <v>-105.79311140190958</v>
       </c>
       <c r="I79">
-        <f>IF(A79&lt;=2/10*$U$4,0,IF(A79&lt;=5/10*$U$4,300,IF(A79&lt;=7/10*$U$4,300,IF(A79&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J79">
-        <f>IF(A79&lt;=2/10*$U$4,200,IF(A79&lt;=5/10*$U$4,200,IF(A79&lt;=7/10*$U$4,0,IF(A79&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9227,39 +9337,39 @@
         <v>77</v>
       </c>
       <c r="B80">
-        <f>$A80*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.8380526865282816</v>
       </c>
       <c r="C80">
-        <f>Feuil1!$B$1*COS($B80)+Feuil2!L$4</f>
-        <v>17.546652699002593</v>
+        <f>Feuil1!$B$13*COS($B80)+Feuil2!L$4</f>
+        <v>22.597582011644054</v>
       </c>
       <c r="D80">
-        <f>Feuil1!$B$1*SIN($B80)+Feuil2!M$4</f>
-        <v>-138.89605818402691</v>
+        <f>Feuil1!$B$13*SIN($B80)+Feuil2!M$4</f>
+        <v>-178.87828064700037</v>
       </c>
       <c r="E80">
-        <f>Feuil1!$B$2*COS($B80)+Feuil2!N$4</f>
-        <v>18.799985034645633</v>
+        <f>Feuil1!$B$14*COS($B80)+Feuil2!N$4</f>
+        <v>14.012255512489213</v>
       </c>
       <c r="F80">
-        <f>Feuil1!$B$2*SIN($B80)+Feuil2!O$4</f>
-        <v>51.182794802828312</v>
+        <f>Feuil1!$B$14*SIN($B80)+Feuil2!O$4</f>
+        <v>89.081576393041374</v>
       </c>
       <c r="G80">
-        <f>Feuil1!$B$3*COS($B80)+Feuil2!P$4</f>
-        <v>325.06664671286086</v>
+        <f>Feuil1!$B$15*COS($B80)+Feuil2!P$4</f>
+        <v>325.84371276095953</v>
       </c>
       <c r="H80">
-        <f>Feuil1!$B$3*SIN($B80)+Feuil2!Q$4</f>
-        <v>-98.422940262895565</v>
+        <f>Feuil1!$B$15*SIN($B80)+Feuil2!Q$4</f>
+        <v>-104.57405141104533</v>
       </c>
       <c r="I80">
-        <f>IF(A80&lt;=2/10*$U$4,0,IF(A80&lt;=5/10*$U$4,300,IF(A80&lt;=7/10*$U$4,300,IF(A80&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f>IF(A80&lt;=2/10*$U$4,200,IF(A80&lt;=5/10*$U$4,200,IF(A80&lt;=7/10*$U$4,0,IF(A80&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9268,39 +9378,39 @@
         <v>78</v>
       </c>
       <c r="B81">
-        <f>$A81*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.900884539600078</v>
       </c>
       <c r="C81">
-        <f>Feuil1!$B$1*COS($B81)+Feuil2!L$4</f>
-        <v>26.233384042001518</v>
+        <f>Feuil1!$B$13*COS($B81)+Feuil2!L$4</f>
+        <v>33.78485101980624</v>
       </c>
       <c r="D81">
-        <f>Feuil1!$B$1*SIN($B81)+Feuil2!M$4</f>
-        <v>-137.52021510201641</v>
+        <f>Feuil1!$B$13*SIN($B81)+Feuil2!M$4</f>
+        <v>-177.10639130638256</v>
       </c>
       <c r="E81">
-        <f>Feuil1!$B$2*COS($B81)+Feuil2!N$4</f>
-        <v>28.10719718785877</v>
+        <f>Feuil1!$B$14*COS($B81)+Feuil2!N$4</f>
+        <v>20.94923097068407</v>
       </c>
       <c r="F81">
-        <f>Feuil1!$B$2*SIN($B81)+Feuil2!O$4</f>
-        <v>52.656912390696704</v>
+        <f>Feuil1!$B$14*SIN($B81)+Feuil2!O$4</f>
+        <v>90.180285368532623</v>
       </c>
       <c r="G81">
-        <f>Feuil1!$B$3*COS($B81)+Feuil2!P$4</f>
-        <v>337.47626291714505</v>
+        <f>Feuil1!$B$15*COS($B81)+Feuil2!P$4</f>
+        <v>338.6380270675765</v>
       </c>
       <c r="H81">
-        <f>Feuil1!$B$3*SIN($B81)+Feuil2!Q$4</f>
-        <v>-96.45745014573771</v>
+        <f>Feuil1!$B$15*SIN($B81)+Feuil2!Q$4</f>
+        <v>-102.54763110025559</v>
       </c>
       <c r="I81">
-        <f>IF(A81&lt;=2/10*$U$4,0,IF(A81&lt;=5/10*$U$4,300,IF(A81&lt;=7/10*$U$4,300,IF(A81&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J81">
-        <f>IF(A81&lt;=2/10*$U$4,200,IF(A81&lt;=5/10*$U$4,200,IF(A81&lt;=7/10*$U$4,0,IF(A81&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9309,39 +9419,39 @@
         <v>79</v>
       </c>
       <c r="B82">
-        <f>$A82*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.9637163926718735</v>
       </c>
       <c r="C82">
-        <f>Feuil1!$B$1*COS($B82)+Feuil2!L$4</f>
-        <v>34.816584203079692</v>
+        <f>Feuil1!$B$13*COS($B82)+Feuil2!L$4</f>
+        <v>44.838786655823348</v>
       </c>
       <c r="D82">
-        <f>Feuil1!$B$1*SIN($B82)+Feuil2!M$4</f>
-        <v>-135.60164255800834</v>
+        <f>Feuil1!$B$13*SIN($B82)+Feuil2!M$4</f>
+        <v>-174.6355439514922</v>
       </c>
       <c r="E82">
-        <f>Feuil1!$B$2*COS($B82)+Feuil2!N$4</f>
-        <v>37.303483074728241</v>
+        <f>Feuil1!$B$14*COS($B82)+Feuil2!N$4</f>
+        <v>27.803529385030782</v>
       </c>
       <c r="F82">
-        <f>Feuil1!$B$2*SIN($B82)+Feuil2!O$4</f>
-        <v>54.712525830705346</v>
+        <f>Feuil1!$B$14*SIN($B82)+Feuil2!O$4</f>
+        <v>91.712402585819049</v>
       </c>
       <c r="G82">
-        <f>Feuil1!$B$3*COS($B82)+Feuil2!P$4</f>
-        <v>349.73797743297098</v>
+        <f>Feuil1!$B$15*COS($B82)+Feuil2!P$4</f>
+        <v>351.27985473339311</v>
       </c>
       <c r="H82">
-        <f>Feuil1!$B$3*SIN($B82)+Feuil2!Q$4</f>
-        <v>-93.716632225726215</v>
+        <f>Feuil1!$B$15*SIN($B82)+Feuil2!Q$4</f>
+        <v>-99.72184782472371</v>
       </c>
       <c r="I82">
-        <f>IF(A82&lt;=2/10*$U$4,0,IF(A82&lt;=5/10*$U$4,300,IF(A82&lt;=7/10*$U$4,300,IF(A82&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J82">
-        <f>IF(A82&lt;=2/10*$U$4,200,IF(A82&lt;=5/10*$U$4,200,IF(A82&lt;=7/10*$U$4,0,IF(A82&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9350,39 +9460,39 @@
         <v>80</v>
       </c>
       <c r="B83">
-        <f>$A83*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.026548245743669</v>
       </c>
       <c r="C83">
-        <f>Feuil1!$B$1*COS($B83)+Feuil2!L$4</f>
-        <v>43.262379212492611</v>
+        <f>Feuil1!$B$13*COS($B83)+Feuil2!L$4</f>
+        <v>55.715764085802988</v>
       </c>
       <c r="D83">
-        <f>Feuil1!$B$1*SIN($B83)+Feuil2!M$4</f>
-        <v>-133.14791228132151</v>
+        <f>Feuil1!$B$13*SIN($B83)+Feuil2!M$4</f>
+        <v>-171.4754898880162</v>
       </c>
       <c r="E83">
-        <f>Feuil1!$B$2*COS($B83)+Feuil2!N$4</f>
-        <v>46.352549156242084</v>
+        <f>Feuil1!$B$14*COS($B83)+Feuil2!N$4</f>
+        <v>34.5480999711191</v>
       </c>
       <c r="F83">
-        <f>Feuil1!$B$2*SIN($B83)+Feuil2!O$4</f>
-        <v>57.341522555726954</v>
+        <f>Feuil1!$B$14*SIN($B83)+Feuil2!O$4</f>
+        <v>93.671881478201826</v>
       </c>
       <c r="G83">
-        <f>Feuil1!$B$3*COS($B83)+Feuil2!P$4</f>
-        <v>361.80339887498945</v>
+        <f>Feuil1!$B$15*COS($B83)+Feuil2!P$4</f>
+        <v>363.71930424011413</v>
       </c>
       <c r="H83">
-        <f>Feuil1!$B$3*SIN($B83)+Feuil2!Q$4</f>
-        <v>-90.211303259030728</v>
+        <f>Feuil1!$B$15*SIN($B83)+Feuil2!Q$4</f>
+        <v>-96.10785366006067</v>
       </c>
       <c r="I83">
-        <f>IF(A83&lt;=2/10*$U$4,0,IF(A83&lt;=5/10*$U$4,300,IF(A83&lt;=7/10*$U$4,300,IF(A83&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J83">
-        <f>IF(A83&lt;=2/10*$U$4,200,IF(A83&lt;=5/10*$U$4,200,IF(A83&lt;=7/10*$U$4,0,IF(A83&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9391,39 +9501,39 @@
         <v>81</v>
       </c>
       <c r="B84">
-        <f>$A84*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.0893800988154654</v>
       </c>
       <c r="C84">
-        <f>Feuil1!$B$1*COS($B84)+Feuil2!L$4</f>
-        <v>51.537437375854957</v>
+        <f>Feuil1!$B$13*COS($B84)+Feuil2!L$4</f>
+        <v>66.372856849047494</v>
       </c>
       <c r="D84">
-        <f>Feuil1!$B$1*SIN($B84)+Feuil2!M$4</f>
-        <v>-130.16870802435517</v>
+        <f>Feuil1!$B$13*SIN($B84)+Feuil2!M$4</f>
+        <v>-167.63870040565172</v>
       </c>
       <c r="E84">
-        <f>Feuil1!$B$2*COS($B84)+Feuil2!N$4</f>
-        <v>55.218682902701737</v>
+        <f>Feuil1!$B$14*COS($B84)+Feuil2!N$4</f>
+        <v>41.156324990147027</v>
       </c>
       <c r="F84">
-        <f>Feuil1!$B$2*SIN($B84)+Feuil2!O$4</f>
-        <v>60.533527116762315</v>
+        <f>Feuil1!$B$14*SIN($B84)+Feuil2!O$4</f>
+        <v>96.050988877693513</v>
       </c>
       <c r="G84">
-        <f>Feuil1!$B$3*COS($B84)+Feuil2!P$4</f>
-        <v>373.62491053693566</v>
+        <f>Feuil1!$B$15*COS($B84)+Feuil2!P$4</f>
+        <v>375.90728276358067</v>
       </c>
       <c r="H84">
-        <f>Feuil1!$B$3*SIN($B84)+Feuil2!Q$4</f>
-        <v>-85.955297177650237</v>
+        <f>Feuil1!$B$15*SIN($B84)+Feuil2!Q$4</f>
+        <v>-91.719911390157392</v>
       </c>
       <c r="I84">
-        <f>IF(A84&lt;=2/10*$U$4,0,IF(A84&lt;=5/10*$U$4,300,IF(A84&lt;=7/10*$U$4,300,IF(A84&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J84">
-        <f>IF(A84&lt;=2/10*$U$4,200,IF(A84&lt;=5/10*$U$4,200,IF(A84&lt;=7/10*$U$4,0,IF(A84&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9432,39 +9542,39 @@
         <v>82</v>
       </c>
       <c r="B85">
-        <f>$A85*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.1522119518872609</v>
       </c>
       <c r="C85">
-        <f>Feuil1!$B$1*COS($B85)+Feuil2!L$4</f>
-        <v>59.609100819110168</v>
+        <f>Feuil1!$B$13*COS($B85)+Feuil2!L$4</f>
+        <v>76.768006269182592</v>
       </c>
       <c r="D85">
-        <f>Feuil1!$B$1*SIN($B85)+Feuil2!M$4</f>
-        <v>-126.67578734524274</v>
+        <f>Feuil1!$B$13*SIN($B85)+Feuil2!M$4</f>
+        <v>-163.14031755962333</v>
       </c>
       <c r="E85">
-        <f>Feuil1!$B$2*COS($B85)+Feuil2!N$4</f>
-        <v>63.866893734760893</v>
+        <f>Feuil1!$B$14*COS($B85)+Feuil2!N$4</f>
+        <v>47.602124796975119</v>
       </c>
       <c r="F85">
-        <f>Feuil1!$B$2*SIN($B85)+Feuil2!O$4</f>
-        <v>64.275942130097064</v>
+        <f>Feuil1!$B$14*SIN($B85)+Feuil2!O$4</f>
+        <v>98.840335534299015</v>
       </c>
       <c r="G85">
-        <f>Feuil1!$B$3*COS($B85)+Feuil2!P$4</f>
-        <v>385.15585831301451</v>
+        <f>Feuil1!$B$15*COS($B85)+Feuil2!P$4</f>
+        <v>387.79568992071796</v>
       </c>
       <c r="H85">
-        <f>Feuil1!$B$3*SIN($B85)+Feuil2!Q$4</f>
-        <v>-80.965410493203905</v>
+        <f>Feuil1!$B$15*SIN($B85)+Feuil2!Q$4</f>
+        <v>-86.575338218493215</v>
       </c>
       <c r="I85">
-        <f>IF(A85&lt;=2/10*$U$4,0,IF(A85&lt;=5/10*$U$4,300,IF(A85&lt;=7/10*$U$4,300,IF(A85&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f>IF(A85&lt;=2/10*$U$4,200,IF(A85&lt;=5/10*$U$4,200,IF(A85&lt;=7/10*$U$4,0,IF(A85&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9473,39 +9583,39 @@
         <v>83</v>
       </c>
       <c r="B86">
-        <f>$A86*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.2150438049590573</v>
       </c>
       <c r="C86">
-        <f>Feuil1!$B$1*COS($B86)+Feuil2!L$4</f>
-        <v>67.445514374240204</v>
+        <f>Feuil1!$B$13*COS($B86)+Feuil2!L$4</f>
+        <v>86.860187440539349</v>
       </c>
       <c r="D86">
-        <f>Feuil1!$B$1*SIN($B86)+Feuil2!M$4</f>
-        <v>-122.68293520614087</v>
+        <f>Feuil1!$B$13*SIN($B86)+Feuil2!M$4</f>
+        <v>-157.99809441190857</v>
       </c>
       <c r="E86">
-        <f>Feuil1!$B$2*COS($B86)+Feuil2!N$4</f>
-        <v>72.263051115257355</v>
+        <f>Feuil1!$B$14*COS($B86)+Feuil2!N$4</f>
+        <v>53.860060764571813</v>
       </c>
       <c r="F86">
-        <f>Feuil1!$B$2*SIN($B86)+Feuil2!O$4</f>
-        <v>68.553997993420495</v>
+        <f>Feuil1!$B$14*SIN($B86)+Feuil2!O$4</f>
+        <v>102.02891317109608</v>
       </c>
       <c r="G86">
-        <f>Feuil1!$B$3*COS($B86)+Feuil2!P$4</f>
-        <v>396.35073482034318</v>
+        <f>Feuil1!$B$15*COS($B86)+Feuil2!P$4</f>
+        <v>399.33760759977378</v>
       </c>
       <c r="H86">
-        <f>Feuil1!$B$3*SIN($B86)+Feuil2!Q$4</f>
-        <v>-75.261336008772673</v>
+        <f>Feuil1!$B$15*SIN($B86)+Feuil2!Q$4</f>
+        <v>-80.694437425044612</v>
       </c>
       <c r="I86">
-        <f>IF(A86&lt;=2/10*$U$4,0,IF(A86&lt;=5/10*$U$4,300,IF(A86&lt;=7/10*$U$4,300,IF(A86&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J86">
-        <f>IF(A86&lt;=2/10*$U$4,200,IF(A86&lt;=5/10*$U$4,200,IF(A86&lt;=7/10*$U$4,0,IF(A86&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9514,39 +9624,39 @@
         <v>84</v>
       </c>
       <c r="B87">
-        <f>$A87*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.2778756580308528</v>
       </c>
       <c r="C87">
-        <f>Feuil1!$B$1*COS($B87)+Feuil2!L$4</f>
-        <v>75.015751297059552</v>
+        <f>Feuil1!$B$13*COS($B87)+Feuil2!L$4</f>
+        <v>96.609571134713121</v>
       </c>
       <c r="D87">
-        <f>Feuil1!$B$1*SIN($B87)+Feuil2!M$4</f>
-        <v>-118.20590957028209</v>
+        <f>Feuil1!$B$13*SIN($B87)+Feuil2!M$4</f>
+        <v>-152.2323249680133</v>
       </c>
       <c r="E87">
-        <f>Feuil1!$B$2*COS($B87)+Feuil2!N$4</f>
-        <v>80.374019246849514</v>
+        <f>Feuil1!$B$14*COS($B87)+Feuil2!N$4</f>
+        <v>59.905435678651834</v>
       </c>
       <c r="F87">
-        <f>Feuil1!$B$2*SIN($B87)+Feuil2!O$4</f>
-        <v>73.350811174697753</v>
+        <f>Feuil1!$B$14*SIN($B87)+Feuil2!O$4</f>
+        <v>105.60413792887474</v>
       </c>
       <c r="G87">
-        <f>Feuil1!$B$3*COS($B87)+Feuil2!P$4</f>
-        <v>407.16535899579935</v>
+        <f>Feuil1!$B$15*COS($B87)+Feuil2!P$4</f>
+        <v>410.48748512466909</v>
       </c>
       <c r="H87">
-        <f>Feuil1!$B$3*SIN($B87)+Feuil2!Q$4</f>
-        <v>-68.865585100402996</v>
+        <f>Feuil1!$B$15*SIN($B87)+Feuil2!Q$4</f>
+        <v>-74.100418238515488</v>
       </c>
       <c r="I87">
-        <f>IF(A87&lt;=2/10*$U$4,0,IF(A87&lt;=5/10*$U$4,300,IF(A87&lt;=7/10*$U$4,300,IF(A87&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <f>IF(A87&lt;=2/10*$U$4,200,IF(A87&lt;=5/10*$U$4,200,IF(A87&lt;=7/10*$U$4,0,IF(A87&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9555,39 +9665,39 @@
         <v>85</v>
       </c>
       <c r="B88">
-        <f>$A88*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.3407075111026492</v>
       </c>
       <c r="C88">
-        <f>Feuil1!$B$1*COS($B88)+Feuil2!L$4</f>
-        <v>82.289935320946313</v>
+        <f>Feuil1!$B$13*COS($B88)+Feuil2!L$4</f>
+        <v>105.97768098833302</v>
       </c>
       <c r="D88">
-        <f>Feuil1!$B$1*SIN($B88)+Feuil2!M$4</f>
-        <v>-113.26237921249258</v>
+        <f>Feuil1!$B$13*SIN($B88)+Feuil2!M$4</f>
+        <v>-145.86576408580297</v>
       </c>
       <c r="E88">
-        <f>Feuil1!$B$2*COS($B88)+Feuil2!N$4</f>
-        <v>88.167787843871054</v>
+        <f>Feuil1!$B$14*COS($B88)+Feuil2!N$4</f>
+        <v>65.714391206298558</v>
       </c>
       <c r="F88">
-        <f>Feuil1!$B$2*SIN($B88)+Feuil2!O$4</f>
-        <v>78.647450843757952</v>
+        <f>Feuil1!$B$14*SIN($B88)+Feuil2!O$4</f>
+        <v>109.55190002888092</v>
       </c>
       <c r="G88">
-        <f>Feuil1!$B$3*COS($B88)+Feuil2!P$4</f>
-        <v>417.55705045849476</v>
+        <f>Feuil1!$B$15*COS($B88)+Feuil2!P$4</f>
+        <v>421.20131902270805</v>
       </c>
       <c r="H88">
-        <f>Feuil1!$B$3*SIN($B88)+Feuil2!Q$4</f>
-        <v>-61.803398874989398</v>
+        <f>Feuil1!$B$15*SIN($B88)+Feuil2!Q$4</f>
+        <v>-66.819304240114064</v>
       </c>
       <c r="I88">
-        <f>IF(A88&lt;=2/10*$U$4,0,IF(A88&lt;=5/10*$U$4,300,IF(A88&lt;=7/10*$U$4,300,IF(A88&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J88">
-        <f>IF(A88&lt;=2/10*$U$4,200,IF(A88&lt;=5/10*$U$4,200,IF(A88&lt;=7/10*$U$4,0,IF(A88&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9596,39 +9706,39 @@
         <v>86</v>
       </c>
       <c r="B89">
-        <f>$A89*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.4035393641744447</v>
       </c>
       <c r="C89">
-        <f>Feuil1!$B$1*COS($B89)+Feuil2!L$4</f>
-        <v>89.239358564816598</v>
+        <f>Feuil1!$B$13*COS($B89)+Feuil2!L$4</f>
+        <v>114.92754535168881</v>
       </c>
       <c r="D89">
-        <f>Feuil1!$B$1*SIN($B89)+Feuil2!M$4</f>
-        <v>-107.87185398861047</v>
+        <f>Feuil1!$B$13*SIN($B89)+Feuil2!M$4</f>
+        <v>-138.92353767247477</v>
       </c>
       <c r="E89">
-        <f>Feuil1!$B$2*COS($B89)+Feuil2!N$4</f>
-        <v>95.6135984623035</v>
+        <f>Feuil1!$B$14*COS($B89)+Feuil2!N$4</f>
+        <v>71.264002053903539</v>
       </c>
       <c r="F89">
-        <f>Feuil1!$B$2*SIN($B89)+Feuil2!O$4</f>
-        <v>84.423013583631644</v>
+        <f>Feuil1!$B$14*SIN($B89)+Feuil2!O$4</f>
+        <v>113.8566194576668</v>
       </c>
       <c r="G89">
-        <f>Feuil1!$B$3*COS($B89)+Feuil2!P$4</f>
-        <v>427.48479794973798</v>
+        <f>Feuil1!$B$15*COS($B89)+Feuil2!P$4</f>
+        <v>431.43682668617987</v>
       </c>
       <c r="H89">
-        <f>Feuil1!$B$3*SIN($B89)+Feuil2!Q$4</f>
-        <v>-54.102648555157799</v>
+        <f>Feuil1!$B$15*SIN($B89)+Feuil2!Q$4</f>
+        <v>-58.879830660367702</v>
       </c>
       <c r="I89">
-        <f>IF(A89&lt;=2/10*$U$4,0,IF(A89&lt;=5/10*$U$4,300,IF(A89&lt;=7/10*$U$4,300,IF(A89&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f>IF(A89&lt;=2/10*$U$4,200,IF(A89&lt;=5/10*$U$4,200,IF(A89&lt;=7/10*$U$4,0,IF(A89&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9637,39 +9747,39 @@
         <v>87</v>
       </c>
       <c r="B90">
-        <f>$A90*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.4663712172462402</v>
       </c>
       <c r="C90">
-        <f>Feuil1!$B$1*COS($B90)+Feuil2!L$4</f>
-        <v>95.836594830016409</v>
+        <f>Feuil1!$B$13*COS($B90)+Feuil2!L$4</f>
+        <v>123.42384319894256</v>
       </c>
       <c r="D90">
-        <f>Feuil1!$B$1*SIN($B90)+Feuil2!M$4</f>
-        <v>-102.05560783899762</v>
+        <f>Feuil1!$B$13*SIN($B90)+Feuil2!M$4</f>
+        <v>-131.43304352408052</v>
       </c>
       <c r="E90">
-        <f>Feuil1!$B$2*COS($B90)+Feuil2!N$4</f>
-        <v>102.68206588930329</v>
+        <f>Feuil1!$B$14*COS($B90)+Feuil2!N$4</f>
+        <v>76.532366442827382</v>
       </c>
       <c r="F90">
-        <f>Feuil1!$B$2*SIN($B90)+Feuil2!O$4</f>
-        <v>90.654705886788264</v>
+        <f>Feuil1!$B$14*SIN($B90)+Feuil2!O$4</f>
+        <v>118.50130745428619</v>
       </c>
       <c r="G90">
-        <f>Feuil1!$B$3*COS($B90)+Feuil2!P$4</f>
-        <v>436.90942118573776</v>
+        <f>Feuil1!$B$15*COS($B90)+Feuil2!P$4</f>
+        <v>441.15361324249557</v>
       </c>
       <c r="H90">
-        <f>Feuil1!$B$3*SIN($B90)+Feuil2!Q$4</f>
-        <v>-45.793725484282305</v>
+        <f>Feuil1!$B$15*SIN($B90)+Feuil2!Q$4</f>
+        <v>-50.313330974295042</v>
       </c>
       <c r="I90">
-        <f>IF(A90&lt;=2/10*$U$4,0,IF(A90&lt;=5/10*$U$4,300,IF(A90&lt;=7/10*$U$4,300,IF(A90&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J90">
-        <f>IF(A90&lt;=2/10*$U$4,200,IF(A90&lt;=5/10*$U$4,200,IF(A90&lt;=7/10*$U$4,0,IF(A90&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9678,39 +9788,39 @@
         <v>88</v>
       </c>
       <c r="B91">
-        <f>$A91*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.5292030703180366</v>
       </c>
       <c r="C91">
-        <f>Feuil1!$B$1*COS($B91)+Feuil2!L$4</f>
-        <v>102.05560783899766</v>
+        <f>Feuil1!$B$13*COS($B91)+Feuil2!L$4</f>
+        <v>131.43304352408057</v>
       </c>
       <c r="D91">
-        <f>Feuil1!$B$1*SIN($B91)+Feuil2!M$4</f>
-        <v>-95.836594830016367</v>
+        <f>Feuil1!$B$13*SIN($B91)+Feuil2!M$4</f>
+        <v>-123.42384319894251</v>
       </c>
       <c r="E91">
-        <f>Feuil1!$B$2*COS($B91)+Feuil2!N$4</f>
-        <v>109.34529411321178</v>
+        <f>Feuil1!$B$14*COS($B91)+Feuil2!N$4</f>
+        <v>81.498692545713851</v>
       </c>
       <c r="F91">
-        <f>Feuil1!$B$2*SIN($B91)+Feuil2!O$4</f>
-        <v>97.317934110696754</v>
+        <f>Feuil1!$B$14*SIN($B91)+Feuil2!O$4</f>
+        <v>123.46763355717265</v>
       </c>
       <c r="G91">
-        <f>Feuil1!$B$3*COS($B91)+Feuil2!P$4</f>
-        <v>445.79372548428239</v>
+        <f>Feuil1!$B$15*COS($B91)+Feuil2!P$4</f>
+        <v>450.31333097429513</v>
       </c>
       <c r="H91">
-        <f>Feuil1!$B$3*SIN($B91)+Feuil2!Q$4</f>
-        <v>-36.909421185737642</v>
+        <f>Feuil1!$B$15*SIN($B91)+Feuil2!Q$4</f>
+        <v>-41.15361324249551</v>
       </c>
       <c r="I91">
-        <f>IF(A91&lt;=2/10*$U$4,0,IF(A91&lt;=5/10*$U$4,300,IF(A91&lt;=7/10*$U$4,300,IF(A91&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f>IF(A91&lt;=2/10*$U$4,200,IF(A91&lt;=5/10*$U$4,200,IF(A91&lt;=7/10*$U$4,0,IF(A91&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9719,39 +9829,39 @@
         <v>89</v>
       </c>
       <c r="B92">
-        <f>$A92*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.5920349233898321</v>
       </c>
       <c r="C92">
-        <f>Feuil1!$B$1*COS($B92)+Feuil2!L$4</f>
-        <v>107.87185398861051</v>
+        <f>Feuil1!$B$13*COS($B92)+Feuil2!L$4</f>
+        <v>138.92353767247482</v>
       </c>
       <c r="D92">
-        <f>Feuil1!$B$1*SIN($B92)+Feuil2!M$4</f>
-        <v>-89.239358564816555</v>
+        <f>Feuil1!$B$13*SIN($B92)+Feuil2!M$4</f>
+        <v>-114.92754535168875</v>
       </c>
       <c r="E92">
-        <f>Feuil1!$B$2*COS($B92)+Feuil2!N$4</f>
-        <v>115.5769864163684</v>
+        <f>Feuil1!$B$14*COS($B92)+Feuil2!N$4</f>
+        <v>86.143380542333247</v>
       </c>
       <c r="F92">
-        <f>Feuil1!$B$2*SIN($B92)+Feuil2!O$4</f>
-        <v>104.38640153769656</v>
+        <f>Feuil1!$B$14*SIN($B92)+Feuil2!O$4</f>
+        <v>128.73599794609652</v>
       </c>
       <c r="G92">
-        <f>Feuil1!$B$3*COS($B92)+Feuil2!P$4</f>
-        <v>454.10264855515788</v>
+        <f>Feuil1!$B$15*COS($B92)+Feuil2!P$4</f>
+        <v>458.87983066036776</v>
       </c>
       <c r="H92">
-        <f>Feuil1!$B$3*SIN($B92)+Feuil2!Q$4</f>
-        <v>-27.484797949737924</v>
+        <f>Feuil1!$B$15*SIN($B92)+Feuil2!Q$4</f>
+        <v>-31.436826686179785</v>
       </c>
       <c r="I92">
-        <f>IF(A92&lt;=2/10*$U$4,0,IF(A92&lt;=5/10*$U$4,300,IF(A92&lt;=7/10*$U$4,300,IF(A92&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f>IF(A92&lt;=2/10*$U$4,200,IF(A92&lt;=5/10*$U$4,200,IF(A92&lt;=7/10*$U$4,0,IF(A92&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9760,39 +9870,39 @@
         <v>90</v>
       </c>
       <c r="B93">
-        <f>$A93*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.6548667764616285</v>
       </c>
       <c r="C93">
-        <f>Feuil1!$B$1*COS($B93)+Feuil2!L$4</f>
-        <v>113.26237921249269</v>
+        <f>Feuil1!$B$13*COS($B93)+Feuil2!L$4</f>
+        <v>145.86576408580311</v>
       </c>
       <c r="D93">
-        <f>Feuil1!$B$1*SIN($B93)+Feuil2!M$4</f>
-        <v>-82.289935320946157</v>
+        <f>Feuil1!$B$13*SIN($B93)+Feuil2!M$4</f>
+        <v>-105.97768098833281</v>
       </c>
       <c r="E93">
-        <f>Feuil1!$B$2*COS($B93)+Feuil2!N$4</f>
-        <v>121.35254915624216</v>
+        <f>Feuil1!$B$14*COS($B93)+Feuil2!N$4</f>
+        <v>90.448099971119163</v>
       </c>
       <c r="F93">
-        <f>Feuil1!$B$2*SIN($B93)+Feuil2!O$4</f>
-        <v>111.83221215612912</v>
+        <f>Feuil1!$B$14*SIN($B93)+Feuil2!O$4</f>
+        <v>134.28560879370156</v>
       </c>
       <c r="G93">
-        <f>Feuil1!$B$3*COS($B93)+Feuil2!P$4</f>
-        <v>461.80339887498957</v>
+        <f>Feuil1!$B$15*COS($B93)+Feuil2!P$4</f>
+        <v>466.81930424011421</v>
       </c>
       <c r="H93">
-        <f>Feuil1!$B$3*SIN($B93)+Feuil2!Q$4</f>
-        <v>-17.557050458494516</v>
+        <f>Feuil1!$B$15*SIN($B93)+Feuil2!Q$4</f>
+        <v>-21.201319022707835</v>
       </c>
       <c r="I93">
-        <f>IF(A93&lt;=2/10*$U$4,0,IF(A93&lt;=5/10*$U$4,300,IF(A93&lt;=7/10*$U$4,300,IF(A93&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f>IF(A93&lt;=2/10*$U$4,200,IF(A93&lt;=5/10*$U$4,200,IF(A93&lt;=7/10*$U$4,0,IF(A93&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9801,39 +9911,39 @@
         <v>91</v>
       </c>
       <c r="B94">
-        <f>$A94*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.717698629533424</v>
       </c>
       <c r="C94">
-        <f>Feuil1!$B$1*COS($B94)+Feuil2!L$4</f>
-        <v>118.20590957028215</v>
+        <f>Feuil1!$B$13*COS($B94)+Feuil2!L$4</f>
+        <v>152.23232496801336</v>
       </c>
       <c r="D94">
-        <f>Feuil1!$B$1*SIN($B94)+Feuil2!M$4</f>
-        <v>-75.015751297059481</v>
+        <f>Feuil1!$B$13*SIN($B94)+Feuil2!M$4</f>
+        <v>-96.609571134713036</v>
       </c>
       <c r="E94">
-        <f>Feuil1!$B$2*COS($B94)+Feuil2!N$4</f>
-        <v>126.64918882530229</v>
+        <f>Feuil1!$B$14*COS($B94)+Feuil2!N$4</f>
+        <v>94.395862071125308</v>
       </c>
       <c r="F94">
-        <f>Feuil1!$B$2*SIN($B94)+Feuil2!O$4</f>
-        <v>119.62598075315056</v>
+        <f>Feuil1!$B$14*SIN($B94)+Feuil2!O$4</f>
+        <v>140.09456432134823</v>
       </c>
       <c r="G94">
-        <f>Feuil1!$B$3*COS($B94)+Feuil2!P$4</f>
-        <v>468.86558510040305</v>
+        <f>Feuil1!$B$15*COS($B94)+Feuil2!P$4</f>
+        <v>474.10041823851554</v>
       </c>
       <c r="H94">
-        <f>Feuil1!$B$3*SIN($B94)+Feuil2!Q$4</f>
-        <v>-7.1653589957992665</v>
+        <f>Feuil1!$B$15*SIN($B94)+Feuil2!Q$4</f>
+        <v>-10.487485124669035</v>
       </c>
       <c r="I94">
-        <f>IF(A94&lt;=2/10*$U$4,0,IF(A94&lt;=5/10*$U$4,300,IF(A94&lt;=7/10*$U$4,300,IF(A94&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J94">
-        <f>IF(A94&lt;=2/10*$U$4,200,IF(A94&lt;=5/10*$U$4,200,IF(A94&lt;=7/10*$U$4,0,IF(A94&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9842,39 +9952,39 @@
         <v>92</v>
       </c>
       <c r="B95">
-        <f>$A95*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.7805304826052195</v>
       </c>
       <c r="C95">
-        <f>Feuil1!$B$1*COS($B95)+Feuil2!L$4</f>
-        <v>122.6829352061409</v>
+        <f>Feuil1!$B$13*COS($B95)+Feuil2!L$4</f>
+        <v>157.99809441190862</v>
       </c>
       <c r="D95">
-        <f>Feuil1!$B$1*SIN($B95)+Feuil2!M$4</f>
-        <v>-67.445514374240148</v>
+        <f>Feuil1!$B$13*SIN($B95)+Feuil2!M$4</f>
+        <v>-86.860187440539278</v>
       </c>
       <c r="E95">
-        <f>Feuil1!$B$2*COS($B95)+Feuil2!N$4</f>
-        <v>131.44600200657953</v>
+        <f>Feuil1!$B$14*COS($B95)+Feuil2!N$4</f>
+        <v>97.97108682890395</v>
       </c>
       <c r="F95">
-        <f>Feuil1!$B$2*SIN($B95)+Feuil2!O$4</f>
-        <v>127.7369488847427</v>
+        <f>Feuil1!$B$14*SIN($B95)+Feuil2!O$4</f>
+        <v>146.13993923542824</v>
       </c>
       <c r="G95">
-        <f>Feuil1!$B$3*COS($B95)+Feuil2!P$4</f>
-        <v>475.26133600877273</v>
+        <f>Feuil1!$B$15*COS($B95)+Feuil2!P$4</f>
+        <v>480.69443742504467</v>
       </c>
       <c r="H95">
-        <f>Feuil1!$B$3*SIN($B95)+Feuil2!Q$4</f>
-        <v>3.6492651796569362</v>
+        <f>Feuil1!$B$15*SIN($B95)+Feuil2!Q$4</f>
+        <v>0.66239240022630952</v>
       </c>
       <c r="I95">
-        <f>IF(A95&lt;=2/10*$U$4,0,IF(A95&lt;=5/10*$U$4,300,IF(A95&lt;=7/10*$U$4,300,IF(A95&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f>IF(A95&lt;=2/10*$U$4,200,IF(A95&lt;=5/10*$U$4,200,IF(A95&lt;=7/10*$U$4,0,IF(A95&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9883,39 +9993,39 @@
         <v>93</v>
       </c>
       <c r="B96">
-        <f>$A96*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.8433623356770159</v>
       </c>
       <c r="C96">
-        <f>Feuil1!$B$1*COS($B96)+Feuil2!L$4</f>
-        <v>126.67578734524275</v>
+        <f>Feuil1!$B$13*COS($B96)+Feuil2!L$4</f>
+        <v>163.14031755962336</v>
       </c>
       <c r="D96">
-        <f>Feuil1!$B$1*SIN($B96)+Feuil2!M$4</f>
-        <v>-59.609100819110111</v>
+        <f>Feuil1!$B$13*SIN($B96)+Feuil2!M$4</f>
+        <v>-76.768006269182521</v>
       </c>
       <c r="E96">
-        <f>Feuil1!$B$2*COS($B96)+Feuil2!N$4</f>
-        <v>135.72405786990296</v>
+        <f>Feuil1!$B$14*COS($B96)+Feuil2!N$4</f>
+        <v>101.159664465701</v>
       </c>
       <c r="F96">
-        <f>Feuil1!$B$2*SIN($B96)+Feuil2!O$4</f>
-        <v>136.13310626523918</v>
+        <f>Feuil1!$B$14*SIN($B96)+Feuil2!O$4</f>
+        <v>152.39787520302494</v>
       </c>
       <c r="G96">
-        <f>Feuil1!$B$3*COS($B96)+Feuil2!P$4</f>
-        <v>480.96541049320393</v>
+        <f>Feuil1!$B$15*COS($B96)+Feuil2!P$4</f>
+        <v>486.57533821849324</v>
       </c>
       <c r="H96">
-        <f>Feuil1!$B$3*SIN($B96)+Feuil2!Q$4</f>
-        <v>14.844141686985552</v>
+        <f>Feuil1!$B$15*SIN($B96)+Feuil2!Q$4</f>
+        <v>12.204310079282109</v>
       </c>
       <c r="I96">
-        <f>IF(A96&lt;=2/10*$U$4,0,IF(A96&lt;=5/10*$U$4,300,IF(A96&lt;=7/10*$U$4,300,IF(A96&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f>IF(A96&lt;=2/10*$U$4,200,IF(A96&lt;=5/10*$U$4,200,IF(A96&lt;=7/10*$U$4,0,IF(A96&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9924,39 +10034,39 @@
         <v>94</v>
       </c>
       <c r="B97">
-        <f>$A97*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.9061941887488114</v>
       </c>
       <c r="C97">
-        <f>Feuil1!$B$1*COS($B97)+Feuil2!L$4</f>
-        <v>130.1687080243552</v>
+        <f>Feuil1!$B$13*COS($B97)+Feuil2!L$4</f>
+        <v>167.63870040565175</v>
       </c>
       <c r="D97">
-        <f>Feuil1!$B$1*SIN($B97)+Feuil2!M$4</f>
-        <v>-51.5374373758549</v>
+        <f>Feuil1!$B$13*SIN($B97)+Feuil2!M$4</f>
+        <v>-66.372856849047423</v>
       </c>
       <c r="E97">
-        <f>Feuil1!$B$2*COS($B97)+Feuil2!N$4</f>
-        <v>139.46647288323771</v>
+        <f>Feuil1!$B$14*COS($B97)+Feuil2!N$4</f>
+        <v>103.94901112230652</v>
       </c>
       <c r="F97">
-        <f>Feuil1!$B$2*SIN($B97)+Feuil2!O$4</f>
-        <v>144.78131709729831</v>
+        <f>Feuil1!$B$14*SIN($B97)+Feuil2!O$4</f>
+        <v>158.84367500985303</v>
       </c>
       <c r="G97">
-        <f>Feuil1!$B$3*COS($B97)+Feuil2!P$4</f>
-        <v>485.95529717765032</v>
+        <f>Feuil1!$B$15*COS($B97)+Feuil2!P$4</f>
+        <v>491.71991139015745</v>
       </c>
       <c r="H97">
-        <f>Feuil1!$B$3*SIN($B97)+Feuil2!Q$4</f>
-        <v>26.375089463064427</v>
+        <f>Feuil1!$B$15*SIN($B97)+Feuil2!Q$4</f>
+        <v>24.092717236419432</v>
       </c>
       <c r="I97">
-        <f>IF(A97&lt;=2/10*$U$4,0,IF(A97&lt;=5/10*$U$4,300,IF(A97&lt;=7/10*$U$4,300,IF(A97&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f>IF(A97&lt;=2/10*$U$4,200,IF(A97&lt;=5/10*$U$4,200,IF(A97&lt;=7/10*$U$4,0,IF(A97&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9965,39 +10075,39 @@
         <v>95</v>
       </c>
       <c r="B98">
-        <f>$A98*$T$4</f>
+        <f t="shared" si="6"/>
         <v>5.9690260418206078</v>
       </c>
       <c r="C98">
-        <f>Feuil1!$B$1*COS($B98)+Feuil2!L$4</f>
-        <v>133.14791228132154</v>
+        <f>Feuil1!$B$13*COS($B98)+Feuil2!L$4</f>
+        <v>171.47548988801623</v>
       </c>
       <c r="D98">
-        <f>Feuil1!$B$1*SIN($B98)+Feuil2!M$4</f>
-        <v>-43.262379212492547</v>
+        <f>Feuil1!$B$13*SIN($B98)+Feuil2!M$4</f>
+        <v>-55.71576408580291</v>
       </c>
       <c r="E98">
-        <f>Feuil1!$B$2*COS($B98)+Feuil2!N$4</f>
-        <v>142.65847744427307</v>
+        <f>Feuil1!$B$14*COS($B98)+Feuil2!N$4</f>
+        <v>106.32811852179819</v>
       </c>
       <c r="F98">
-        <f>Feuil1!$B$2*SIN($B98)+Feuil2!O$4</f>
-        <v>153.64745084375798</v>
+        <f>Feuil1!$B$14*SIN($B98)+Feuil2!O$4</f>
+        <v>165.45190002888094</v>
       </c>
       <c r="G98">
-        <f>Feuil1!$B$3*COS($B98)+Feuil2!P$4</f>
-        <v>490.21130325903073</v>
+        <f>Feuil1!$B$15*COS($B98)+Feuil2!P$4</f>
+        <v>496.1078536600607</v>
       </c>
       <c r="H98">
-        <f>Feuil1!$B$3*SIN($B98)+Feuil2!Q$4</f>
-        <v>38.196601125010645</v>
+        <f>Feuil1!$B$15*SIN($B98)+Feuil2!Q$4</f>
+        <v>36.28069575988598</v>
       </c>
       <c r="I98">
-        <f>IF(A98&lt;=2/10*$U$4,0,IF(A98&lt;=5/10*$U$4,300,IF(A98&lt;=7/10*$U$4,300,IF(A98&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J98">
-        <f>IF(A98&lt;=2/10*$U$4,200,IF(A98&lt;=5/10*$U$4,200,IF(A98&lt;=7/10*$U$4,0,IF(A98&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10006,39 +10116,39 @@
         <v>96</v>
       </c>
       <c r="B99">
-        <f>$A99*$T$4</f>
+        <f t="shared" si="6"/>
         <v>6.0318578948924033</v>
       </c>
       <c r="C99">
-        <f>Feuil1!$B$1*COS($B99)+Feuil2!L$4</f>
-        <v>135.60164255800836</v>
+        <f>Feuil1!$B$13*COS($B99)+Feuil2!L$4</f>
+        <v>174.63554395149222</v>
       </c>
       <c r="D99">
-        <f>Feuil1!$B$1*SIN($B99)+Feuil2!M$4</f>
-        <v>-34.816584203079628</v>
+        <f>Feuil1!$B$13*SIN($B99)+Feuil2!M$4</f>
+        <v>-44.83878665582327</v>
       </c>
       <c r="E99">
-        <f>Feuil1!$B$2*COS($B99)+Feuil2!N$4</f>
-        <v>145.28747416929468</v>
+        <f>Feuil1!$B$14*COS($B99)+Feuil2!N$4</f>
+        <v>108.28759741418096</v>
       </c>
       <c r="F99">
-        <f>Feuil1!$B$2*SIN($B99)+Feuil2!O$4</f>
-        <v>162.69651692527182</v>
+        <f>Feuil1!$B$14*SIN($B99)+Feuil2!O$4</f>
+        <v>172.19647061496926</v>
       </c>
       <c r="G99">
-        <f>Feuil1!$B$3*COS($B99)+Feuil2!P$4</f>
-        <v>493.71663222572624</v>
+        <f>Feuil1!$B$15*COS($B99)+Feuil2!P$4</f>
+        <v>499.72184782472374</v>
       </c>
       <c r="H99">
-        <f>Feuil1!$B$3*SIN($B99)+Feuil2!Q$4</f>
-        <v>50.262022567029099</v>
+        <f>Feuil1!$B$15*SIN($B99)+Feuil2!Q$4</f>
+        <v>48.720145266607005</v>
       </c>
       <c r="I99">
-        <f>IF(A99&lt;=2/10*$U$4,0,IF(A99&lt;=5/10*$U$4,300,IF(A99&lt;=7/10*$U$4,300,IF(A99&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f>IF(A99&lt;=2/10*$U$4,200,IF(A99&lt;=5/10*$U$4,200,IF(A99&lt;=7/10*$U$4,0,IF(A99&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10047,39 +10157,39 @@
         <v>97</v>
       </c>
       <c r="B100">
-        <f>$A100*$T$4</f>
+        <f t="shared" si="6"/>
         <v>6.0946897479641988</v>
       </c>
       <c r="C100">
-        <f>Feuil1!$B$1*COS($B100)+Feuil2!L$4</f>
-        <v>137.52021510201641</v>
+        <f>Feuil1!$B$13*COS($B100)+Feuil2!L$4</f>
+        <v>177.10639130638259</v>
       </c>
       <c r="D100">
-        <f>Feuil1!$B$1*SIN($B100)+Feuil2!M$4</f>
-        <v>-26.233384042001457</v>
+        <f>Feuil1!$B$13*SIN($B100)+Feuil2!M$4</f>
+        <v>-33.784851019806162</v>
       </c>
       <c r="E100">
-        <f>Feuil1!$B$2*COS($B100)+Feuil2!N$4</f>
-        <v>147.3430876093033</v>
+        <f>Feuil1!$B$14*COS($B100)+Feuil2!N$4</f>
+        <v>109.81971463146739</v>
       </c>
       <c r="F100">
-        <f>Feuil1!$B$2*SIN($B100)+Feuil2!O$4</f>
-        <v>171.8928028121413</v>
+        <f>Feuil1!$B$14*SIN($B100)+Feuil2!O$4</f>
+        <v>179.05076902931597</v>
       </c>
       <c r="G100">
-        <f>Feuil1!$B$3*COS($B100)+Feuil2!P$4</f>
-        <v>496.45745014573777</v>
+        <f>Feuil1!$B$15*COS($B100)+Feuil2!P$4</f>
+        <v>502.54763110025561</v>
       </c>
       <c r="H100">
-        <f>Feuil1!$B$3*SIN($B100)+Feuil2!Q$4</f>
-        <v>62.523737082855064</v>
+        <f>Feuil1!$B$15*SIN($B100)+Feuil2!Q$4</f>
+        <v>61.361972932423569</v>
       </c>
       <c r="I100">
-        <f>IF(A100&lt;=2/10*$U$4,0,IF(A100&lt;=5/10*$U$4,300,IF(A100&lt;=7/10*$U$4,300,IF(A100&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J100">
-        <f>IF(A100&lt;=2/10*$U$4,200,IF(A100&lt;=5/10*$U$4,200,IF(A100&lt;=7/10*$U$4,0,IF(A100&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10088,39 +10198,39 @@
         <v>98</v>
       </c>
       <c r="B101">
-        <f>$A101*$T$4</f>
+        <f t="shared" si="6"/>
         <v>6.1575216010359952</v>
       </c>
       <c r="C101">
-        <f>Feuil1!$B$1*COS($B101)+Feuil2!L$4</f>
-        <v>138.89605818402691</v>
+        <f>Feuil1!$B$13*COS($B101)+Feuil2!L$4</f>
+        <v>178.87828064700037</v>
       </c>
       <c r="D101">
-        <f>Feuil1!$B$1*SIN($B101)+Feuil2!M$4</f>
-        <v>-17.546652699002529</v>
+        <f>Feuil1!$B$13*SIN($B101)+Feuil2!M$4</f>
+        <v>-22.597582011643976</v>
       </c>
       <c r="E101">
-        <f>Feuil1!$B$2*COS($B101)+Feuil2!N$4</f>
-        <v>148.81720519717169</v>
+        <f>Feuil1!$B$14*COS($B101)+Feuil2!N$4</f>
+        <v>110.91842360695863</v>
       </c>
       <c r="F101">
-        <f>Feuil1!$B$2*SIN($B101)+Feuil2!O$4</f>
-        <v>181.20001496535443</v>
+        <f>Feuil1!$B$14*SIN($B101)+Feuil2!O$4</f>
+        <v>185.98774448751084</v>
       </c>
       <c r="G101">
-        <f>Feuil1!$B$3*COS($B101)+Feuil2!P$4</f>
-        <v>498.42294026289557</v>
+        <f>Feuil1!$B$15*COS($B101)+Feuil2!P$4</f>
+        <v>504.57405141104533</v>
       </c>
       <c r="H101">
-        <f>Feuil1!$B$3*SIN($B101)+Feuil2!Q$4</f>
-        <v>74.933353287139241</v>
+        <f>Feuil1!$B$15*SIN($B101)+Feuil2!Q$4</f>
+        <v>74.156287239040566</v>
       </c>
       <c r="I101">
-        <f>IF(A101&lt;=2/10*$U$4,0,IF(A101&lt;=5/10*$U$4,300,IF(A101&lt;=7/10*$U$4,300,IF(A101&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J101">
-        <f>IF(A101&lt;=2/10*$U$4,200,IF(A101&lt;=5/10*$U$4,200,IF(A101&lt;=7/10*$U$4,0,IF(A101&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10129,39 +10239,39 @@
         <v>99</v>
       </c>
       <c r="B102">
-        <f>$A102*$T$4</f>
+        <f t="shared" si="6"/>
         <v>6.2203534541077907</v>
       </c>
       <c r="C102">
-        <f>Feuil1!$B$1*COS($B102)+Feuil2!L$4</f>
-        <v>139.72374197995802</v>
+        <f>Feuil1!$B$13*COS($B102)+Feuil2!L$4</f>
+        <v>179.94421913561737</v>
       </c>
       <c r="D102">
-        <f>Feuil1!$B$1*SIN($B102)+Feuil2!M$4</f>
-        <v>-8.7906727341038575</v>
+        <f>Feuil1!$B$13*SIN($B102)+Feuil2!M$4</f>
+        <v>-11.321130671135181</v>
       </c>
       <c r="E102">
-        <f>Feuil1!$B$2*COS($B102)+Feuil2!N$4</f>
-        <v>149.70400926424074</v>
+        <f>Feuil1!$B$14*COS($B102)+Feuil2!N$4</f>
+        <v>111.57938823828076</v>
       </c>
       <c r="F102">
-        <f>Feuil1!$B$2*SIN($B102)+Feuil2!O$4</f>
-        <v>190.58142207060303</v>
+        <f>Feuil1!$B$14*SIN($B102)+Feuil2!O$4</f>
+        <v>192.98001991662278</v>
       </c>
       <c r="G102">
-        <f>Feuil1!$B$3*COS($B102)+Feuil2!P$4</f>
-        <v>499.6053456856543</v>
+        <f>Feuil1!$B$15*COS($B102)+Feuil2!P$4</f>
+        <v>505.79311140190958</v>
       </c>
       <c r="H102">
-        <f>Feuil1!$B$3*SIN($B102)+Feuil2!Q$4</f>
-        <v>87.441896094137348</v>
+        <f>Feuil1!$B$15*SIN($B102)+Feuil2!Q$4</f>
+        <v>87.052594873055611</v>
       </c>
       <c r="I102">
-        <f>IF(A102&lt;=2/10*$U$4,0,IF(A102&lt;=5/10*$U$4,300,IF(A102&lt;=7/10*$U$4,300,IF(A102&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f>IF(A102&lt;=2/10*$U$4,200,IF(A102&lt;=5/10*$U$4,200,IF(A102&lt;=7/10*$U$4,0,IF(A102&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10170,39 +10280,39 @@
         <v>100</v>
       </c>
       <c r="B103">
-        <f>$A103*$T$4</f>
+        <f t="shared" si="6"/>
         <v>6.2831853071795871</v>
       </c>
       <c r="C103">
-        <f>Feuil1!$B$1*COS($B103)+Feuil2!L$4</f>
-        <v>140</v>
+        <f>Feuil1!$B$13*COS($B103)+Feuil2!L$4</f>
+        <v>180.3</v>
       </c>
       <c r="D103">
-        <f>Feuil1!$B$1*SIN($B103)+Feuil2!M$4</f>
-        <v>9.0040822020576172E-14</v>
+        <f>Feuil1!$B$13*SIN($B103)+Feuil2!M$4</f>
+        <v>1.1595971578792775E-13</v>
       </c>
       <c r="E103">
-        <f>Feuil1!$B$2*COS($B103)+Feuil2!N$4</f>
-        <v>150</v>
+        <f>Feuil1!$B$14*COS($B103)+Feuil2!N$4</f>
+        <v>111.8</v>
       </c>
       <c r="F103">
-        <f>Feuil1!$B$2*SIN($B103)+Feuil2!O$4</f>
+        <f>Feuil1!$B$14*SIN($B103)+Feuil2!O$4</f>
         <v>200.00000000000009</v>
       </c>
       <c r="G103">
-        <f>Feuil1!$B$3*COS($B103)+Feuil2!P$4</f>
-        <v>500</v>
+        <f>Feuil1!$B$15*COS($B103)+Feuil2!P$4</f>
+        <v>506.2</v>
       </c>
       <c r="H103">
-        <f>Feuil1!$B$3*SIN($B103)+Feuil2!Q$4</f>
+        <f>Feuil1!$B$15*SIN($B103)+Feuil2!Q$4</f>
         <v>100.00000000000013</v>
       </c>
       <c r="I103">
-        <f>IF(A103&lt;=2/10*$U$4,0,IF(A103&lt;=5/10*$U$4,300,IF(A103&lt;=7/10*$U$4,300,IF(A103&lt;=$U$4,0))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J103">
-        <f>IF(A103&lt;=2/10*$U$4,200,IF(A103&lt;=5/10*$U$4,200,IF(A103&lt;=7/10*$U$4,0,IF(A103&lt;=$U$4,0))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
